--- a/between_states/between_states_relative_data/community_living_between_2022_excel.xlsx
+++ b/between_states/between_states_relative_data/community_living_between_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>GEOID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>z_pwd_nursing_18_64_pct</t>
   </si>
   <si>
-    <t>index_pwd_nursing_18_64_pct</t>
+    <t>REL_index_pwd_nursing_18_64_pct</t>
   </si>
   <si>
     <t>pwd_grpquarters_institution_pct</t>
@@ -40,7 +40,7 @@
     <t>z_pwd_grpquarters_institution_pct</t>
   </si>
   <si>
-    <t>index_pwd_grpquarters_institution_pct</t>
+    <t>REL_index_pwd_grpquarters_institution_pct</t>
   </si>
   <si>
     <t>pwd_grpquarters_noninstitution_pct</t>
@@ -49,7 +49,7 @@
     <t>z_pwd_grpquarters_noninstitution_pct</t>
   </si>
   <si>
-    <t>index_pwd_grpquarters_noninstitution_pct</t>
+    <t>REL_index_pwd_grpquarters_noninstitution_pct</t>
   </si>
   <si>
     <t>pwd_home_pct</t>
@@ -58,7 +58,7 @@
     <t>z_pwd_home_pct</t>
   </si>
   <si>
-    <t>index_pwd_home_pct</t>
+    <t>REL_index_pwd_home_pct</t>
   </si>
   <si>
     <t>pwd_corrections_pct</t>
@@ -67,7 +67,7 @@
     <t>z_pwd_corrections_pct</t>
   </si>
   <si>
-    <t>index_pwd_corrections_pct</t>
+    <t>REL_index_pwd_corrections_pct</t>
   </si>
   <si>
     <t>pwd_housing_choice_voucher_pct</t>
@@ -76,7 +76,7 @@
     <t>z_pwd_housing_choice_voucher_pct</t>
   </si>
   <si>
-    <t>index_pwd_housing_choice_voucher_pct</t>
+    <t>REL_index_pwd_housing_choice_voucher_pct</t>
   </si>
   <si>
     <t>pwd_pubhousing_pct</t>
@@ -85,10 +85,31 @@
     <t>z_pwd_pubhousing_pct</t>
   </si>
   <si>
-    <t>index_pwd_pubhousing_pct</t>
-  </si>
-  <si>
-    <t>Community Living Index - Relative</t>
+    <t>REL_index_pwd_pubhousing_pct</t>
+  </si>
+  <si>
+    <t>Nursing Home 18-64 Relative Score</t>
+  </si>
+  <si>
+    <t>Institutonalized Groupquarters Relative Score</t>
+  </si>
+  <si>
+    <t>Non-Institutonalized Groupquarters Relative Score</t>
+  </si>
+  <si>
+    <t>Public Housing Relative Score</t>
+  </si>
+  <si>
+    <t>Home Relative Score</t>
+  </si>
+  <si>
+    <t>Correctional Facility Relative Score</t>
+  </si>
+  <si>
+    <t>Housing Choice Vouchers Relative Score</t>
+  </si>
+  <si>
+    <t>Community Living Relative Score</t>
   </si>
   <si>
     <t>United States</t>
@@ -401,12 +422,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -439,7 +454,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +482,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -590,7 +653,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -600,40 +663,61 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -656,6 +740,14 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffd478"/>
+      <rgbColor rgb="fffefc78"/>
+      <rgbColor rgb="ffd4fb78"/>
+      <rgbColor rgb="ff72fa78"/>
+      <rgbColor rgb="ff72fcd5"/>
+      <rgbColor rgb="ff73fdff"/>
+      <rgbColor rgb="ff75d5ff"/>
+      <rgbColor rgb="ffff84ff"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
@@ -1693,7 +1785,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1723,9 +1815,11 @@
     <col min="22" max="22" width="34" style="1" customWidth="1"/>
     <col min="23" max="23" width="18.5" style="1" customWidth="1"/>
     <col min="24" max="24" width="20.1719" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="28.6719" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="25" max="25" width="42.9688" style="1" customWidth="1"/>
+    <col min="26" max="26" width="34.0078" style="1" customWidth="1"/>
+    <col min="27" max="32" width="47.4609" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.0078" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1741,4275 +1835,5326 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" t="s" s="3">
         <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="10">
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="13">
+        <v>34</v>
+      </c>
+      <c r="D2" s="14">
         <v>2022</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="15">
         <v>1.26</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="15">
         <v>-0.0851783334741105</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="15">
         <v>48.58</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="15">
         <v>5.01</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="15">
         <v>0.131650717564326</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="15">
         <v>52.19</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="15">
         <v>0.28</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="15">
         <v>0.0560337715363595</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="15">
         <v>50.93</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="15">
         <v>93.16</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="15">
         <v>0.114067198986591</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="15">
         <v>51.9</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="15">
         <v>1.07</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="15">
         <v>-0.23025657883963</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="15">
         <v>46.16</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="7">
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="15">
+        <v>48.58</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>52.19</v>
+      </c>
+      <c r="AB2" s="15">
+        <v>50.93</v>
+      </c>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="15">
+        <v>46.16</v>
+      </c>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="15">
         <v>49.95</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s" s="11">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="B3" t="s" s="18">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="19">
+        <v>36</v>
+      </c>
+      <c r="D3" s="20">
         <v>2022</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="21">
         <v>1.34</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="21">
         <v>-0.292395799703526</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="21">
         <v>45.13</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="21">
         <v>4.81</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="21">
         <v>0.270370825230891</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="21">
         <v>54.51</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="21">
         <v>0.18</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="21">
         <v>0.822811697823386</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="21">
         <v>63.71</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="21">
         <v>94.36</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="21">
         <v>0.771296489546444</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="21">
         <v>62.85</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="21">
         <v>1.23</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="21">
         <v>-0.649264258788142</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="21">
         <v>39.18</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="21">
         <v>32.39</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="21">
         <v>1.6131675399497</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="21">
         <v>76.89</v>
       </c>
-      <c r="W3" s="13">
+      <c r="W3" s="21">
         <v>33.4</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="21">
         <v>0.915317440533022</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="21">
         <v>65.26000000000001</v>
       </c>
-      <c r="Z3" s="13">
+      <c r="Z3" s="21">
+        <v>45.13</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>54.51</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>63.71</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>0.915317440533022</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>39.18</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>76.89</v>
+      </c>
+      <c r="AG3" s="21">
         <v>58.22</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="B4" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="D4" s="20">
         <v>2022</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="21">
         <v>0.44</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="21">
         <v>2.03880069537739</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="21">
         <v>83.98</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="21">
         <v>3.24</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="21">
         <v>1.35932367041343</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="21">
         <v>72.66</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="21">
         <v>0.32</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="21">
         <v>-0.250677398978451</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="21">
         <v>45.82</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="21">
         <v>94.39</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="21">
         <v>0.787727221810441</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="21">
         <v>63.13</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="21">
         <v>1.02</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="21">
         <v>-0.09931667885572031</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="21">
         <v>48.34</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="21">
         <v>52.84</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="21">
         <v>-0.6740889426936481</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="21">
         <v>38.77</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="21">
         <v>31.36</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="21">
         <v>1.17167205583491</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="21">
         <v>69.53</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="21">
+        <v>83.98</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>72.66</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>45.82</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>1.17167205583491</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>69.53</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>48.34</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>38.77</v>
+      </c>
+      <c r="AG4" s="21">
         <v>60.32</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="B5" t="s" s="18">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="D5" s="20">
         <v>2022</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="21">
         <v>0.85</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="21">
         <v>0.976811180951641</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="21">
         <v>66.28</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="21">
         <v>3.41</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="21">
         <v>1.24141157889685</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="21">
         <v>70.69</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="21">
         <v>0.23</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="21">
         <v>0.439422734679873</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="21">
         <v>57.32</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="21">
         <v>94.98999999999999</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="21">
         <v>1.11634186709036</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="21">
         <v>68.61</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="21">
         <v>1.15</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="21">
         <v>-0.439760418813886</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="21">
         <v>42.67</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="21">
         <v>48.16</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="21">
         <v>-0.150648339330768</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="21">
         <v>47.49</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="21">
         <v>33.24</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="21">
         <v>0.935423684870425</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="21">
         <v>65.59</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="21">
+        <v>66.28</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>70.69</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>57.32</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0.935423684870425</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>65.59</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>42.67</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>47.49</v>
+      </c>
+      <c r="AG5" s="21">
         <v>59.81</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="B6" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20">
         <v>2022</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="21">
         <v>1.3</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="21">
         <v>-0.188787066588818</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="21">
         <v>46.85</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="21">
         <v>4.6</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="21">
         <v>0.416026938280785</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="21">
         <v>56.93</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="21">
         <v>0.17</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="21">
         <v>0.899489490452089</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="21">
         <v>64.98999999999999</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="21">
         <v>94.69</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="21">
         <v>0.952034544450403</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="21">
         <v>65.87</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="21">
         <v>0.86</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="21">
         <v>0.319691001092792</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="21">
         <v>55.33</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="21">
         <v>47.21</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="21">
         <v>-0.0443943706994154</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="21">
         <v>49.26</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="21">
         <v>38.8</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="21">
         <v>0.236731694145673</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="21">
         <v>53.95</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="21">
+        <v>46.85</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>56.93</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>0.236731694145673</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>53.95</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>55.33</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>49.26</v>
+      </c>
+      <c r="AG6" s="21">
         <v>56.17</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="B7" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="19">
+        <v>44</v>
+      </c>
+      <c r="D7" s="20">
         <v>2022</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="21">
         <v>1.24</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="21">
         <v>-0.0333739669167567</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="21">
         <v>49.44</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="21">
         <v>4</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="21">
         <v>0.832187261280479</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="21">
         <v>63.87</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="21">
         <v>0.43</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="21">
         <v>-1.09413311789418</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="21">
         <v>31.76</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="21">
         <v>92.33</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="21">
         <v>-0.340516393650639</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="21">
         <v>44.32</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="21">
         <v>0.97</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="21">
         <v>0.0316232211281898</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="21">
         <v>50.53</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="21">
         <v>50.39</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="21">
         <v>-0.400065549907525</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="21">
         <v>43.33</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="21">
         <v>32.58</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="21">
         <v>1.01836194276221</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="21">
         <v>66.97</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="21">
+        <v>49.44</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>63.87</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>31.76</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>1.01836194276221</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>66.97</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>50.53</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>43.33</v>
+      </c>
+      <c r="AG7" s="21">
         <v>50.03</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="17">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="B8" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="D8" s="20">
         <v>2022</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="21">
         <v>1.04</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="21">
         <v>0.484669698656781</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="21">
         <v>58.08</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="21">
         <v>5.09</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="21">
         <v>0.07616267449770039</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="21">
         <v>51.27</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="21">
         <v>0.21</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="21">
         <v>0.592778319937278</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="21">
         <v>59.88</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="21">
         <v>93.34</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="21">
         <v>0.212651592570572</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="21">
         <v>53.54</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="21">
         <v>1.73</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="21">
         <v>-1.95866325862724</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="21">
         <v>17.36</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="21">
         <v>52.5</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="21">
         <v>-0.6360612065519</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="21">
         <v>39.4</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="21">
         <v>48.75</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="21">
         <v>-1.01362537558657</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="21">
         <v>33.11</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="21">
+        <v>58.08</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>51.27</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>59.88</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>-1.01362537558657</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>33.11</v>
+      </c>
+      <c r="AE8" s="21">
+        <v>17.36</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>39.4</v>
+      </c>
+      <c r="AG8" s="21">
         <v>44.66</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="17">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="B9" t="s" s="18">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s" s="19">
+        <v>48</v>
+      </c>
+      <c r="D9" s="20">
         <v>2022</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="21">
         <v>1.56</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="21">
         <v>-0.862243831834417</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="21">
         <v>35.63</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="21">
         <v>6.2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="21">
         <v>-0.693733923051735</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="21">
         <v>38.44</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="21">
         <v>0.46</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="21">
         <v>-1.32416649578029</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="21">
         <v>27.93</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="21">
         <v>90.42</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="21">
         <v>-1.38660634779174</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="21">
         <v>26.89</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="21">
         <v>0.6</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="21">
         <v>1.00057848100912</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="21">
         <v>66.68000000000001</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="21">
         <v>38.97</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="21">
         <v>0.877218999324115</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="21">
         <v>64.62</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="21">
         <v>43.53</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="21">
         <v>-0.357659154078801</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="21">
         <v>44.04</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="21">
+        <v>35.63</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>38.44</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>27.93</v>
+      </c>
+      <c r="AC9" s="21">
+        <v>-0.357659154078801</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>44.04</v>
+      </c>
+      <c r="AE9" s="21">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="AF9" s="21">
+        <v>64.62</v>
+      </c>
+      <c r="AG9" s="21">
         <v>43.46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="17">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="B10" t="s" s="18">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="D10" s="20">
         <v>2022</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="21">
         <v>1.06</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="21">
         <v>0.432865332099427</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="21">
         <v>57.21</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="21">
         <v>4.1</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="21">
         <v>0.762827207447197</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="21">
         <v>62.71</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="21">
         <v>0.19</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="21">
         <v>0.746133905194683</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="21">
         <v>62.44</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="21">
         <v>94.75</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="21">
         <v>0.984896008978396</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="21">
         <v>66.41</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="21">
         <v>0.73</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="21">
         <v>0.660134741050958</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="21">
         <v>61</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="21">
         <v>41.56</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="21">
         <v>0.587537126950214</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="21">
         <v>59.79</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="21">
         <v>40.32</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="21">
         <v>0.0457223729403451</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="21">
         <v>50.76</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="21">
+        <v>57.21</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>62.71</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>62.44</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>0.0457223729403451</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>50.76</v>
+      </c>
+      <c r="AE10" s="21">
+        <v>61</v>
+      </c>
+      <c r="AF10" s="21">
+        <v>59.79</v>
+      </c>
+      <c r="AG10" s="21">
         <v>60.05</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="17">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="B11" t="s" s="18">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s" s="19">
+        <v>52</v>
+      </c>
+      <c r="D11" s="20">
         <v>2022</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="21">
         <v>1.4</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="21">
         <v>-0.447808899375586</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="21">
         <v>42.54</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="21">
         <v>4.89</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="21">
         <v>0.214882782164265</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="21">
         <v>53.58</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="21">
         <v>0.7</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="21">
         <v>-3</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="21">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="21">
         <v>89.2</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="21">
         <v>-2.05478945986092</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="21">
         <v>15.75</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="21">
         <v>0.72</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="21">
         <v>0.6863227210477399</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="21">
         <v>61.44</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="21">
         <v>36.58</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="21">
         <v>1.14453161514405</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="21">
         <v>69.08</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="21">
         <v>45.48</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="21">
         <v>-0.602704006940899</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="21">
         <v>39.95</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Z11" s="21">
+        <v>42.54</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>53.58</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>-0.602704006940899</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>39.95</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>61.44</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>69.08</v>
+      </c>
+      <c r="AG11" s="21">
         <v>40.33</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="17">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s" s="11">
-        <v>47</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B12" t="s" s="18">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="D12" s="20">
         <v>2022</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="21">
         <v>1.19</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="21">
         <v>0.09613694947662769</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="21">
         <v>51.6</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="21">
         <v>5.08</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="21">
         <v>0.08309867988102849</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="21">
         <v>51.38</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="21">
         <v>0.2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="21">
         <v>0.669456112565981</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="21">
         <v>61.16</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="21">
         <v>93.73999999999999</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="21">
         <v>0.431728022757185</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="21">
         <v>57.2</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="21">
         <v>1.26</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="21">
         <v>-0.727828198778488</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="21">
         <v>37.87</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="21">
         <v>42.9</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="21">
         <v>0.437663108038621</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="21">
         <v>57.29</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="21">
         <v>37.29</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="21">
         <v>0.426484375079913</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="21">
         <v>57.11</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="21">
+        <v>51.6</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>51.38</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>0.426484375079913</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>57.11</v>
+      </c>
+      <c r="AE12" s="21">
+        <v>37.87</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>57.29</v>
+      </c>
+      <c r="AG12" s="21">
         <v>53.37</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="17">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="B13" t="s" s="18">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s" s="19">
+        <v>56</v>
+      </c>
+      <c r="D13" s="20">
         <v>2022</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="21">
         <v>0.92</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="21">
         <v>0.795495898000903</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="21">
         <v>63.26</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="21">
         <v>4.34</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="21">
         <v>0.596363078247319</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="21">
         <v>59.94</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="21">
         <v>0.14</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="21">
         <v>1.1295228683382</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="21">
         <v>68.83</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="21">
         <v>94.73999999999999</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="21">
         <v>0.979419098223728</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="21">
         <v>66.31999999999999</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="21">
         <v>1.41</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="21">
         <v>-1.12064789873022</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="21">
         <v>31.32</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="21">
         <v>36.18</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="21">
         <v>1.18927012825198</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="21">
         <v>69.81999999999999</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="21">
         <v>31.78</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="21">
         <v>1.11889316444923</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="21">
         <v>68.65000000000001</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="21">
+        <v>63.26</v>
+      </c>
+      <c r="AA13" s="21">
+        <v>59.94</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>68.83</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>1.11889316444923</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="AE13" s="21">
+        <v>31.32</v>
+      </c>
+      <c r="AF13" s="21">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="AG13" s="21">
         <v>61.16</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="17">
         <v>15</v>
       </c>
-      <c r="B14" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B14" t="s" s="18">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s" s="19">
+        <v>58</v>
+      </c>
+      <c r="D14" s="20">
         <v>2022</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="21">
         <v>1.09</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="21">
         <v>0.355158782263396</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="21">
         <v>55.92</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="21">
         <v>3.9</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="21">
         <v>0.901547315113762</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="21">
         <v>65.03</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="21">
         <v>0.39</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="21">
         <v>-0.787421947379369</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="21">
         <v>36.88</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="21">
         <v>93.11</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="21">
         <v>0.0866826452132651</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="21">
         <v>51.44</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="21">
         <v>0.54</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="21">
         <v>1.15770636098982</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="21">
         <v>69.3</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="21">
         <v>41.07</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="21">
         <v>0.642341805507438</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="21">
         <v>60.71</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="21">
         <v>41.7</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="21">
         <v>-0.127693984469756</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y14" s="21">
         <v>47.87</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="21">
+        <v>55.92</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>65.03</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>36.88</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>-0.127693984469756</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>47.87</v>
+      </c>
+      <c r="AE14" s="21">
+        <v>69.3</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>60.71</v>
+      </c>
+      <c r="AG14" s="21">
         <v>55.31</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="17">
         <v>16</v>
       </c>
-      <c r="B15" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>53</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="B15" t="s" s="18">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="19">
+        <v>60</v>
+      </c>
+      <c r="D15" s="20">
         <v>2022</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="21">
         <v>1.04</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="21">
         <v>0.484669698656781</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="21">
         <v>58.08</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="21">
         <v>4.92</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="21">
         <v>0.194074766014281</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="21">
         <v>53.23</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="21">
         <v>0.18</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="21">
         <v>0.822811697823386</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="21">
         <v>63.71</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="21">
         <v>94.06</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="21">
         <v>0.606989166906483</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="21">
         <v>60.12</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="21">
         <v>1.2</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R15" s="21">
         <v>-0.570700318797796</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="21">
         <v>40.49</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="21">
         <v>61.44</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="21">
         <v>-1.63596697451432</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="21">
         <v>22.73</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="21">
         <v>66.04000000000001</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="21">
         <v>-3</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="21">
         <v>0</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="21">
+        <v>58.08</v>
+      </c>
+      <c r="AA15" s="21">
+        <v>53.23</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>63.71</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>-3</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="21">
+        <v>40.49</v>
+      </c>
+      <c r="AF15" s="21">
+        <v>22.73</v>
+      </c>
+      <c r="AG15" s="21">
         <v>42.62</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="17">
         <v>17</v>
       </c>
-      <c r="B16" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="B16" t="s" s="18">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="19">
+        <v>62</v>
+      </c>
+      <c r="D16" s="20">
         <v>2022</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="21">
         <v>2.5</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="21">
         <v>-3</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="21">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="21">
         <v>6.33</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="21">
         <v>-0.783901993035002</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="21">
         <v>36.93</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="21">
         <v>0.2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="21">
         <v>0.669456112565981</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="21">
         <v>61.16</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="21">
         <v>92.42</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="21">
         <v>-0.291224196858649</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="21">
         <v>45.15</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="21">
         <v>0.75</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="21">
         <v>0.607758781057393</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="21">
         <v>60.13</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="21">
         <v>37.58</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="21">
         <v>1.0326853323742</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="21">
         <v>67.20999999999999</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="21">
         <v>35.37</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="21">
         <v>0.667759307128749</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="21">
         <v>61.13</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="21">
+        <v>36.93</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="AC16" s="21">
+        <v>0.667759307128749</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>61.13</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>60.13</v>
+      </c>
+      <c r="AF16" s="21">
+        <v>67.20999999999999</v>
+      </c>
+      <c r="AG16" s="21">
         <v>47.39</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="17">
         <v>18</v>
       </c>
-      <c r="B17" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s" s="11">
-        <v>57</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="B17" t="s" s="18">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s" s="19">
+        <v>64</v>
+      </c>
+      <c r="D17" s="20">
         <v>2022</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="21">
         <v>1.42</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="21">
         <v>-0.49961326593294</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="21">
         <v>41.67</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="21">
         <v>6.14</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="21">
         <v>-0.652117890751765</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="21">
         <v>39.13</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="21">
         <v>0.19</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="21">
         <v>0.746133905194683</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="21">
         <v>62.44</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="21">
         <v>92.90000000000001</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="21">
         <v>-0.0283324806347056</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="21">
         <v>49.53</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="21">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="21">
         <v>0.110187161118536</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="21">
         <v>51.84</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="21">
         <v>44.75</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="21">
         <v>0.230747484914406</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="21">
         <v>53.85</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="21">
         <v>43.57</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="21">
         <v>-0.362685715163152</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Y17" s="21">
         <v>43.96</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="21">
+        <v>41.67</v>
+      </c>
+      <c r="AA17" s="21">
+        <v>39.13</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>62.44</v>
+      </c>
+      <c r="AC17" s="21">
+        <v>-0.362685715163152</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>43.96</v>
+      </c>
+      <c r="AE17" s="21">
+        <v>51.84</v>
+      </c>
+      <c r="AF17" s="21">
+        <v>53.85</v>
+      </c>
+      <c r="AG17" s="21">
         <v>48.92</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="17">
         <v>19</v>
       </c>
-      <c r="B18" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="B18" t="s" s="18">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s" s="19">
+        <v>66</v>
+      </c>
+      <c r="D18" s="20">
         <v>2022</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="21">
         <v>1.64</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="21">
         <v>-1.06946129806383</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="21">
         <v>32.18</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="21">
         <v>8.15</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="21">
         <v>-2.04625497280074</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="21">
         <v>15.9</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="21">
         <v>0.26</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="21">
         <v>0.209389356793765</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="21">
         <v>53.49</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="21">
         <v>90.43000000000001</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="21">
         <v>-1.38112943703707</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="21">
         <v>26.98</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="21">
         <v>0.65</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="21">
         <v>0.869638581025213</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="21">
         <v>64.48999999999999</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="21">
         <v>50.88</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="21">
         <v>-0.45487022846475</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="21">
         <v>42.42</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="21">
         <v>43.36</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="21">
         <v>-0.336296269470311</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="21">
         <v>44.4</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z18" s="21">
+        <v>32.18</v>
+      </c>
+      <c r="AA18" s="21">
+        <v>15.9</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>53.49</v>
+      </c>
+      <c r="AC18" s="21">
+        <v>-0.336296269470311</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>44.4</v>
+      </c>
+      <c r="AE18" s="21">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AF18" s="21">
+        <v>42.42</v>
+      </c>
+      <c r="AG18" s="21">
         <v>39.98</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="17">
         <v>20</v>
       </c>
-      <c r="B19" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="B19" t="s" s="18">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s" s="19">
+        <v>68</v>
+      </c>
+      <c r="D19" s="20">
         <v>2022</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="21">
         <v>1.3</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="21">
         <v>-0.188787066588818</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="21">
         <v>46.85</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="21">
         <v>6.96</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="21">
         <v>-1.22087033218468</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="21">
         <v>29.65</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="21">
         <v>0.3</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="21">
         <v>-0.09732181372104549</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="21">
         <v>48.38</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="21">
         <v>91.34999999999999</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="21">
         <v>-0.877253647607854</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="21">
         <v>35.38</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="21">
         <v>1.35</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="21">
         <v>-0.963520018749526</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="21">
         <v>33.94</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="21">
         <v>50.65</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="21">
         <v>-0.429145583427685</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="21">
         <v>42.85</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="21">
         <v>37.38</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="21">
         <v>0.415174612640124</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Y19" s="21">
         <v>56.92</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="Z19" s="21">
+        <v>46.85</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>29.65</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>48.38</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>0.415174612640124</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>56.92</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>33.94</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>42.85</v>
+      </c>
+      <c r="AG19" s="21">
         <v>42</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="17">
         <v>21</v>
       </c>
-      <c r="B20" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="B20" t="s" s="18">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="D20" s="20">
         <v>2022</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="21">
         <v>1.12</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="21">
         <v>0.277452232427365</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="21">
         <v>54.62</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="21">
         <v>4.81</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="21">
         <v>0.270370825230891</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="21">
         <v>54.51</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="21">
         <v>0.22</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="21">
         <v>0.516100527308576</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="21">
         <v>58.6</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="21">
         <v>94.20999999999999</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="21">
         <v>0.68914282822646</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="21">
         <v>61.49</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="21">
         <v>1.35</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="21">
         <v>-0.963520018749526</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="21">
         <v>33.94</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="21">
         <v>47.48</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="21">
         <v>-0.0745928670472733</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="21">
         <v>48.76</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="21">
         <v>40.51</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="21">
         <v>0.0218462077896794</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="Y20" s="21">
         <v>50.36</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="Z20" s="21">
+        <v>54.62</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>54.51</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>58.6</v>
+      </c>
+      <c r="AC20" s="21">
+        <v>0.0218462077896794</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>50.36</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>33.94</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>48.76</v>
+      </c>
+      <c r="AG20" s="21">
         <v>51.75</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="17">
         <v>22</v>
       </c>
-      <c r="B21" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s" s="11">
-        <v>65</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="B21" t="s" s="18">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s" s="19">
+        <v>72</v>
+      </c>
+      <c r="D21" s="20">
         <v>2022</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="21">
         <v>1.26</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="21">
         <v>-0.0851783334741105</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="21">
         <v>48.58</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="21">
         <v>4.75</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="21">
         <v>0.311986857530861</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="21">
         <v>55.2</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="21">
         <v>0.19</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="21">
         <v>0.746133905194683</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="21">
         <v>62.44</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="21">
         <v>94.29000000000001</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="21">
         <v>0.73295811426379</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="21">
         <v>62.22</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="21">
         <v>1.28</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="21">
         <v>-0.780204158772052</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="21">
         <v>37</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="21">
         <v>39.41</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="21">
         <v>0.828006634905383</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="21">
         <v>63.8</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="21">
         <v>35.73</v>
       </c>
-      <c r="X21" s="13">
+      <c r="X21" s="21">
         <v>0.622520257369592</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="Y21" s="21">
         <v>60.38</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="21">
+        <v>48.58</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>55.2</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>62.44</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>0.622520257369592</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>60.38</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>37</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>63.8</v>
+      </c>
+      <c r="AG21" s="21">
         <v>55.66</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="17">
         <v>23</v>
       </c>
-      <c r="B22" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="B22" t="s" s="18">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s" s="19">
+        <v>74</v>
+      </c>
+      <c r="D22" s="20">
         <v>2022</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="21">
         <v>1.07</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="21">
         <v>0.40696314882075</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="21">
         <v>56.78</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="21">
         <v>5.78</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="21">
         <v>-0.402421696951949</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="21">
         <v>43.29</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="21">
         <v>0.34</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="21">
         <v>-0.404032984235856</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="21">
         <v>43.27</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="21">
         <v>92.5</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="21">
         <v>-0.247408910821326</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="21">
         <v>45.88</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="21">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="21">
         <v>1.10533040099625</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="21">
         <v>68.42</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="21">
         <v>62.98</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="21">
         <v>-1.80821024997988</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="21">
         <v>19.86</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="21">
         <v>48.1</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="21">
         <v>-0.931943757965873</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="21">
         <v>34.47</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="21">
+        <v>56.78</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>43.29</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>43.27</v>
+      </c>
+      <c r="AC22" s="21">
+        <v>-0.931943757965873</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>34.47</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>68.42</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>19.86</v>
+      </c>
+      <c r="AG22" s="21">
         <v>44.57</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="17">
         <v>24</v>
       </c>
-      <c r="B23" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="B23" t="s" s="18">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s" s="19">
+        <v>76</v>
+      </c>
+      <c r="D23" s="20">
         <v>2022</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="21">
         <v>1.61</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="21">
         <v>-0.991754748227801</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="21">
         <v>33.47</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="21">
         <v>5.1</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="21">
         <v>0.06922666911437229</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="21">
         <v>51.15</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="21">
         <v>0.24</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="21">
         <v>0.36274494205117</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="21">
         <v>56.05</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="21">
         <v>93.09999999999999</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="21">
         <v>0.0812057344585969</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="21">
         <v>51.35</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="21">
         <v>0.85</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="21">
         <v>0.345878981089574</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="21">
         <v>55.76</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="21">
         <v>42.96</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="21">
         <v>0.43095233107243</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="21">
         <v>57.18</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="21">
         <v>41.98</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="21">
         <v>-0.16287991206021</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Y23" s="21">
         <v>47.29</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="21">
+        <v>33.47</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>51.15</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>56.05</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>-0.16287991206021</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>47.29</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>55.76</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>57.18</v>
+      </c>
+      <c r="AG23" s="21">
         <v>50.32</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="17">
         <v>25</v>
       </c>
-      <c r="B24" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="B24" t="s" s="18">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s" s="19">
+        <v>78</v>
+      </c>
+      <c r="D24" s="20">
         <v>2022</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="21">
         <v>1.34</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="21">
         <v>-0.292395799703526</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="21">
         <v>45.13</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="21">
         <v>5.64</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="21">
         <v>-0.305317621585353</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="21">
         <v>44.91</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="21">
         <v>0.39</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="21">
         <v>-0.787421947379369</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="21">
         <v>36.88</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="21">
         <v>91.53</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="21">
         <v>-0.778669254023872</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="21">
         <v>37.02</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="21">
         <v>0.46</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="21">
         <v>1.36721020096407</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="21">
         <v>72.79000000000001</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="21">
         <v>50.36</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="21">
         <v>-0.39671016142443</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="21">
         <v>43.39</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="21">
         <v>48.5</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="21">
         <v>-0.98220936880938</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y24" s="21">
         <v>33.63</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="21">
+        <v>45.13</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>44.91</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>36.88</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>-0.98220936880938</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>33.63</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>43.39</v>
+      </c>
+      <c r="AG24" s="21">
         <v>44.82</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="17">
         <v>26</v>
       </c>
-      <c r="B25" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>73</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="B25" t="s" s="18">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s" s="19">
+        <v>80</v>
+      </c>
+      <c r="D25" s="20">
         <v>2022</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="21">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="21">
         <v>0.74369153144355</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="21">
         <v>62.39</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="21">
         <v>4.42</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="21">
         <v>0.540875035180693</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="21">
         <v>59.01</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="21">
         <v>0.27</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="21">
         <v>0.132711564165062</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="21">
         <v>52.21</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="21">
         <v>93.94</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="21">
         <v>0.541266237850495</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="21">
         <v>59.02</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="21">
         <v>1.14</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="21">
         <v>-0.413572438817104</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="21">
         <v>43.11</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="21">
         <v>47.44</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="21">
         <v>-0.07011901573647961</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="21">
         <v>48.83</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="21">
         <v>49.33</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="21">
         <v>-1.08651051130966</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Y25" s="21">
         <v>31.89</v>
       </c>
-      <c r="Z25" s="13">
+      <c r="Z25" s="21">
+        <v>62.39</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>59.01</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>52.21</v>
+      </c>
+      <c r="AC25" s="21">
+        <v>-1.08651051130966</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>31.89</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>43.11</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>48.83</v>
+      </c>
+      <c r="AG25" s="21">
         <v>50.92</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="17">
         <v>27</v>
       </c>
-      <c r="B26" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="B26" t="s" s="18">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s" s="19">
+        <v>82</v>
+      </c>
+      <c r="D26" s="20">
         <v>2022</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="21">
         <v>1.31</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="21">
         <v>-0.214689249867495</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="21">
         <v>46.42</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="21">
         <v>6.5</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="21">
         <v>-0.901814084551583</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="21">
         <v>34.97</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="21">
         <v>0.47</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="21">
         <v>-1.40084428840899</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="21">
         <v>26.65</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="21">
         <v>89.90000000000001</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="21">
         <v>-1.67140570703434</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="21">
         <v>22.14</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="21">
         <v>0.5</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="21">
         <v>1.26245828097694</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="21">
         <v>71.04000000000001</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="21">
         <v>46.44</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="21">
         <v>0.0417272670333663</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="21">
         <v>50.7</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="21">
         <v>48.1</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="21">
         <v>-0.931943757965873</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y26" s="21">
         <v>34.47</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z26" s="21">
+        <v>46.42</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>34.97</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>26.65</v>
+      </c>
+      <c r="AC26" s="21">
+        <v>-0.931943757965873</v>
+      </c>
+      <c r="AD26" s="21">
+        <v>34.47</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="AF26" s="21">
+        <v>50.7</v>
+      </c>
+      <c r="AG26" s="21">
         <v>40.91</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="17">
         <v>28</v>
       </c>
-      <c r="B27" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="B27" t="s" s="18">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s" s="19">
+        <v>84</v>
+      </c>
+      <c r="D27" s="20">
         <v>2022</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="21">
         <v>1.71</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="21">
         <v>-1.25077658101457</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="21">
         <v>29.15</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="21">
         <v>5.32</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="21">
         <v>-0.08336544931884959</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="21">
         <v>48.61</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="21">
         <v>0.2</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="21">
         <v>0.669456112565981</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="21">
         <v>61.16</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="21">
         <v>93.83</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="21">
         <v>0.481020219549176</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="21">
         <v>58.02</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="21">
         <v>1.08</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="21">
         <v>-0.256444558836412</v>
       </c>
-      <c r="S27" s="13">
+      <c r="S27" s="21">
         <v>45.73</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="21">
         <v>34.28</v>
       </c>
-      <c r="U27" s="13">
+      <c r="U27" s="21">
         <v>1.40177806551469</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="21">
         <v>73.36</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="21">
         <v>32.54</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="21">
         <v>1.02338850384656</v>
       </c>
-      <c r="Y27" s="13">
+      <c r="Y27" s="21">
         <v>67.06</v>
       </c>
-      <c r="Z27" s="13">
+      <c r="Z27" s="21">
+        <v>29.15</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>48.61</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>1.02338850384656</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>67.06</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>45.73</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>73.36</v>
+      </c>
+      <c r="AG27" s="21">
         <v>54.73</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="17">
         <v>29</v>
       </c>
-      <c r="B28" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s" s="11">
-        <v>79</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="B28" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="D28" s="20">
         <v>2022</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="21">
         <v>1.93</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="21">
         <v>-1.82062461314546</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="21">
         <v>19.66</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="21">
         <v>6.23</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="21">
         <v>-0.71454193920172</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="21">
         <v>38.09</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="21">
         <v>0.22</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="21">
         <v>0.516100527308576</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="21">
         <v>58.6</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="21">
         <v>92.7</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="21">
         <v>-0.137870695728016</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="21">
         <v>47.7</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="21">
         <v>0.93</v>
       </c>
-      <c r="R28" s="13">
+      <c r="R28" s="21">
         <v>0.136375141115318</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="21">
         <v>52.27</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="21">
         <v>43.5</v>
       </c>
-      <c r="U28" s="13">
+      <c r="U28" s="21">
         <v>0.370555338376713</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="21">
         <v>56.18</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="21">
         <v>40.96</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="21">
         <v>-0.0347026044092667</v>
       </c>
-      <c r="Y28" s="13">
+      <c r="Y28" s="21">
         <v>49.42</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="Z28" s="21">
+        <v>19.66</v>
+      </c>
+      <c r="AA28" s="21">
+        <v>38.09</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>58.6</v>
+      </c>
+      <c r="AC28" s="21">
+        <v>-0.0347026044092667</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>49.42</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>52.27</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>56.18</v>
+      </c>
+      <c r="AG28" s="21">
         <v>45.99</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="17">
         <v>30</v>
       </c>
-      <c r="B29" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="B29" t="s" s="18">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="D29" s="20">
         <v>2022</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="21">
         <v>1.21</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="21">
         <v>0.0443325829192739</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="21">
         <v>50.74</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="21">
         <v>5.22</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="21">
         <v>-0.0140053954855668</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="21">
         <v>49.77</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="21">
         <v>0.35</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="21">
         <v>-0.480710776864559</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="21">
         <v>41.99</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="21">
         <v>92.68000000000001</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="21">
         <v>-0.148824517237344</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="21">
         <v>47.52</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="21">
         <v>0.91</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="21">
         <v>0.188751101108882</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="21">
         <v>53.15</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="21">
         <v>55.68</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="21">
         <v>-0.99173238576001</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="21">
         <v>33.47</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="21">
         <v>35.82</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="21">
         <v>0.6112104949298029</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Y29" s="21">
         <v>60.19</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="21">
+        <v>50.74</v>
+      </c>
+      <c r="AA29" s="21">
+        <v>49.77</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>41.99</v>
+      </c>
+      <c r="AC29" s="21">
+        <v>0.6112104949298029</v>
+      </c>
+      <c r="AD29" s="21">
+        <v>60.19</v>
+      </c>
+      <c r="AE29" s="21">
+        <v>53.15</v>
+      </c>
+      <c r="AF29" s="21">
+        <v>33.47</v>
+      </c>
+      <c r="AG29" s="21">
         <v>48.12</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="17">
         <v>31</v>
       </c>
-      <c r="B30" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s" s="11">
-        <v>83</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="B30" t="s" s="18">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s" s="19">
+        <v>90</v>
+      </c>
+      <c r="D30" s="20">
         <v>2022</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="21">
         <v>1.63</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="21">
         <v>-1.04355911478515</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="21">
         <v>32.61</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="21">
         <v>6.14</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="21">
         <v>-0.652117890751765</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="21">
         <v>39.13</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="21">
         <v>0.2</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="21">
         <v>0.669456112565981</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="21">
         <v>61.16</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="21">
         <v>92.62</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="21">
         <v>-0.181685981765338</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="21">
         <v>46.97</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="21">
         <v>0.67</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="21">
         <v>0.817262621031649</v>
       </c>
-      <c r="S30" s="13">
+      <c r="S30" s="21">
         <v>63.62</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="21">
         <v>48.96</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="21">
         <v>-0.240125365546646</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="21">
         <v>46</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="21">
         <v>36.44</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="21">
         <v>0.533298798122367</v>
       </c>
-      <c r="Y30" s="13">
+      <c r="Y30" s="21">
         <v>58.89</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="Z30" s="21">
+        <v>32.61</v>
+      </c>
+      <c r="AA30" s="21">
+        <v>39.13</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="AC30" s="21">
+        <v>0.533298798122367</v>
+      </c>
+      <c r="AD30" s="21">
+        <v>58.89</v>
+      </c>
+      <c r="AE30" s="21">
+        <v>63.62</v>
+      </c>
+      <c r="AF30" s="21">
+        <v>46</v>
+      </c>
+      <c r="AG30" s="21">
         <v>49.77</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="17">
         <v>32</v>
       </c>
-      <c r="B31" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s" s="11">
-        <v>85</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="B31" t="s" s="18">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s" s="19">
+        <v>92</v>
+      </c>
+      <c r="D31" s="20">
         <v>2022</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="21">
         <v>0.77</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="21">
         <v>1.18402864718106</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="21">
         <v>69.73</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="21">
         <v>2.88</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="21">
         <v>1.60901986421324</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="21">
         <v>76.81999999999999</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="21">
         <v>0.1</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="21">
         <v>1.43623403885301</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="21">
         <v>73.94</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="21">
         <v>96.47</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="21">
         <v>1.92692465878085</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="21">
         <v>82.12</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="21">
         <v>1.44</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="21">
         <v>-1.19921183872056</v>
       </c>
-      <c r="S31" s="13">
+      <c r="S31" s="21">
         <v>30.01</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="21">
         <v>48.22</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="21">
         <v>-0.157359116296959</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="21">
         <v>47.38</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="21">
         <v>39.08</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="21">
         <v>0.201545766555218</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="21">
         <v>53.36</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="Z31" s="21">
+        <v>69.73</v>
+      </c>
+      <c r="AA31" s="21">
+        <v>76.81999999999999</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>73.94</v>
+      </c>
+      <c r="AC31" s="21">
+        <v>0.201545766555218</v>
+      </c>
+      <c r="AD31" s="21">
+        <v>53.36</v>
+      </c>
+      <c r="AE31" s="21">
+        <v>30.01</v>
+      </c>
+      <c r="AF31" s="21">
+        <v>47.38</v>
+      </c>
+      <c r="AG31" s="21">
         <v>61.91</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="17">
         <v>33</v>
       </c>
-      <c r="B32" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="B32" t="s" s="18">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="D32" s="20">
         <v>2022</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="21">
         <v>0.98</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="21">
         <v>0.640082798328842</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="21">
         <v>60.67</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="21">
         <v>5.96</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="21">
         <v>-0.527269793851857</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="21">
         <v>41.21</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="21">
         <v>0.34</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="21">
         <v>-0.404032984235856</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="21">
         <v>43.27</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="21">
         <v>91.88</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="21">
         <v>-0.586977377610585</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="21">
         <v>40.22</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="21">
         <v>0.65</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="21">
         <v>0.869638581025213</v>
       </c>
-      <c r="S32" s="13">
+      <c r="S32" s="21">
         <v>64.48999999999999</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="21">
         <v>63.63</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="21">
         <v>-1.88091033378028</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="21">
         <v>18.65</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="21">
         <v>58.16</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="21">
         <v>-2.19612387068008</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="21">
         <v>13.4</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="21">
+        <v>60.67</v>
+      </c>
+      <c r="AA32" s="21">
+        <v>41.21</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>43.27</v>
+      </c>
+      <c r="AC32" s="21">
+        <v>-2.19612387068008</v>
+      </c>
+      <c r="AD32" s="21">
+        <v>13.4</v>
+      </c>
+      <c r="AE32" s="21">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="AF32" s="21">
+        <v>18.65</v>
+      </c>
+      <c r="AG32" s="21">
         <v>40.27</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="17">
         <v>34</v>
       </c>
-      <c r="B33" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s" s="11">
-        <v>89</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="B33" t="s" s="18">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s" s="19">
+        <v>96</v>
+      </c>
+      <c r="D33" s="20">
         <v>2022</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="21">
         <v>1.57</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="21">
         <v>-0.888146015113094</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="21">
         <v>35.2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="21">
         <v>4.94</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="21">
         <v>0.180202755247624</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="21">
         <v>53</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="21">
         <v>0.2</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="21">
         <v>0.669456112565981</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="21">
         <v>61.16</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="21">
         <v>93.47</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="21">
         <v>0.28385143238122</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="21">
         <v>54.73</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="21">
         <v>0.34</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="21">
         <v>1.68146596092545</v>
       </c>
-      <c r="S33" s="13">
+      <c r="S33" s="21">
         <v>78.02</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="21">
         <v>38.28</v>
       </c>
-      <c r="U33" s="13">
+      <c r="U33" s="21">
         <v>0.954392934435308</v>
       </c>
-      <c r="V33" s="13">
+      <c r="V33" s="21">
         <v>65.91</v>
       </c>
-      <c r="W33" s="13">
+      <c r="W33" s="21">
         <v>40.76</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="21">
         <v>-0.0095697989875126</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="21">
         <v>49.84</v>
       </c>
-      <c r="Z33" s="13">
+      <c r="Z33" s="21">
+        <v>35.2</v>
+      </c>
+      <c r="AA33" s="21">
+        <v>53</v>
+      </c>
+      <c r="AB33" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="AC33" s="21">
+        <v>-0.0095697989875126</v>
+      </c>
+      <c r="AD33" s="21">
+        <v>49.84</v>
+      </c>
+      <c r="AE33" s="21">
+        <v>78.02</v>
+      </c>
+      <c r="AF33" s="21">
+        <v>65.91</v>
+      </c>
+      <c r="AG33" s="21">
         <v>56.84</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="9">
+      <c r="A34" s="17">
         <v>35</v>
       </c>
-      <c r="B34" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s" s="11">
-        <v>91</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="B34" t="s" s="18">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s" s="19">
+        <v>98</v>
+      </c>
+      <c r="D34" s="20">
         <v>2022</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="21">
         <v>0.79</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="21">
         <v>1.1322242806237</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="21">
         <v>68.87</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="21">
         <v>3.38</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="21">
         <v>1.26221959504683</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="21">
         <v>71.04000000000001</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="21">
         <v>0.25</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="21">
         <v>0.286067149422468</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="21">
         <v>54.77</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="21">
         <v>95.23</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="21">
         <v>1.24778772520234</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="21">
         <v>70.8</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="21">
         <v>1.49</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="21">
         <v>-1.33015173870447</v>
       </c>
-      <c r="S34" s="13">
+      <c r="S34" s="21">
         <v>27.83</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="21">
         <v>56.91</v>
       </c>
-      <c r="U34" s="13">
+      <c r="U34" s="21">
         <v>-1.12930331356692</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="21">
         <v>31.18</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="21">
         <v>37.96</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="21">
         <v>0.342289476917038</v>
       </c>
-      <c r="Y34" s="13">
+      <c r="Y34" s="21">
         <v>55.7</v>
       </c>
-      <c r="Z34" s="13">
+      <c r="Z34" s="21">
+        <v>68.87</v>
+      </c>
+      <c r="AA34" s="21">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="AB34" s="21">
+        <v>54.77</v>
+      </c>
+      <c r="AC34" s="21">
+        <v>0.342289476917038</v>
+      </c>
+      <c r="AD34" s="21">
+        <v>55.7</v>
+      </c>
+      <c r="AE34" s="21">
+        <v>27.83</v>
+      </c>
+      <c r="AF34" s="21">
+        <v>31.18</v>
+      </c>
+      <c r="AG34" s="21">
         <v>54.31</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="17">
         <v>36</v>
       </c>
-      <c r="B35" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s" s="11">
-        <v>93</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="B35" t="s" s="18">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="D35" s="20">
         <v>2022</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="21">
         <v>1.39</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="21">
         <v>-0.42190671609691</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="21">
         <v>42.97</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="21">
         <v>5.03</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="21">
         <v>0.11777870679767</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="21">
         <v>51.96</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="21">
         <v>0.46</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="21">
         <v>-1.32416649578029</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="21">
         <v>27.93</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="21">
         <v>91.53</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="21">
         <v>-0.778669254023872</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="21">
         <v>37.02</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="21">
         <v>0.37</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R35" s="21">
         <v>1.60290202093511</v>
       </c>
-      <c r="S35" s="13">
+      <c r="S35" s="21">
         <v>76.72</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="21">
         <v>47.65</v>
       </c>
-      <c r="U35" s="13">
+      <c r="U35" s="21">
         <v>-0.09360673511814729</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="21">
         <v>48.44</v>
       </c>
-      <c r="W35" s="13">
+      <c r="W35" s="21">
         <v>41.75</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="21">
         <v>-0.133977185825194</v>
       </c>
-      <c r="Y35" s="13">
+      <c r="Y35" s="21">
         <v>47.77</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="Z35" s="21">
+        <v>42.97</v>
+      </c>
+      <c r="AA35" s="21">
+        <v>51.96</v>
+      </c>
+      <c r="AB35" s="21">
+        <v>27.93</v>
+      </c>
+      <c r="AC35" s="21">
+        <v>-0.133977185825194</v>
+      </c>
+      <c r="AD35" s="21">
+        <v>47.77</v>
+      </c>
+      <c r="AE35" s="21">
+        <v>76.72</v>
+      </c>
+      <c r="AF35" s="21">
+        <v>48.44</v>
+      </c>
+      <c r="AG35" s="21">
         <v>47.54</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="17">
         <v>37</v>
       </c>
-      <c r="B36" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s" s="11">
-        <v>95</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="B36" t="s" s="18">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s" s="19">
+        <v>102</v>
+      </c>
+      <c r="D36" s="20">
         <v>2022</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="21">
         <v>1.1</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="21">
         <v>0.329256598984719</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="21">
         <v>55.49</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="21">
         <v>4.61</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="21">
         <v>0.409090932897456</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="21">
         <v>56.82</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="21">
         <v>0.24</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="21">
         <v>0.36274494205117</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="21">
         <v>56.05</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="21">
         <v>93.88</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="21">
         <v>0.508404773322501</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="21">
         <v>58.47</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="21">
         <v>1.04</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="21">
         <v>-0.151692638849284</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="21">
         <v>47.47</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="21">
         <v>43.57</v>
       </c>
-      <c r="U36" s="13">
+      <c r="U36" s="21">
         <v>0.362726098582824</v>
       </c>
-      <c r="V36" s="13">
+      <c r="V36" s="21">
         <v>56.05</v>
       </c>
-      <c r="W36" s="13">
+      <c r="W36" s="21">
         <v>33.58</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="21">
         <v>0.892697915653444</v>
       </c>
-      <c r="Y36" s="13">
+      <c r="Y36" s="21">
         <v>64.88</v>
       </c>
-      <c r="Z36" s="13">
+      <c r="Z36" s="21">
+        <v>55.49</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>56.82</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>56.05</v>
+      </c>
+      <c r="AC36" s="21">
+        <v>0.892697915653444</v>
+      </c>
+      <c r="AD36" s="21">
+        <v>64.88</v>
+      </c>
+      <c r="AE36" s="21">
+        <v>47.47</v>
+      </c>
+      <c r="AF36" s="21">
+        <v>56.05</v>
+      </c>
+      <c r="AG36" s="21">
         <v>56.46</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="17">
         <v>38</v>
       </c>
-      <c r="B37" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s" s="11">
-        <v>97</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="B37" t="s" s="18">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s" s="19">
+        <v>104</v>
+      </c>
+      <c r="D37" s="20">
         <v>2022</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="21">
         <v>1.9</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="21">
         <v>-1.74291806330943</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="21">
         <v>20.95</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="21">
         <v>10.08</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="21">
         <v>-3</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="21">
         <v>0</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="21">
         <v>0.33</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="21">
         <v>-0.327355191607154</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="21">
         <v>44.54</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="21">
         <v>88.2</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="21">
         <v>-2.60248053532746</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="21">
         <v>6.63</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="21">
         <v>1</v>
       </c>
-      <c r="R37" s="13">
+      <c r="R37" s="21">
         <v>-0.0469407188621562</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="21">
         <v>49.22</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="21">
         <v>51.87</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="21">
         <v>-0.565598048406897</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="21">
         <v>40.57</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="21">
         <v>36.25</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="21">
         <v>0.557174963273032</v>
       </c>
-      <c r="Y37" s="13">
+      <c r="Y37" s="21">
         <v>59.29</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="21">
+        <v>20.95</v>
+      </c>
+      <c r="AA37" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="21">
+        <v>44.54</v>
+      </c>
+      <c r="AC37" s="21">
+        <v>0.557174963273032</v>
+      </c>
+      <c r="AD37" s="21">
+        <v>59.29</v>
+      </c>
+      <c r="AE37" s="21">
+        <v>49.22</v>
+      </c>
+      <c r="AF37" s="21">
+        <v>40.57</v>
+      </c>
+      <c r="AG37" s="21">
         <v>31.6</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="17">
         <v>39</v>
       </c>
-      <c r="B38" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="B38" t="s" s="18">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s" s="19">
+        <v>106</v>
+      </c>
+      <c r="D38" s="20">
         <v>2022</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="21">
         <v>1.78</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="21">
         <v>-1.43209186396531</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="21">
         <v>26.13</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="21">
         <v>6.13</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="21">
         <v>-0.645181885368437</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="21">
         <v>39.25</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="21">
         <v>0.24</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="21">
         <v>0.36274494205117</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="21">
         <v>56.05</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="21">
         <v>92.61</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="21">
         <v>-0.187162892520007</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="21">
         <v>46.88</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="21">
         <v>0.98</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R38" s="21">
         <v>0.0054352411314077</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S38" s="21">
         <v>50.09</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="21">
         <v>46.6</v>
       </c>
-      <c r="U38" s="13">
+      <c r="U38" s="21">
         <v>0.0238318617901906</v>
       </c>
-      <c r="V38" s="13">
+      <c r="V38" s="21">
         <v>50.4</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="21">
         <v>38.94</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="21">
         <v>0.219138730350446</v>
       </c>
-      <c r="Y38" s="13">
+      <c r="Y38" s="21">
         <v>53.65</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="21">
+        <v>26.13</v>
+      </c>
+      <c r="AA38" s="21">
+        <v>39.25</v>
+      </c>
+      <c r="AB38" s="21">
+        <v>56.05</v>
+      </c>
+      <c r="AC38" s="21">
+        <v>0.219138730350446</v>
+      </c>
+      <c r="AD38" s="21">
+        <v>53.65</v>
+      </c>
+      <c r="AE38" s="21">
+        <v>50.09</v>
+      </c>
+      <c r="AF38" s="21">
+        <v>50.4</v>
+      </c>
+      <c r="AG38" s="21">
         <v>46.06</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="9">
+      <c r="A39" s="17">
         <v>40</v>
       </c>
-      <c r="B39" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s" s="11">
-        <v>101</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="B39" t="s" s="18">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s" s="19">
+        <v>108</v>
+      </c>
+      <c r="D39" s="20">
         <v>2022</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="21">
         <v>1.37</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="21">
         <v>-0.370102349539556</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="21">
         <v>43.83</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="21">
         <v>5.36</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="21">
         <v>-0.111109470852163</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="21">
         <v>48.15</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="21">
         <v>0.21</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="21">
         <v>0.592778319937278</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="21">
         <v>59.88</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N39" s="21">
         <v>93.67</v>
       </c>
-      <c r="O39" s="13">
+      <c r="O39" s="21">
         <v>0.393389647474531</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="21">
         <v>56.56</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="21">
         <v>1.58</v>
       </c>
-      <c r="R39" s="13">
+      <c r="R39" s="21">
         <v>-1.56584355867551</v>
       </c>
-      <c r="S39" s="13">
+      <c r="S39" s="21">
         <v>23.9</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="21">
         <v>48.62</v>
       </c>
-      <c r="U39" s="13">
+      <c r="U39" s="21">
         <v>-0.202097629404898</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="21">
         <v>46.63</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="21">
         <v>43.4</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="21">
         <v>-0.341322830554661</v>
       </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="21">
         <v>44.31</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="21">
+        <v>43.83</v>
+      </c>
+      <c r="AA39" s="21">
+        <v>48.15</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>59.88</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>-0.341322830554661</v>
+      </c>
+      <c r="AD39" s="21">
+        <v>44.31</v>
+      </c>
+      <c r="AE39" s="21">
+        <v>23.9</v>
+      </c>
+      <c r="AF39" s="21">
+        <v>46.63</v>
+      </c>
+      <c r="AG39" s="21">
         <v>46.18</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="17">
         <v>41</v>
       </c>
-      <c r="B40" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s" s="11">
-        <v>103</v>
-      </c>
-      <c r="D40" s="12">
+      <c r="B40" t="s" s="18">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s" s="19">
+        <v>110</v>
+      </c>
+      <c r="D40" s="20">
         <v>2022</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="21">
         <v>0.79</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="21">
         <v>1.1322242806237</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="21">
         <v>68.87</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="21">
         <v>3.48</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="21">
         <v>1.19285954121355</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="21">
         <v>69.88</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="21">
         <v>0.57</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="21">
         <v>-2.16762221469602</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="21">
         <v>13.87</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="21">
         <v>92.91</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="21">
         <v>-0.0228555698800451</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="21">
         <v>49.62</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="21">
         <v>1.06</v>
       </c>
-      <c r="R40" s="13">
+      <c r="R40" s="21">
         <v>-0.204068598842848</v>
       </c>
-      <c r="S40" s="13">
+      <c r="S40" s="21">
         <v>46.6</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="21">
         <v>56.12</v>
       </c>
-      <c r="U40" s="13">
+      <c r="U40" s="21">
         <v>-1.04094475017874</v>
       </c>
-      <c r="V40" s="13">
+      <c r="V40" s="21">
         <v>32.65</v>
       </c>
-      <c r="W40" s="13">
+      <c r="W40" s="21">
         <v>51.35</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="21">
         <v>-1.34035184606937</v>
       </c>
-      <c r="Y40" s="13">
+      <c r="Y40" s="21">
         <v>27.66</v>
       </c>
-      <c r="Z40" s="13">
+      <c r="Z40" s="21">
+        <v>68.87</v>
+      </c>
+      <c r="AA40" s="21">
+        <v>69.88</v>
+      </c>
+      <c r="AB40" s="21">
+        <v>13.87</v>
+      </c>
+      <c r="AC40" s="21">
+        <v>-1.34035184606937</v>
+      </c>
+      <c r="AD40" s="21">
+        <v>27.66</v>
+      </c>
+      <c r="AE40" s="21">
+        <v>46.6</v>
+      </c>
+      <c r="AF40" s="21">
+        <v>32.65</v>
+      </c>
+      <c r="AG40" s="21">
         <v>44.16</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="9">
+      <c r="A41" s="17">
         <v>42</v>
       </c>
-      <c r="B41" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="C41" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="D41" s="12">
+      <c r="B41" t="s" s="18">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s" s="19">
+        <v>112</v>
+      </c>
+      <c r="D41" s="20">
         <v>2022</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="21">
         <v>1.32</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="21">
         <v>-0.240591433146172</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="21">
         <v>45.99</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="21">
         <v>6.38</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="21">
         <v>-0.818582019951644</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="21">
         <v>36.36</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="21">
         <v>0.3</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="21">
         <v>-0.09732181372104549</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="21">
         <v>48.38</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N41" s="21">
         <v>91.95</v>
       </c>
-      <c r="O41" s="13">
+      <c r="O41" s="21">
         <v>-0.548639002327923</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="21">
         <v>40.86</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="21">
         <v>1.19</v>
       </c>
-      <c r="R41" s="13">
+      <c r="R41" s="21">
         <v>-0.544512338801014</v>
       </c>
-      <c r="S41" s="13">
+      <c r="S41" s="21">
         <v>40.92</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="21">
         <v>47.1</v>
       </c>
-      <c r="U41" s="13">
+      <c r="U41" s="21">
         <v>-0.0320912795947324</v>
       </c>
-      <c r="V41" s="13">
+      <c r="V41" s="21">
         <v>49.47</v>
       </c>
-      <c r="W41" s="13">
+      <c r="W41" s="21">
         <v>46.24</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="21">
         <v>-0.698208667543564</v>
       </c>
-      <c r="Y41" s="13">
+      <c r="Y41" s="21">
         <v>38.36</v>
       </c>
-      <c r="Z41" s="13">
+      <c r="Z41" s="21">
+        <v>45.99</v>
+      </c>
+      <c r="AA41" s="21">
+        <v>36.36</v>
+      </c>
+      <c r="AB41" s="21">
+        <v>48.38</v>
+      </c>
+      <c r="AC41" s="21">
+        <v>-0.698208667543564</v>
+      </c>
+      <c r="AD41" s="21">
+        <v>38.36</v>
+      </c>
+      <c r="AE41" s="21">
+        <v>40.92</v>
+      </c>
+      <c r="AF41" s="21">
+        <v>49.47</v>
+      </c>
+      <c r="AG41" s="21">
         <v>42.91</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="17">
         <v>44</v>
       </c>
-      <c r="B42" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s" s="11">
-        <v>107</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="B42" t="s" s="18">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="D42" s="20">
         <v>2022</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="21">
         <v>1.78</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="21">
         <v>-1.43209186396531</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="21">
         <v>26.13</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="21">
         <v>6.9</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="21">
         <v>-1.17925429988471</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="21">
         <v>30.35</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="21">
         <v>0.48</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="21">
         <v>-1.47752208103769</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="21">
         <v>25.37</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="21">
         <v>90.16</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="21">
         <v>-1.52900602741304</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="21">
         <v>24.52</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="21">
         <v>0.74</v>
       </c>
-      <c r="R42" s="13">
+      <c r="R42" s="21">
         <v>0.633946761054176</v>
       </c>
-      <c r="S42" s="13">
+      <c r="S42" s="21">
         <v>60.57</v>
       </c>
-      <c r="T42" s="13">
+      <c r="T42" s="21">
         <v>45</v>
       </c>
-      <c r="U42" s="13">
+      <c r="U42" s="21">
         <v>0.202785914221944</v>
       </c>
-      <c r="V42" s="13">
+      <c r="V42" s="21">
         <v>53.38</v>
       </c>
-      <c r="W42" s="13">
+      <c r="W42" s="21">
         <v>42.3</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="21">
         <v>-0.203092400735016</v>
       </c>
-      <c r="Y42" s="13">
+      <c r="Y42" s="21">
         <v>46.62</v>
       </c>
-      <c r="Z42" s="13">
+      <c r="Z42" s="21">
+        <v>26.13</v>
+      </c>
+      <c r="AA42" s="21">
+        <v>30.35</v>
+      </c>
+      <c r="AB42" s="21">
+        <v>25.37</v>
+      </c>
+      <c r="AC42" s="21">
+        <v>-0.203092400735016</v>
+      </c>
+      <c r="AD42" s="21">
+        <v>46.62</v>
+      </c>
+      <c r="AE42" s="21">
+        <v>60.57</v>
+      </c>
+      <c r="AF42" s="21">
+        <v>53.38</v>
+      </c>
+      <c r="AG42" s="21">
         <v>38.13</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="17">
         <v>45</v>
       </c>
-      <c r="B43" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s" s="11">
-        <v>109</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="B43" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="D43" s="20">
         <v>2022</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="21">
         <v>0.91</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="21">
         <v>0.82139808127958</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="21">
         <v>63.69</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="21">
         <v>4.02</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="21">
         <v>0.818315250513823</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="21">
         <v>63.64</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="21">
         <v>0.22</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="21">
         <v>0.516100527308576</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="21">
         <v>58.6</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="21">
         <v>94.67</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="21">
         <v>0.941080722941074</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="21">
         <v>65.68000000000001</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="21">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R43" s="13">
+      <c r="R43" s="21">
         <v>0.450630901076701</v>
       </c>
-      <c r="S43" s="13">
+      <c r="S43" s="21">
         <v>57.51</v>
       </c>
-      <c r="T43" s="13">
+      <c r="T43" s="21">
         <v>37.1</v>
       </c>
-      <c r="U43" s="13">
+      <c r="U43" s="21">
         <v>1.08637154810373</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="21">
         <v>68.11</v>
       </c>
-      <c r="W43" s="13">
+      <c r="W43" s="21">
         <v>31.44</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="21">
         <v>1.16161893366621</v>
       </c>
-      <c r="Y43" s="13">
+      <c r="Y43" s="21">
         <v>69.36</v>
       </c>
-      <c r="Z43" s="13">
+      <c r="Z43" s="21">
+        <v>63.69</v>
+      </c>
+      <c r="AA43" s="21">
+        <v>63.64</v>
+      </c>
+      <c r="AB43" s="21">
+        <v>58.6</v>
+      </c>
+      <c r="AC43" s="21">
+        <v>1.16161893366621</v>
+      </c>
+      <c r="AD43" s="21">
+        <v>69.36</v>
+      </c>
+      <c r="AE43" s="21">
+        <v>57.51</v>
+      </c>
+      <c r="AF43" s="21">
+        <v>68.11</v>
+      </c>
+      <c r="AG43" s="21">
         <v>63.8</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="17">
         <v>46</v>
       </c>
-      <c r="B44" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="C44" t="s" s="11">
-        <v>111</v>
-      </c>
-      <c r="D44" s="12">
+      <c r="B44" t="s" s="18">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s" s="19">
+        <v>118</v>
+      </c>
+      <c r="D44" s="20">
         <v>2022</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="21">
         <v>1.45</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="21">
         <v>-0.577319815768971</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="21">
         <v>40.38</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="21">
         <v>9.84</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="21">
         <v>-3</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="21">
         <v>0</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="21">
         <v>0.49</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="21">
         <v>-1.5541998736664</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="21">
         <v>24.1</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="21">
         <v>87.26000000000001</v>
       </c>
-      <c r="O44" s="13">
+      <c r="O44" s="21">
         <v>-3</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="21">
         <v>0</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="21">
         <v>1.51</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R44" s="21">
         <v>-1.38252769869804</v>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="21">
         <v>26.96</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="21">
         <v>50.3</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="21">
         <v>-0.389999384458239</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="21">
         <v>43.5</v>
       </c>
-      <c r="W44" s="13">
+      <c r="W44" s="21">
         <v>45.59</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="21">
         <v>-0.616527049922865</v>
       </c>
-      <c r="Y44" s="13">
+      <c r="Y44" s="21">
         <v>39.72</v>
       </c>
-      <c r="Z44" s="13">
+      <c r="Z44" s="21">
+        <v>40.38</v>
+      </c>
+      <c r="AA44" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="21">
+        <v>24.1</v>
+      </c>
+      <c r="AC44" s="21">
+        <v>-0.616527049922865</v>
+      </c>
+      <c r="AD44" s="21">
+        <v>39.72</v>
+      </c>
+      <c r="AE44" s="21">
+        <v>26.96</v>
+      </c>
+      <c r="AF44" s="21">
+        <v>43.5</v>
+      </c>
+      <c r="AG44" s="21">
         <v>24.95</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="9">
+      <c r="A45" s="17">
         <v>47</v>
       </c>
-      <c r="B45" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="C45" t="s" s="11">
-        <v>113</v>
-      </c>
-      <c r="D45" s="12">
+      <c r="B45" t="s" s="18">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s" s="19">
+        <v>120</v>
+      </c>
+      <c r="D45" s="20">
         <v>2022</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="21">
         <v>1.05</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="21">
         <v>0.458767515378104</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="21">
         <v>57.65</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="21">
         <v>4.35</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="21">
         <v>0.589427072863991</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="21">
         <v>59.82</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="21">
         <v>0.21</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="21">
         <v>0.592778319937278</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="21">
         <v>59.88</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N45" s="21">
         <v>94.52</v>
       </c>
-      <c r="O45" s="13">
+      <c r="O45" s="21">
         <v>0.858927061621089</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="21">
         <v>64.31999999999999</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="21">
         <v>1.12</v>
       </c>
-      <c r="R45" s="13">
+      <c r="R45" s="21">
         <v>-0.36119647882354</v>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="21">
         <v>43.98</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="21">
         <v>38.36</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="21">
         <v>0.945445231813721</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="21">
         <v>65.76000000000001</v>
       </c>
-      <c r="W45" s="13">
+      <c r="W45" s="21">
         <v>37.27</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="21">
         <v>0.428997655622088</v>
       </c>
-      <c r="Y45" s="13">
+      <c r="Y45" s="21">
         <v>57.15</v>
       </c>
-      <c r="Z45" s="13">
+      <c r="Z45" s="21">
+        <v>57.65</v>
+      </c>
+      <c r="AA45" s="21">
+        <v>59.82</v>
+      </c>
+      <c r="AB45" s="21">
+        <v>59.88</v>
+      </c>
+      <c r="AC45" s="21">
+        <v>0.428997655622088</v>
+      </c>
+      <c r="AD45" s="21">
+        <v>57.15</v>
+      </c>
+      <c r="AE45" s="21">
+        <v>43.98</v>
+      </c>
+      <c r="AF45" s="21">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="AG45" s="21">
         <v>58.37</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="9">
+      <c r="A46" s="17">
         <v>48</v>
       </c>
-      <c r="B46" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="C46" t="s" s="11">
-        <v>115</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="B46" t="s" s="18">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s" s="19">
+        <v>122</v>
+      </c>
+      <c r="D46" s="20">
         <v>2022</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="21">
         <v>1.05</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="21">
         <v>0.458767515378104</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="21">
         <v>57.65</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="21">
         <v>5.19</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="21">
         <v>0.0068026206644175</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="21">
         <v>50.11</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="21">
         <v>0.14</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="21">
         <v>1.1295228683382</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="21">
         <v>68.83</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="21">
         <v>93.92</v>
       </c>
-      <c r="O46" s="13">
+      <c r="O46" s="21">
         <v>0.530312416341166</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="21">
         <v>58.84</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q46" s="21">
         <v>2.01</v>
       </c>
-      <c r="R46" s="13">
+      <c r="R46" s="21">
         <v>-2.69192669853714</v>
       </c>
-      <c r="S46" s="13">
+      <c r="S46" s="21">
         <v>5.13</v>
       </c>
-      <c r="T46" s="13">
+      <c r="T46" s="21">
         <v>41.64</v>
       </c>
-      <c r="U46" s="13">
+      <c r="U46" s="21">
         <v>0.578589424328626</v>
       </c>
-      <c r="V46" s="13">
+      <c r="V46" s="21">
         <v>59.64</v>
       </c>
-      <c r="W46" s="13">
+      <c r="W46" s="21">
         <v>37.23</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="21">
         <v>0.43402421670644</v>
       </c>
-      <c r="Y46" s="13">
+      <c r="Y46" s="21">
         <v>57.23</v>
       </c>
-      <c r="Z46" s="13">
+      <c r="Z46" s="21">
+        <v>57.65</v>
+      </c>
+      <c r="AA46" s="21">
+        <v>50.11</v>
+      </c>
+      <c r="AB46" s="21">
+        <v>68.83</v>
+      </c>
+      <c r="AC46" s="21">
+        <v>0.43402421670644</v>
+      </c>
+      <c r="AD46" s="21">
+        <v>57.23</v>
+      </c>
+      <c r="AE46" s="21">
+        <v>5.13</v>
+      </c>
+      <c r="AF46" s="21">
+        <v>59.64</v>
+      </c>
+      <c r="AG46" s="21">
         <v>51.06</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="9">
+      <c r="A47" s="17">
         <v>49</v>
       </c>
-      <c r="B47" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="C47" t="s" s="11">
-        <v>117</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="B47" t="s" s="18">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s" s="19">
+        <v>124</v>
+      </c>
+      <c r="D47" s="20">
         <v>2022</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="21">
         <v>1.35</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="21">
         <v>-0.318297982982203</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="21">
         <v>44.7</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="21">
         <v>3.49</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="21">
         <v>1.18592353583022</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="21">
         <v>69.77</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="21">
         <v>0.19</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="21">
         <v>0.746133905194683</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="21">
         <v>62.44</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="21">
         <v>94.75</v>
       </c>
-      <c r="O47" s="13">
+      <c r="O47" s="21">
         <v>0.984896008978396</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="21">
         <v>66.41</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="Q47" s="21">
         <v>0.98</v>
       </c>
-      <c r="R47" s="13">
+      <c r="R47" s="21">
         <v>0.0054352411314077</v>
       </c>
-      <c r="S47" s="13">
+      <c r="S47" s="21">
         <v>50.09</v>
       </c>
-      <c r="T47" s="13">
+      <c r="T47" s="21">
         <v>60.8</v>
       </c>
-      <c r="U47" s="13">
+      <c r="U47" s="21">
         <v>-1.56438535354162</v>
       </c>
-      <c r="V47" s="13">
+      <c r="V47" s="21">
         <v>23.93</v>
       </c>
-      <c r="W47" s="13">
+      <c r="W47" s="21">
         <v>42.51</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="21">
         <v>-0.229481846427857</v>
       </c>
-      <c r="Y47" s="13">
+      <c r="Y47" s="21">
         <v>46.18</v>
       </c>
-      <c r="Z47" s="13">
+      <c r="Z47" s="21">
+        <v>44.7</v>
+      </c>
+      <c r="AA47" s="21">
+        <v>69.77</v>
+      </c>
+      <c r="AB47" s="21">
+        <v>62.44</v>
+      </c>
+      <c r="AC47" s="21">
+        <v>-0.229481846427857</v>
+      </c>
+      <c r="AD47" s="21">
+        <v>46.18</v>
+      </c>
+      <c r="AE47" s="21">
+        <v>50.09</v>
+      </c>
+      <c r="AF47" s="21">
+        <v>23.93</v>
+      </c>
+      <c r="AG47" s="21">
         <v>51.93</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="9">
+      <c r="A48" s="17">
         <v>50</v>
       </c>
-      <c r="B48" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="C48" t="s" s="11">
-        <v>119</v>
-      </c>
-      <c r="D48" s="12">
+      <c r="B48" t="s" s="18">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s" s="19">
+        <v>126</v>
+      </c>
+      <c r="D48" s="20">
         <v>2022</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="21">
         <v>0.66</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="21">
         <v>1.4689526632465</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="21">
         <v>74.48</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="21">
         <v>4.35</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="21">
         <v>0.589427072863991</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="21">
         <v>59.82</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="21">
         <v>0.61</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="21">
         <v>-2.47433338521083</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="21">
         <v>8.76</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="21">
         <v>91.77</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="21">
         <v>-0.647223395911905</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="21">
         <v>39.21</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="21">
         <v>0.4</v>
       </c>
-      <c r="R48" s="13">
+      <c r="R48" s="21">
         <v>1.52433808094476</v>
       </c>
-      <c r="S48" s="13">
+      <c r="S48" s="21">
         <v>75.41</v>
       </c>
-      <c r="T48" s="13">
+      <c r="T48" s="21">
         <v>60.2</v>
       </c>
-      <c r="U48" s="13">
+      <c r="U48" s="21">
         <v>-1.49727758387971</v>
       </c>
-      <c r="V48" s="13">
+      <c r="V48" s="21">
         <v>25.05</v>
       </c>
-      <c r="W48" s="13">
+      <c r="W48" s="21">
         <v>49.13</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X48" s="21">
         <v>-1.0613777058879</v>
       </c>
-      <c r="Y48" s="13">
+      <c r="Y48" s="21">
         <v>32.31</v>
       </c>
-      <c r="Z48" s="13">
+      <c r="Z48" s="21">
+        <v>74.48</v>
+      </c>
+      <c r="AA48" s="21">
+        <v>59.82</v>
+      </c>
+      <c r="AB48" s="21">
+        <v>8.76</v>
+      </c>
+      <c r="AC48" s="21">
+        <v>-1.0613777058879</v>
+      </c>
+      <c r="AD48" s="21">
+        <v>32.31</v>
+      </c>
+      <c r="AE48" s="21">
+        <v>75.41</v>
+      </c>
+      <c r="AF48" s="21">
+        <v>25.05</v>
+      </c>
+      <c r="AG48" s="21">
         <v>45.01</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="9">
+      <c r="A49" s="17">
         <v>51</v>
       </c>
-      <c r="B49" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="C49" t="s" s="11">
-        <v>121</v>
-      </c>
-      <c r="D49" s="12">
+      <c r="B49" t="s" s="18">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s" s="19">
+        <v>128</v>
+      </c>
+      <c r="D49" s="20">
         <v>2022</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="21">
         <v>1.13</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="21">
         <v>0.251550049148689</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="21">
         <v>54.19</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="21">
         <v>4.81</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="21">
         <v>0.270370825230891</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="21">
         <v>54.51</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="21">
         <v>0.21</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L49" s="21">
         <v>0.592778319937278</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="21">
         <v>59.88</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N49" s="21">
         <v>93.73</v>
       </c>
-      <c r="O49" s="13">
+      <c r="O49" s="21">
         <v>0.426251112002524</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="21">
         <v>57.1</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="Q49" s="21">
         <v>1.19</v>
       </c>
-      <c r="R49" s="13">
+      <c r="R49" s="21">
         <v>-0.544512338801014</v>
       </c>
-      <c r="S49" s="13">
+      <c r="S49" s="21">
         <v>40.92</v>
       </c>
-      <c r="T49" s="13">
+      <c r="T49" s="21">
         <v>43.37</v>
       </c>
-      <c r="U49" s="13">
+      <c r="U49" s="21">
         <v>0.385095355136793</v>
       </c>
-      <c r="V49" s="13">
+      <c r="V49" s="21">
         <v>56.42</v>
       </c>
-      <c r="W49" s="13">
+      <c r="W49" s="21">
         <v>34.51</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="21">
         <v>0.77583037044229</v>
       </c>
-      <c r="Y49" s="13">
+      <c r="Y49" s="21">
         <v>62.93</v>
       </c>
-      <c r="Z49" s="13">
+      <c r="Z49" s="21">
+        <v>54.19</v>
+      </c>
+      <c r="AA49" s="21">
+        <v>54.51</v>
+      </c>
+      <c r="AB49" s="21">
+        <v>59.88</v>
+      </c>
+      <c r="AC49" s="21">
+        <v>0.77583037044229</v>
+      </c>
+      <c r="AD49" s="21">
+        <v>62.93</v>
+      </c>
+      <c r="AE49" s="21">
+        <v>40.92</v>
+      </c>
+      <c r="AF49" s="21">
+        <v>56.42</v>
+      </c>
+      <c r="AG49" s="21">
         <v>55.14</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="9">
+      <c r="A50" s="17">
         <v>53</v>
       </c>
-      <c r="B50" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s" s="11">
-        <v>123</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="B50" t="s" s="18">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s" s="19">
+        <v>130</v>
+      </c>
+      <c r="D50" s="20">
         <v>2022</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="21">
         <v>0.66</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="21">
         <v>1.4689526632465</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="21">
         <v>74.48</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="21">
         <v>3.3</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="21">
         <v>1.31770763811346</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="21">
         <v>71.95999999999999</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="21">
         <v>0.4</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="21">
         <v>-0.864099740008072</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="21">
         <v>35.6</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="21">
         <v>93.78</v>
       </c>
-      <c r="O50" s="13">
+      <c r="O50" s="21">
         <v>0.45363566577585</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="21">
         <v>57.56</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="Q50" s="21">
         <v>0.61</v>
       </c>
-      <c r="R50" s="13">
+      <c r="R50" s="21">
         <v>0.974390501012341</v>
       </c>
-      <c r="S50" s="13">
+      <c r="S50" s="21">
         <v>66.23999999999999</v>
       </c>
-      <c r="T50" s="13">
+      <c r="T50" s="21">
         <v>56.26</v>
       </c>
-      <c r="U50" s="13">
+      <c r="U50" s="21">
         <v>-1.05660322976652</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V50" s="21">
         <v>32.39</v>
       </c>
-      <c r="W50" s="13">
+      <c r="W50" s="21">
         <v>48.5</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="21">
         <v>-0.98220936880938</v>
       </c>
-      <c r="Y50" s="13">
+      <c r="Y50" s="21">
         <v>33.63</v>
       </c>
-      <c r="Z50" s="13">
+      <c r="Z50" s="21">
+        <v>74.48</v>
+      </c>
+      <c r="AA50" s="21">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="AB50" s="21">
+        <v>35.6</v>
+      </c>
+      <c r="AC50" s="21">
+        <v>-0.98220936880938</v>
+      </c>
+      <c r="AD50" s="21">
+        <v>33.63</v>
+      </c>
+      <c r="AE50" s="21">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="AF50" s="21">
+        <v>32.39</v>
+      </c>
+      <c r="AG50" s="21">
         <v>53.12</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="9">
+      <c r="A51" s="17">
         <v>54</v>
       </c>
-      <c r="B51" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="C51" t="s" s="11">
-        <v>125</v>
-      </c>
-      <c r="D51" s="12">
+      <c r="B51" t="s" s="18">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s" s="19">
+        <v>132</v>
+      </c>
+      <c r="D51" s="20">
         <v>2022</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="21">
         <v>0.83</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="21">
         <v>1.028615547509</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="21">
         <v>67.14</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="21">
         <v>4.89</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="21">
         <v>0.214882782164265</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="21">
         <v>53.58</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="21">
         <v>0.18</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L51" s="21">
         <v>0.822811697823386</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="21">
         <v>63.71</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N51" s="21">
         <v>94.41</v>
       </c>
-      <c r="O51" s="13">
+      <c r="O51" s="21">
         <v>0.79868104331977</v>
       </c>
-      <c r="P51" s="13">
+      <c r="P51" s="21">
         <v>63.31</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="Q51" s="21">
         <v>1.59</v>
       </c>
-      <c r="R51" s="13">
+      <c r="R51" s="21">
         <v>-1.59203153867229</v>
       </c>
-      <c r="S51" s="13">
+      <c r="S51" s="21">
         <v>23.47</v>
       </c>
-      <c r="T51" s="13">
+      <c r="T51" s="21">
         <v>46.25</v>
       </c>
-      <c r="U51" s="13">
+      <c r="U51" s="21">
         <v>0.0629780607596368</v>
       </c>
-      <c r="V51" s="13">
+      <c r="V51" s="21">
         <v>51.05</v>
       </c>
-      <c r="W51" s="13">
+      <c r="W51" s="21">
         <v>37.89</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="21">
         <v>0.351085958814652</v>
       </c>
-      <c r="Y51" s="13">
+      <c r="Y51" s="21">
         <v>55.85</v>
       </c>
-      <c r="Z51" s="13">
+      <c r="Z51" s="21">
+        <v>67.14</v>
+      </c>
+      <c r="AA51" s="21">
+        <v>53.58</v>
+      </c>
+      <c r="AB51" s="21">
+        <v>63.71</v>
+      </c>
+      <c r="AC51" s="21">
+        <v>0.351085958814652</v>
+      </c>
+      <c r="AD51" s="21">
+        <v>55.85</v>
+      </c>
+      <c r="AE51" s="21">
+        <v>23.47</v>
+      </c>
+      <c r="AF51" s="21">
+        <v>51.05</v>
+      </c>
+      <c r="AG51" s="21">
         <v>54.02</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="9">
+      <c r="A52" s="17">
         <v>55</v>
       </c>
-      <c r="B52" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="C52" t="s" s="11">
-        <v>127</v>
-      </c>
-      <c r="D52" s="12">
+      <c r="B52" t="s" s="18">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s" s="19">
+        <v>134</v>
+      </c>
+      <c r="D52" s="20">
         <v>2022</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="21">
         <v>0.83</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="21">
         <v>1.028615547509</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="21">
         <v>67.14</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="21">
         <v>5.2</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="21">
         <v>-0.0001333847189105</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="21">
         <v>50</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="21">
         <v>0.31</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="21">
         <v>-0.173999606349748</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="21">
         <v>47.1</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N52" s="21">
         <v>92.53</v>
       </c>
-      <c r="O52" s="13">
+      <c r="O52" s="21">
         <v>-0.230978178557329</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P52" s="21">
         <v>46.15</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="Q52" s="21">
         <v>0.88</v>
       </c>
-      <c r="R52" s="13">
+      <c r="R52" s="21">
         <v>0.267315041099228</v>
       </c>
-      <c r="S52" s="13">
+      <c r="S52" s="21">
         <v>54.46</v>
       </c>
-      <c r="T52" s="13">
+      <c r="T52" s="21">
         <v>52.08</v>
       </c>
-      <c r="U52" s="13">
+      <c r="U52" s="21">
         <v>-0.589085767788565</v>
       </c>
-      <c r="V52" s="13">
+      <c r="V52" s="21">
         <v>40.18</v>
       </c>
-      <c r="W52" s="13">
+      <c r="W52" s="21">
         <v>47</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="21">
         <v>-0.793713328146228</v>
       </c>
-      <c r="Y52" s="13">
+      <c r="Y52" s="21">
         <v>36.77</v>
       </c>
-      <c r="Z52" s="13">
+      <c r="Z52" s="21">
+        <v>67.14</v>
+      </c>
+      <c r="AA52" s="21">
+        <v>50</v>
+      </c>
+      <c r="AB52" s="21">
+        <v>47.1</v>
+      </c>
+      <c r="AC52" s="21">
+        <v>-0.793713328146228</v>
+      </c>
+      <c r="AD52" s="21">
+        <v>36.77</v>
+      </c>
+      <c r="AE52" s="21">
+        <v>54.46</v>
+      </c>
+      <c r="AF52" s="21">
+        <v>40.18</v>
+      </c>
+      <c r="AG52" s="21">
         <v>48.83</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="9">
+      <c r="A53" s="17">
         <v>56</v>
       </c>
-      <c r="B53" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="C53" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="D53" s="12">
+      <c r="B53" t="s" s="18">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s" s="19">
+        <v>136</v>
+      </c>
+      <c r="D53" s="20">
         <v>2022</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="21">
         <v>0.63</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="21">
         <v>1.54665921308253</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="21">
         <v>75.78</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="21">
         <v>4.74</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="21">
         <v>0.318922862914189</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="21">
         <v>55.32</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="21">
         <v>0.14</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L53" s="21">
         <v>1.1295228683382</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="21">
         <v>68.83</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N53" s="21">
         <v>94.51000000000001</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="21">
         <v>0.8534501508664289</v>
       </c>
-      <c r="P53" s="13">
+      <c r="P53" s="21">
         <v>64.22</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="Q53" s="21">
         <v>0.98</v>
       </c>
-      <c r="R53" s="13">
+      <c r="R53" s="21">
         <v>0.0054352411314077</v>
       </c>
-      <c r="S53" s="13">
+      <c r="S53" s="21">
         <v>50.09</v>
       </c>
-      <c r="T53" s="13">
+      <c r="T53" s="21">
         <v>55.54</v>
       </c>
-      <c r="U53" s="13">
+      <c r="U53" s="21">
         <v>-0.976073906172231</v>
       </c>
-      <c r="V53" s="13">
+      <c r="V53" s="21">
         <v>33.73</v>
       </c>
-      <c r="W53" s="13">
+      <c r="W53" s="21">
         <v>40.36</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="21">
         <v>0.0406958118559945</v>
       </c>
-      <c r="Y53" s="13">
+      <c r="Y53" s="21">
         <v>50.68</v>
       </c>
-      <c r="Z53" s="13">
+      <c r="Z53" s="21">
+        <v>75.78</v>
+      </c>
+      <c r="AA53" s="21">
+        <v>55.32</v>
+      </c>
+      <c r="AB53" s="21">
+        <v>68.83</v>
+      </c>
+      <c r="AC53" s="21">
+        <v>0.0406958118559945</v>
+      </c>
+      <c r="AD53" s="21">
+        <v>50.68</v>
+      </c>
+      <c r="AE53" s="21">
+        <v>50.09</v>
+      </c>
+      <c r="AF53" s="21">
+        <v>33.73</v>
+      </c>
+      <c r="AG53" s="21">
         <v>56.95</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="9">
-        <v>72</v>
-      </c>
-      <c r="B54" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="C54" t="s" s="11">
-        <v>131</v>
-      </c>
-      <c r="D54" s="12">
-        <v>2022</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="R54" s="13">
-        <v>2.10047364087397</v>
-      </c>
-      <c r="S54" s="13">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="T54" s="13">
-        <v>13.27</v>
-      </c>
-      <c r="U54" s="13">
-        <v>3</v>
-      </c>
-      <c r="V54" s="13">
-        <v>100</v>
-      </c>
-      <c r="W54" s="13">
-        <v>12.4</v>
-      </c>
-      <c r="X54" s="13">
-        <v>3</v>
-      </c>
-      <c r="Y54" s="13">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="13">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/between_states/between_states_relative_data/community_living_between_2022_excel.xlsx
+++ b/between_states/between_states_relative_data/community_living_between_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>GEOID</t>
   </si>
@@ -164,12 +164,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
   </si>
   <si>
     <t>Florida</t>
@@ -1785,7 +1779,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2816,7 +2810,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s" s="18">
         <v>51</v>
@@ -2828,96 +2822,96 @@
         <v>2022</v>
       </c>
       <c r="E11" s="21">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="F11" s="21">
-        <v>-0.447808899375586</v>
+        <v>0.09613694947662769</v>
       </c>
       <c r="G11" s="21">
-        <v>42.54</v>
+        <v>51.6</v>
       </c>
       <c r="H11" s="21">
-        <v>4.89</v>
+        <v>5.08</v>
       </c>
       <c r="I11" s="21">
-        <v>0.214882782164265</v>
+        <v>0.08309867988102849</v>
       </c>
       <c r="J11" s="21">
-        <v>53.58</v>
+        <v>51.38</v>
       </c>
       <c r="K11" s="21">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="21">
-        <v>-3</v>
+        <v>0.669456112565981</v>
       </c>
       <c r="M11" s="21">
-        <v>0</v>
+        <v>61.16</v>
       </c>
       <c r="N11" s="21">
-        <v>89.2</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="O11" s="21">
-        <v>-2.05478945986092</v>
+        <v>0.431728022757185</v>
       </c>
       <c r="P11" s="21">
-        <v>15.75</v>
+        <v>57.2</v>
       </c>
       <c r="Q11" s="21">
-        <v>0.72</v>
+        <v>1.26</v>
       </c>
       <c r="R11" s="21">
-        <v>0.6863227210477399</v>
+        <v>-0.727828198778488</v>
       </c>
       <c r="S11" s="21">
-        <v>61.44</v>
+        <v>37.87</v>
       </c>
       <c r="T11" s="21">
-        <v>36.58</v>
+        <v>42.9</v>
       </c>
       <c r="U11" s="21">
-        <v>1.14453161514405</v>
+        <v>0.437663108038621</v>
       </c>
       <c r="V11" s="21">
-        <v>69.08</v>
+        <v>57.29</v>
       </c>
       <c r="W11" s="21">
-        <v>45.48</v>
+        <v>37.29</v>
       </c>
       <c r="X11" s="21">
-        <v>-0.602704006940899</v>
+        <v>0.426484375079913</v>
       </c>
       <c r="Y11" s="21">
-        <v>39.95</v>
+        <v>57.11</v>
       </c>
       <c r="Z11" s="21">
-        <v>42.54</v>
+        <v>51.6</v>
       </c>
       <c r="AA11" s="21">
-        <v>53.58</v>
+        <v>51.38</v>
       </c>
       <c r="AB11" s="21">
-        <v>0</v>
+        <v>61.16</v>
       </c>
       <c r="AC11" s="21">
-        <v>-0.602704006940899</v>
+        <v>0.426484375079913</v>
       </c>
       <c r="AD11" s="21">
-        <v>39.95</v>
+        <v>57.11</v>
       </c>
       <c r="AE11" s="21">
-        <v>61.44</v>
+        <v>37.87</v>
       </c>
       <c r="AF11" s="21">
-        <v>69.08</v>
+        <v>57.29</v>
       </c>
       <c r="AG11" s="21">
-        <v>40.33</v>
+        <v>53.37</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="18">
         <v>53</v>
@@ -2929,96 +2923,96 @@
         <v>2022</v>
       </c>
       <c r="E12" s="21">
-        <v>1.19</v>
+        <v>0.92</v>
       </c>
       <c r="F12" s="21">
-        <v>0.09613694947662769</v>
+        <v>0.795495898000903</v>
       </c>
       <c r="G12" s="21">
-        <v>51.6</v>
+        <v>63.26</v>
       </c>
       <c r="H12" s="21">
-        <v>5.08</v>
+        <v>4.34</v>
       </c>
       <c r="I12" s="21">
-        <v>0.08309867988102849</v>
+        <v>0.596363078247319</v>
       </c>
       <c r="J12" s="21">
-        <v>51.38</v>
+        <v>59.94</v>
       </c>
       <c r="K12" s="21">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="L12" s="21">
-        <v>0.669456112565981</v>
+        <v>1.1295228683382</v>
       </c>
       <c r="M12" s="21">
+        <v>68.83</v>
+      </c>
+      <c r="N12" s="21">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0.979419098223728</v>
+      </c>
+      <c r="P12" s="21">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>1.41</v>
+      </c>
+      <c r="R12" s="21">
+        <v>-1.12064789873022</v>
+      </c>
+      <c r="S12" s="21">
+        <v>31.32</v>
+      </c>
+      <c r="T12" s="21">
+        <v>36.18</v>
+      </c>
+      <c r="U12" s="21">
+        <v>1.18927012825198</v>
+      </c>
+      <c r="V12" s="21">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="W12" s="21">
+        <v>31.78</v>
+      </c>
+      <c r="X12" s="21">
+        <v>1.11889316444923</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>63.26</v>
+      </c>
+      <c r="AA12" s="21">
+        <v>59.94</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>68.83</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>1.11889316444923</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="AE12" s="21">
+        <v>31.32</v>
+      </c>
+      <c r="AF12" s="21">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="AG12" s="21">
         <v>61.16</v>
-      </c>
-      <c r="N12" s="21">
-        <v>93.73999999999999</v>
-      </c>
-      <c r="O12" s="21">
-        <v>0.431728022757185</v>
-      </c>
-      <c r="P12" s="21">
-        <v>57.2</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>1.26</v>
-      </c>
-      <c r="R12" s="21">
-        <v>-0.727828198778488</v>
-      </c>
-      <c r="S12" s="21">
-        <v>37.87</v>
-      </c>
-      <c r="T12" s="21">
-        <v>42.9</v>
-      </c>
-      <c r="U12" s="21">
-        <v>0.437663108038621</v>
-      </c>
-      <c r="V12" s="21">
-        <v>57.29</v>
-      </c>
-      <c r="W12" s="21">
-        <v>37.29</v>
-      </c>
-      <c r="X12" s="21">
-        <v>0.426484375079913</v>
-      </c>
-      <c r="Y12" s="21">
-        <v>57.11</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>51.6</v>
-      </c>
-      <c r="AA12" s="21">
-        <v>51.38</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>61.16</v>
-      </c>
-      <c r="AC12" s="21">
-        <v>0.426484375079913</v>
-      </c>
-      <c r="AD12" s="21">
-        <v>57.11</v>
-      </c>
-      <c r="AE12" s="21">
-        <v>37.87</v>
-      </c>
-      <c r="AF12" s="21">
-        <v>57.29</v>
-      </c>
-      <c r="AG12" s="21">
-        <v>53.37</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s" s="18">
         <v>55</v>
@@ -3030,96 +3024,96 @@
         <v>2022</v>
       </c>
       <c r="E13" s="21">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="F13" s="21">
-        <v>0.795495898000903</v>
+        <v>0.355158782263396</v>
       </c>
       <c r="G13" s="21">
-        <v>63.26</v>
+        <v>55.92</v>
       </c>
       <c r="H13" s="21">
-        <v>4.34</v>
+        <v>3.9</v>
       </c>
       <c r="I13" s="21">
-        <v>0.596363078247319</v>
+        <v>0.901547315113762</v>
       </c>
       <c r="J13" s="21">
-        <v>59.94</v>
+        <v>65.03</v>
       </c>
       <c r="K13" s="21">
-        <v>0.14</v>
+        <v>0.39</v>
       </c>
       <c r="L13" s="21">
-        <v>1.1295228683382</v>
+        <v>-0.787421947379369</v>
       </c>
       <c r="M13" s="21">
-        <v>68.83</v>
+        <v>36.88</v>
       </c>
       <c r="N13" s="21">
-        <v>94.73999999999999</v>
+        <v>93.11</v>
       </c>
       <c r="O13" s="21">
-        <v>0.979419098223728</v>
+        <v>0.0866826452132651</v>
       </c>
       <c r="P13" s="21">
-        <v>66.31999999999999</v>
+        <v>51.44</v>
       </c>
       <c r="Q13" s="21">
-        <v>1.41</v>
+        <v>0.54</v>
       </c>
       <c r="R13" s="21">
-        <v>-1.12064789873022</v>
+        <v>1.15770636098982</v>
       </c>
       <c r="S13" s="21">
-        <v>31.32</v>
+        <v>69.3</v>
       </c>
       <c r="T13" s="21">
-        <v>36.18</v>
+        <v>41.07</v>
       </c>
       <c r="U13" s="21">
-        <v>1.18927012825198</v>
+        <v>0.642341805507438</v>
       </c>
       <c r="V13" s="21">
-        <v>69.81999999999999</v>
+        <v>60.71</v>
       </c>
       <c r="W13" s="21">
-        <v>31.78</v>
+        <v>41.7</v>
       </c>
       <c r="X13" s="21">
-        <v>1.11889316444923</v>
+        <v>-0.127693984469756</v>
       </c>
       <c r="Y13" s="21">
-        <v>68.65000000000001</v>
+        <v>47.87</v>
       </c>
       <c r="Z13" s="21">
-        <v>63.26</v>
+        <v>55.92</v>
       </c>
       <c r="AA13" s="21">
-        <v>59.94</v>
+        <v>65.03</v>
       </c>
       <c r="AB13" s="21">
-        <v>68.83</v>
+        <v>36.88</v>
       </c>
       <c r="AC13" s="21">
-        <v>1.11889316444923</v>
+        <v>-0.127693984469756</v>
       </c>
       <c r="AD13" s="21">
-        <v>68.65000000000001</v>
+        <v>47.87</v>
       </c>
       <c r="AE13" s="21">
-        <v>31.32</v>
+        <v>69.3</v>
       </c>
       <c r="AF13" s="21">
-        <v>69.81999999999999</v>
+        <v>60.71</v>
       </c>
       <c r="AG13" s="21">
-        <v>61.16</v>
+        <v>55.31</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s" s="18">
         <v>57</v>
@@ -3131,96 +3125,96 @@
         <v>2022</v>
       </c>
       <c r="E14" s="21">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="F14" s="21">
-        <v>0.355158782263396</v>
+        <v>0.484669698656781</v>
       </c>
       <c r="G14" s="21">
-        <v>55.92</v>
+        <v>58.08</v>
       </c>
       <c r="H14" s="21">
-        <v>3.9</v>
+        <v>4.92</v>
       </c>
       <c r="I14" s="21">
-        <v>0.901547315113762</v>
+        <v>0.194074766014281</v>
       </c>
       <c r="J14" s="21">
-        <v>65.03</v>
+        <v>53.23</v>
       </c>
       <c r="K14" s="21">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
       <c r="L14" s="21">
-        <v>-0.787421947379369</v>
+        <v>0.822811697823386</v>
       </c>
       <c r="M14" s="21">
-        <v>36.88</v>
+        <v>63.71</v>
       </c>
       <c r="N14" s="21">
-        <v>93.11</v>
+        <v>94.06</v>
       </c>
       <c r="O14" s="21">
-        <v>0.0866826452132651</v>
+        <v>0.606989166906483</v>
       </c>
       <c r="P14" s="21">
-        <v>51.44</v>
+        <v>60.12</v>
       </c>
       <c r="Q14" s="21">
-        <v>0.54</v>
+        <v>1.2</v>
       </c>
       <c r="R14" s="21">
-        <v>1.15770636098982</v>
+        <v>-0.570700318797796</v>
       </c>
       <c r="S14" s="21">
-        <v>69.3</v>
+        <v>40.49</v>
       </c>
       <c r="T14" s="21">
-        <v>41.07</v>
+        <v>61.44</v>
       </c>
       <c r="U14" s="21">
-        <v>0.642341805507438</v>
+        <v>-1.63596697451432</v>
       </c>
       <c r="V14" s="21">
-        <v>60.71</v>
+        <v>22.73</v>
       </c>
       <c r="W14" s="21">
-        <v>41.7</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="X14" s="21">
-        <v>-0.127693984469756</v>
+        <v>-3</v>
       </c>
       <c r="Y14" s="21">
-        <v>47.87</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <v>55.92</v>
+        <v>58.08</v>
       </c>
       <c r="AA14" s="21">
-        <v>65.03</v>
+        <v>53.23</v>
       </c>
       <c r="AB14" s="21">
-        <v>36.88</v>
+        <v>63.71</v>
       </c>
       <c r="AC14" s="21">
-        <v>-0.127693984469756</v>
+        <v>-3</v>
       </c>
       <c r="AD14" s="21">
-        <v>47.87</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="21">
-        <v>69.3</v>
+        <v>40.49</v>
       </c>
       <c r="AF14" s="21">
-        <v>60.71</v>
+        <v>22.73</v>
       </c>
       <c r="AG14" s="21">
-        <v>55.31</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="18">
         <v>59</v>
@@ -3232,96 +3226,96 @@
         <v>2022</v>
       </c>
       <c r="E15" s="21">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="21">
-        <v>0.484669698656781</v>
+        <v>-3</v>
       </c>
       <c r="G15" s="21">
-        <v>58.08</v>
+        <v>0</v>
       </c>
       <c r="H15" s="21">
-        <v>4.92</v>
+        <v>6.33</v>
       </c>
       <c r="I15" s="21">
-        <v>0.194074766014281</v>
+        <v>-0.783901993035002</v>
       </c>
       <c r="J15" s="21">
-        <v>53.23</v>
+        <v>36.93</v>
       </c>
       <c r="K15" s="21">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="21">
-        <v>0.822811697823386</v>
+        <v>0.669456112565981</v>
       </c>
       <c r="M15" s="21">
-        <v>63.71</v>
+        <v>61.16</v>
       </c>
       <c r="N15" s="21">
-        <v>94.06</v>
+        <v>92.42</v>
       </c>
       <c r="O15" s="21">
-        <v>0.606989166906483</v>
+        <v>-0.291224196858649</v>
       </c>
       <c r="P15" s="21">
-        <v>60.12</v>
+        <v>45.15</v>
       </c>
       <c r="Q15" s="21">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="R15" s="21">
-        <v>-0.570700318797796</v>
+        <v>0.607758781057393</v>
       </c>
       <c r="S15" s="21">
-        <v>40.49</v>
+        <v>60.13</v>
       </c>
       <c r="T15" s="21">
-        <v>61.44</v>
+        <v>37.58</v>
       </c>
       <c r="U15" s="21">
-        <v>-1.63596697451432</v>
+        <v>1.0326853323742</v>
       </c>
       <c r="V15" s="21">
-        <v>22.73</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="W15" s="21">
-        <v>66.04000000000001</v>
+        <v>35.37</v>
       </c>
       <c r="X15" s="21">
-        <v>-3</v>
+        <v>0.667759307128749</v>
       </c>
       <c r="Y15" s="21">
+        <v>61.13</v>
+      </c>
+      <c r="Z15" s="21">
         <v>0</v>
       </c>
-      <c r="Z15" s="21">
-        <v>58.08</v>
-      </c>
       <c r="AA15" s="21">
-        <v>53.23</v>
+        <v>36.93</v>
       </c>
       <c r="AB15" s="21">
-        <v>63.71</v>
+        <v>61.16</v>
       </c>
       <c r="AC15" s="21">
-        <v>-3</v>
+        <v>0.667759307128749</v>
       </c>
       <c r="AD15" s="21">
-        <v>0</v>
+        <v>61.13</v>
       </c>
       <c r="AE15" s="21">
-        <v>40.49</v>
+        <v>60.13</v>
       </c>
       <c r="AF15" s="21">
-        <v>22.73</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="AG15" s="21">
-        <v>42.62</v>
+        <v>47.39</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s" s="18">
         <v>61</v>
@@ -3333,96 +3327,96 @@
         <v>2022</v>
       </c>
       <c r="E16" s="21">
-        <v>2.5</v>
+        <v>1.42</v>
       </c>
       <c r="F16" s="21">
-        <v>-3</v>
+        <v>-0.49961326593294</v>
       </c>
       <c r="G16" s="21">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="H16" s="21">
-        <v>6.33</v>
+        <v>6.14</v>
       </c>
       <c r="I16" s="21">
-        <v>-0.783901993035002</v>
+        <v>-0.652117890751765</v>
       </c>
       <c r="J16" s="21">
-        <v>36.93</v>
+        <v>39.13</v>
       </c>
       <c r="K16" s="21">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L16" s="21">
-        <v>0.669456112565981</v>
+        <v>0.746133905194683</v>
       </c>
       <c r="M16" s="21">
-        <v>61.16</v>
+        <v>62.44</v>
       </c>
       <c r="N16" s="21">
-        <v>92.42</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="O16" s="21">
-        <v>-0.291224196858649</v>
+        <v>-0.0283324806347056</v>
       </c>
       <c r="P16" s="21">
-        <v>45.15</v>
+        <v>49.53</v>
       </c>
       <c r="Q16" s="21">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R16" s="21">
-        <v>0.607758781057393</v>
+        <v>0.110187161118536</v>
       </c>
       <c r="S16" s="21">
-        <v>60.13</v>
+        <v>51.84</v>
       </c>
       <c r="T16" s="21">
-        <v>37.58</v>
+        <v>44.75</v>
       </c>
       <c r="U16" s="21">
-        <v>1.0326853323742</v>
+        <v>0.230747484914406</v>
       </c>
       <c r="V16" s="21">
-        <v>67.20999999999999</v>
+        <v>53.85</v>
       </c>
       <c r="W16" s="21">
-        <v>35.37</v>
+        <v>43.57</v>
       </c>
       <c r="X16" s="21">
-        <v>0.667759307128749</v>
+        <v>-0.362685715163152</v>
       </c>
       <c r="Y16" s="21">
-        <v>61.13</v>
+        <v>43.96</v>
       </c>
       <c r="Z16" s="21">
-        <v>0</v>
+        <v>41.67</v>
       </c>
       <c r="AA16" s="21">
-        <v>36.93</v>
+        <v>39.13</v>
       </c>
       <c r="AB16" s="21">
-        <v>61.16</v>
+        <v>62.44</v>
       </c>
       <c r="AC16" s="21">
-        <v>0.667759307128749</v>
+        <v>-0.362685715163152</v>
       </c>
       <c r="AD16" s="21">
-        <v>61.13</v>
+        <v>43.96</v>
       </c>
       <c r="AE16" s="21">
-        <v>60.13</v>
+        <v>51.84</v>
       </c>
       <c r="AF16" s="21">
-        <v>67.20999999999999</v>
+        <v>53.85</v>
       </c>
       <c r="AG16" s="21">
-        <v>47.39</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s" s="18">
         <v>63</v>
@@ -3434,96 +3428,96 @@
         <v>2022</v>
       </c>
       <c r="E17" s="21">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="F17" s="21">
-        <v>-0.49961326593294</v>
+        <v>-1.06946129806383</v>
       </c>
       <c r="G17" s="21">
-        <v>41.67</v>
+        <v>32.18</v>
       </c>
       <c r="H17" s="21">
-        <v>6.14</v>
+        <v>8.15</v>
       </c>
       <c r="I17" s="21">
-        <v>-0.652117890751765</v>
+        <v>-2.04625497280074</v>
       </c>
       <c r="J17" s="21">
-        <v>39.13</v>
+        <v>15.9</v>
       </c>
       <c r="K17" s="21">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="L17" s="21">
-        <v>0.746133905194683</v>
+        <v>0.209389356793765</v>
       </c>
       <c r="M17" s="21">
-        <v>62.44</v>
+        <v>53.49</v>
       </c>
       <c r="N17" s="21">
-        <v>92.90000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="O17" s="21">
-        <v>-0.0283324806347056</v>
+        <v>-1.38112943703707</v>
       </c>
       <c r="P17" s="21">
-        <v>49.53</v>
+        <v>26.98</v>
       </c>
       <c r="Q17" s="21">
-        <v>0.9399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="R17" s="21">
-        <v>0.110187161118536</v>
+        <v>0.869638581025213</v>
       </c>
       <c r="S17" s="21">
-        <v>51.84</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="T17" s="21">
-        <v>44.75</v>
+        <v>50.88</v>
       </c>
       <c r="U17" s="21">
-        <v>0.230747484914406</v>
+        <v>-0.45487022846475</v>
       </c>
       <c r="V17" s="21">
-        <v>53.85</v>
+        <v>42.42</v>
       </c>
       <c r="W17" s="21">
-        <v>43.57</v>
+        <v>43.36</v>
       </c>
       <c r="X17" s="21">
-        <v>-0.362685715163152</v>
+        <v>-0.336296269470311</v>
       </c>
       <c r="Y17" s="21">
-        <v>43.96</v>
+        <v>44.4</v>
       </c>
       <c r="Z17" s="21">
-        <v>41.67</v>
+        <v>32.18</v>
       </c>
       <c r="AA17" s="21">
-        <v>39.13</v>
+        <v>15.9</v>
       </c>
       <c r="AB17" s="21">
-        <v>62.44</v>
+        <v>53.49</v>
       </c>
       <c r="AC17" s="21">
-        <v>-0.362685715163152</v>
+        <v>-0.336296269470311</v>
       </c>
       <c r="AD17" s="21">
-        <v>43.96</v>
+        <v>44.4</v>
       </c>
       <c r="AE17" s="21">
-        <v>51.84</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="AF17" s="21">
-        <v>53.85</v>
+        <v>42.42</v>
       </c>
       <c r="AG17" s="21">
-        <v>48.92</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s" s="18">
         <v>65</v>
@@ -3535,96 +3529,96 @@
         <v>2022</v>
       </c>
       <c r="E18" s="21">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="F18" s="21">
-        <v>-1.06946129806383</v>
+        <v>-0.188787066588818</v>
       </c>
       <c r="G18" s="21">
-        <v>32.18</v>
+        <v>46.85</v>
       </c>
       <c r="H18" s="21">
-        <v>8.15</v>
+        <v>6.96</v>
       </c>
       <c r="I18" s="21">
-        <v>-2.04625497280074</v>
+        <v>-1.22087033218468</v>
       </c>
       <c r="J18" s="21">
-        <v>15.9</v>
+        <v>29.65</v>
       </c>
       <c r="K18" s="21">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L18" s="21">
-        <v>0.209389356793765</v>
+        <v>-0.09732181372104549</v>
       </c>
       <c r="M18" s="21">
-        <v>53.49</v>
+        <v>48.38</v>
       </c>
       <c r="N18" s="21">
-        <v>90.43000000000001</v>
+        <v>91.34999999999999</v>
       </c>
       <c r="O18" s="21">
-        <v>-1.38112943703707</v>
+        <v>-0.877253647607854</v>
       </c>
       <c r="P18" s="21">
-        <v>26.98</v>
+        <v>35.38</v>
       </c>
       <c r="Q18" s="21">
-        <v>0.65</v>
+        <v>1.35</v>
       </c>
       <c r="R18" s="21">
-        <v>0.869638581025213</v>
+        <v>-0.963520018749526</v>
       </c>
       <c r="S18" s="21">
-        <v>64.48999999999999</v>
+        <v>33.94</v>
       </c>
       <c r="T18" s="21">
-        <v>50.88</v>
+        <v>50.65</v>
       </c>
       <c r="U18" s="21">
-        <v>-0.45487022846475</v>
+        <v>-0.429145583427685</v>
       </c>
       <c r="V18" s="21">
-        <v>42.42</v>
+        <v>42.85</v>
       </c>
       <c r="W18" s="21">
-        <v>43.36</v>
+        <v>37.38</v>
       </c>
       <c r="X18" s="21">
-        <v>-0.336296269470311</v>
+        <v>0.415174612640124</v>
       </c>
       <c r="Y18" s="21">
-        <v>44.4</v>
+        <v>56.92</v>
       </c>
       <c r="Z18" s="21">
-        <v>32.18</v>
+        <v>46.85</v>
       </c>
       <c r="AA18" s="21">
-        <v>15.9</v>
+        <v>29.65</v>
       </c>
       <c r="AB18" s="21">
-        <v>53.49</v>
+        <v>48.38</v>
       </c>
       <c r="AC18" s="21">
-        <v>-0.336296269470311</v>
+        <v>0.415174612640124</v>
       </c>
       <c r="AD18" s="21">
-        <v>44.4</v>
+        <v>56.92</v>
       </c>
       <c r="AE18" s="21">
-        <v>64.48999999999999</v>
+        <v>33.94</v>
       </c>
       <c r="AF18" s="21">
-        <v>42.42</v>
+        <v>42.85</v>
       </c>
       <c r="AG18" s="21">
-        <v>39.98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="18">
         <v>67</v>
@@ -3636,40 +3630,40 @@
         <v>2022</v>
       </c>
       <c r="E19" s="21">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="F19" s="21">
-        <v>-0.188787066588818</v>
+        <v>0.277452232427365</v>
       </c>
       <c r="G19" s="21">
-        <v>46.85</v>
+        <v>54.62</v>
       </c>
       <c r="H19" s="21">
-        <v>6.96</v>
+        <v>4.81</v>
       </c>
       <c r="I19" s="21">
-        <v>-1.22087033218468</v>
+        <v>0.270370825230891</v>
       </c>
       <c r="J19" s="21">
-        <v>29.65</v>
+        <v>54.51</v>
       </c>
       <c r="K19" s="21">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="L19" s="21">
-        <v>-0.09732181372104549</v>
+        <v>0.516100527308576</v>
       </c>
       <c r="M19" s="21">
-        <v>48.38</v>
+        <v>58.6</v>
       </c>
       <c r="N19" s="21">
-        <v>91.34999999999999</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="O19" s="21">
-        <v>-0.877253647607854</v>
+        <v>0.68914282822646</v>
       </c>
       <c r="P19" s="21">
-        <v>35.38</v>
+        <v>61.49</v>
       </c>
       <c r="Q19" s="21">
         <v>1.35</v>
@@ -3681,51 +3675,51 @@
         <v>33.94</v>
       </c>
       <c r="T19" s="21">
-        <v>50.65</v>
+        <v>47.48</v>
       </c>
       <c r="U19" s="21">
-        <v>-0.429145583427685</v>
+        <v>-0.0745928670472733</v>
       </c>
       <c r="V19" s="21">
-        <v>42.85</v>
+        <v>48.76</v>
       </c>
       <c r="W19" s="21">
-        <v>37.38</v>
+        <v>40.51</v>
       </c>
       <c r="X19" s="21">
-        <v>0.415174612640124</v>
+        <v>0.0218462077896794</v>
       </c>
       <c r="Y19" s="21">
-        <v>56.92</v>
+        <v>50.36</v>
       </c>
       <c r="Z19" s="21">
-        <v>46.85</v>
+        <v>54.62</v>
       </c>
       <c r="AA19" s="21">
-        <v>29.65</v>
+        <v>54.51</v>
       </c>
       <c r="AB19" s="21">
-        <v>48.38</v>
+        <v>58.6</v>
       </c>
       <c r="AC19" s="21">
-        <v>0.415174612640124</v>
+        <v>0.0218462077896794</v>
       </c>
       <c r="AD19" s="21">
-        <v>56.92</v>
+        <v>50.36</v>
       </c>
       <c r="AE19" s="21">
         <v>33.94</v>
       </c>
       <c r="AF19" s="21">
-        <v>42.85</v>
+        <v>48.76</v>
       </c>
       <c r="AG19" s="21">
-        <v>42</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s" s="18">
         <v>69</v>
@@ -3737,96 +3731,96 @@
         <v>2022</v>
       </c>
       <c r="E20" s="21">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="F20" s="21">
-        <v>0.277452232427365</v>
+        <v>-0.0851783334741105</v>
       </c>
       <c r="G20" s="21">
-        <v>54.62</v>
+        <v>48.58</v>
       </c>
       <c r="H20" s="21">
-        <v>4.81</v>
+        <v>4.75</v>
       </c>
       <c r="I20" s="21">
-        <v>0.270370825230891</v>
+        <v>0.311986857530861</v>
       </c>
       <c r="J20" s="21">
-        <v>54.51</v>
+        <v>55.2</v>
       </c>
       <c r="K20" s="21">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="L20" s="21">
-        <v>0.516100527308576</v>
+        <v>0.746133905194683</v>
       </c>
       <c r="M20" s="21">
-        <v>58.6</v>
+        <v>62.44</v>
       </c>
       <c r="N20" s="21">
-        <v>94.20999999999999</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="O20" s="21">
-        <v>0.68914282822646</v>
+        <v>0.73295811426379</v>
       </c>
       <c r="P20" s="21">
-        <v>61.49</v>
+        <v>62.22</v>
       </c>
       <c r="Q20" s="21">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="R20" s="21">
-        <v>-0.963520018749526</v>
+        <v>-0.780204158772052</v>
       </c>
       <c r="S20" s="21">
-        <v>33.94</v>
+        <v>37</v>
       </c>
       <c r="T20" s="21">
-        <v>47.48</v>
+        <v>39.41</v>
       </c>
       <c r="U20" s="21">
-        <v>-0.0745928670472733</v>
+        <v>0.828006634905383</v>
       </c>
       <c r="V20" s="21">
-        <v>48.76</v>
+        <v>63.8</v>
       </c>
       <c r="W20" s="21">
-        <v>40.51</v>
+        <v>35.73</v>
       </c>
       <c r="X20" s="21">
-        <v>0.0218462077896794</v>
+        <v>0.622520257369592</v>
       </c>
       <c r="Y20" s="21">
-        <v>50.36</v>
+        <v>60.38</v>
       </c>
       <c r="Z20" s="21">
-        <v>54.62</v>
+        <v>48.58</v>
       </c>
       <c r="AA20" s="21">
-        <v>54.51</v>
+        <v>55.2</v>
       </c>
       <c r="AB20" s="21">
-        <v>58.6</v>
+        <v>62.44</v>
       </c>
       <c r="AC20" s="21">
-        <v>0.0218462077896794</v>
+        <v>0.622520257369592</v>
       </c>
       <c r="AD20" s="21">
-        <v>50.36</v>
+        <v>60.38</v>
       </c>
       <c r="AE20" s="21">
-        <v>33.94</v>
+        <v>37</v>
       </c>
       <c r="AF20" s="21">
-        <v>48.76</v>
+        <v>63.8</v>
       </c>
       <c r="AG20" s="21">
-        <v>51.75</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s" s="18">
         <v>71</v>
@@ -3838,96 +3832,96 @@
         <v>2022</v>
       </c>
       <c r="E21" s="21">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="F21" s="21">
-        <v>-0.0851783334741105</v>
+        <v>0.40696314882075</v>
       </c>
       <c r="G21" s="21">
-        <v>48.58</v>
+        <v>56.78</v>
       </c>
       <c r="H21" s="21">
-        <v>4.75</v>
+        <v>5.78</v>
       </c>
       <c r="I21" s="21">
-        <v>0.311986857530861</v>
+        <v>-0.402421696951949</v>
       </c>
       <c r="J21" s="21">
-        <v>55.2</v>
+        <v>43.29</v>
       </c>
       <c r="K21" s="21">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="L21" s="21">
-        <v>0.746133905194683</v>
+        <v>-0.404032984235856</v>
       </c>
       <c r="M21" s="21">
-        <v>62.44</v>
+        <v>43.27</v>
       </c>
       <c r="N21" s="21">
-        <v>94.29000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="O21" s="21">
-        <v>0.73295811426379</v>
+        <v>-0.247408910821326</v>
       </c>
       <c r="P21" s="21">
-        <v>62.22</v>
+        <v>45.88</v>
       </c>
       <c r="Q21" s="21">
-        <v>1.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R21" s="21">
-        <v>-0.780204158772052</v>
+        <v>1.10533040099625</v>
       </c>
       <c r="S21" s="21">
-        <v>37</v>
+        <v>68.42</v>
       </c>
       <c r="T21" s="21">
-        <v>39.41</v>
+        <v>62.98</v>
       </c>
       <c r="U21" s="21">
-        <v>0.828006634905383</v>
+        <v>-1.80821024997988</v>
       </c>
       <c r="V21" s="21">
-        <v>63.8</v>
+        <v>19.86</v>
       </c>
       <c r="W21" s="21">
-        <v>35.73</v>
+        <v>48.1</v>
       </c>
       <c r="X21" s="21">
-        <v>0.622520257369592</v>
+        <v>-0.931943757965873</v>
       </c>
       <c r="Y21" s="21">
-        <v>60.38</v>
+        <v>34.47</v>
       </c>
       <c r="Z21" s="21">
-        <v>48.58</v>
+        <v>56.78</v>
       </c>
       <c r="AA21" s="21">
-        <v>55.2</v>
+        <v>43.29</v>
       </c>
       <c r="AB21" s="21">
-        <v>62.44</v>
+        <v>43.27</v>
       </c>
       <c r="AC21" s="21">
-        <v>0.622520257369592</v>
+        <v>-0.931943757965873</v>
       </c>
       <c r="AD21" s="21">
-        <v>60.38</v>
+        <v>34.47</v>
       </c>
       <c r="AE21" s="21">
-        <v>37</v>
+        <v>68.42</v>
       </c>
       <c r="AF21" s="21">
-        <v>63.8</v>
+        <v>19.86</v>
       </c>
       <c r="AG21" s="21">
-        <v>55.66</v>
+        <v>44.57</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s" s="18">
         <v>73</v>
@@ -3939,96 +3933,96 @@
         <v>2022</v>
       </c>
       <c r="E22" s="21">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="F22" s="21">
-        <v>0.40696314882075</v>
+        <v>-0.991754748227801</v>
       </c>
       <c r="G22" s="21">
-        <v>56.78</v>
+        <v>33.47</v>
       </c>
       <c r="H22" s="21">
-        <v>5.78</v>
+        <v>5.1</v>
       </c>
       <c r="I22" s="21">
-        <v>-0.402421696951949</v>
+        <v>0.06922666911437229</v>
       </c>
       <c r="J22" s="21">
-        <v>43.29</v>
+        <v>51.15</v>
       </c>
       <c r="K22" s="21">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="L22" s="21">
-        <v>-0.404032984235856</v>
+        <v>0.36274494205117</v>
       </c>
       <c r="M22" s="21">
-        <v>43.27</v>
+        <v>56.05</v>
       </c>
       <c r="N22" s="21">
-        <v>92.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="O22" s="21">
-        <v>-0.247408910821326</v>
+        <v>0.0812057344585969</v>
       </c>
       <c r="P22" s="21">
-        <v>45.88</v>
+        <v>51.35</v>
       </c>
       <c r="Q22" s="21">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="R22" s="21">
-        <v>1.10533040099625</v>
+        <v>0.345878981089574</v>
       </c>
       <c r="S22" s="21">
-        <v>68.42</v>
+        <v>55.76</v>
       </c>
       <c r="T22" s="21">
-        <v>62.98</v>
+        <v>42.96</v>
       </c>
       <c r="U22" s="21">
-        <v>-1.80821024997988</v>
+        <v>0.43095233107243</v>
       </c>
       <c r="V22" s="21">
-        <v>19.86</v>
+        <v>57.18</v>
       </c>
       <c r="W22" s="21">
-        <v>48.1</v>
+        <v>41.98</v>
       </c>
       <c r="X22" s="21">
-        <v>-0.931943757965873</v>
+        <v>-0.16287991206021</v>
       </c>
       <c r="Y22" s="21">
-        <v>34.47</v>
+        <v>47.29</v>
       </c>
       <c r="Z22" s="21">
-        <v>56.78</v>
+        <v>33.47</v>
       </c>
       <c r="AA22" s="21">
-        <v>43.29</v>
+        <v>51.15</v>
       </c>
       <c r="AB22" s="21">
-        <v>43.27</v>
+        <v>56.05</v>
       </c>
       <c r="AC22" s="21">
-        <v>-0.931943757965873</v>
+        <v>-0.16287991206021</v>
       </c>
       <c r="AD22" s="21">
-        <v>34.47</v>
+        <v>47.29</v>
       </c>
       <c r="AE22" s="21">
-        <v>68.42</v>
+        <v>55.76</v>
       </c>
       <c r="AF22" s="21">
-        <v>19.86</v>
+        <v>57.18</v>
       </c>
       <c r="AG22" s="21">
-        <v>44.57</v>
+        <v>50.32</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="17">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s" s="18">
         <v>75</v>
@@ -4040,96 +4034,96 @@
         <v>2022</v>
       </c>
       <c r="E23" s="21">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="F23" s="21">
-        <v>-0.991754748227801</v>
+        <v>-0.292395799703526</v>
       </c>
       <c r="G23" s="21">
-        <v>33.47</v>
+        <v>45.13</v>
       </c>
       <c r="H23" s="21">
-        <v>5.1</v>
+        <v>5.64</v>
       </c>
       <c r="I23" s="21">
-        <v>0.06922666911437229</v>
+        <v>-0.305317621585353</v>
       </c>
       <c r="J23" s="21">
-        <v>51.15</v>
+        <v>44.91</v>
       </c>
       <c r="K23" s="21">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="L23" s="21">
-        <v>0.36274494205117</v>
+        <v>-0.787421947379369</v>
       </c>
       <c r="M23" s="21">
-        <v>56.05</v>
+        <v>36.88</v>
       </c>
       <c r="N23" s="21">
-        <v>93.09999999999999</v>
+        <v>91.53</v>
       </c>
       <c r="O23" s="21">
-        <v>0.0812057344585969</v>
+        <v>-0.778669254023872</v>
       </c>
       <c r="P23" s="21">
-        <v>51.35</v>
+        <v>37.02</v>
       </c>
       <c r="Q23" s="21">
-        <v>0.85</v>
+        <v>0.46</v>
       </c>
       <c r="R23" s="21">
-        <v>0.345878981089574</v>
+        <v>1.36721020096407</v>
       </c>
       <c r="S23" s="21">
-        <v>55.76</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="T23" s="21">
-        <v>42.96</v>
+        <v>50.36</v>
       </c>
       <c r="U23" s="21">
-        <v>0.43095233107243</v>
+        <v>-0.39671016142443</v>
       </c>
       <c r="V23" s="21">
-        <v>57.18</v>
+        <v>43.39</v>
       </c>
       <c r="W23" s="21">
-        <v>41.98</v>
+        <v>48.5</v>
       </c>
       <c r="X23" s="21">
-        <v>-0.16287991206021</v>
+        <v>-0.98220936880938</v>
       </c>
       <c r="Y23" s="21">
-        <v>47.29</v>
+        <v>33.63</v>
       </c>
       <c r="Z23" s="21">
-        <v>33.47</v>
+        <v>45.13</v>
       </c>
       <c r="AA23" s="21">
-        <v>51.15</v>
+        <v>44.91</v>
       </c>
       <c r="AB23" s="21">
-        <v>56.05</v>
+        <v>36.88</v>
       </c>
       <c r="AC23" s="21">
-        <v>-0.16287991206021</v>
+        <v>-0.98220936880938</v>
       </c>
       <c r="AD23" s="21">
-        <v>47.29</v>
+        <v>33.63</v>
       </c>
       <c r="AE23" s="21">
-        <v>55.76</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="AF23" s="21">
-        <v>57.18</v>
+        <v>43.39</v>
       </c>
       <c r="AG23" s="21">
-        <v>50.32</v>
+        <v>44.82</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="18">
         <v>77</v>
@@ -4141,96 +4135,96 @@
         <v>2022</v>
       </c>
       <c r="E24" s="21">
-        <v>1.34</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F24" s="21">
-        <v>-0.292395799703526</v>
+        <v>0.74369153144355</v>
       </c>
       <c r="G24" s="21">
-        <v>45.13</v>
+        <v>62.39</v>
       </c>
       <c r="H24" s="21">
-        <v>5.64</v>
+        <v>4.42</v>
       </c>
       <c r="I24" s="21">
-        <v>-0.305317621585353</v>
+        <v>0.540875035180693</v>
       </c>
       <c r="J24" s="21">
-        <v>44.91</v>
+        <v>59.01</v>
       </c>
       <c r="K24" s="21">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="L24" s="21">
-        <v>-0.787421947379369</v>
+        <v>0.132711564165062</v>
       </c>
       <c r="M24" s="21">
-        <v>36.88</v>
+        <v>52.21</v>
       </c>
       <c r="N24" s="21">
-        <v>91.53</v>
+        <v>93.94</v>
       </c>
       <c r="O24" s="21">
-        <v>-0.778669254023872</v>
+        <v>0.541266237850495</v>
       </c>
       <c r="P24" s="21">
-        <v>37.02</v>
+        <v>59.02</v>
       </c>
       <c r="Q24" s="21">
-        <v>0.46</v>
+        <v>1.14</v>
       </c>
       <c r="R24" s="21">
-        <v>1.36721020096407</v>
+        <v>-0.413572438817104</v>
       </c>
       <c r="S24" s="21">
-        <v>72.79000000000001</v>
+        <v>43.11</v>
       </c>
       <c r="T24" s="21">
-        <v>50.36</v>
+        <v>47.44</v>
       </c>
       <c r="U24" s="21">
-        <v>-0.39671016142443</v>
+        <v>-0.07011901573647961</v>
       </c>
       <c r="V24" s="21">
-        <v>43.39</v>
+        <v>48.83</v>
       </c>
       <c r="W24" s="21">
-        <v>48.5</v>
+        <v>49.33</v>
       </c>
       <c r="X24" s="21">
-        <v>-0.98220936880938</v>
+        <v>-1.08651051130966</v>
       </c>
       <c r="Y24" s="21">
-        <v>33.63</v>
+        <v>31.89</v>
       </c>
       <c r="Z24" s="21">
-        <v>45.13</v>
+        <v>62.39</v>
       </c>
       <c r="AA24" s="21">
-        <v>44.91</v>
+        <v>59.01</v>
       </c>
       <c r="AB24" s="21">
-        <v>36.88</v>
+        <v>52.21</v>
       </c>
       <c r="AC24" s="21">
-        <v>-0.98220936880938</v>
+        <v>-1.08651051130966</v>
       </c>
       <c r="AD24" s="21">
-        <v>33.63</v>
+        <v>31.89</v>
       </c>
       <c r="AE24" s="21">
-        <v>72.79000000000001</v>
+        <v>43.11</v>
       </c>
       <c r="AF24" s="21">
-        <v>43.39</v>
+        <v>48.83</v>
       </c>
       <c r="AG24" s="21">
-        <v>44.82</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="18">
         <v>79</v>
@@ -4242,96 +4236,96 @@
         <v>2022</v>
       </c>
       <c r="E25" s="21">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="F25" s="21">
-        <v>0.74369153144355</v>
+        <v>-0.214689249867495</v>
       </c>
       <c r="G25" s="21">
-        <v>62.39</v>
+        <v>46.42</v>
       </c>
       <c r="H25" s="21">
-        <v>4.42</v>
+        <v>6.5</v>
       </c>
       <c r="I25" s="21">
-        <v>0.540875035180693</v>
+        <v>-0.901814084551583</v>
       </c>
       <c r="J25" s="21">
-        <v>59.01</v>
+        <v>34.97</v>
       </c>
       <c r="K25" s="21">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="L25" s="21">
-        <v>0.132711564165062</v>
+        <v>-1.40084428840899</v>
       </c>
       <c r="M25" s="21">
-        <v>52.21</v>
+        <v>26.65</v>
       </c>
       <c r="N25" s="21">
-        <v>93.94</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="O25" s="21">
-        <v>0.541266237850495</v>
+        <v>-1.67140570703434</v>
       </c>
       <c r="P25" s="21">
-        <v>59.02</v>
+        <v>22.14</v>
       </c>
       <c r="Q25" s="21">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="R25" s="21">
-        <v>-0.413572438817104</v>
+        <v>1.26245828097694</v>
       </c>
       <c r="S25" s="21">
-        <v>43.11</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="T25" s="21">
-        <v>47.44</v>
+        <v>46.44</v>
       </c>
       <c r="U25" s="21">
-        <v>-0.07011901573647961</v>
+        <v>0.0417272670333663</v>
       </c>
       <c r="V25" s="21">
-        <v>48.83</v>
+        <v>50.7</v>
       </c>
       <c r="W25" s="21">
-        <v>49.33</v>
+        <v>48.1</v>
       </c>
       <c r="X25" s="21">
-        <v>-1.08651051130966</v>
+        <v>-0.931943757965873</v>
       </c>
       <c r="Y25" s="21">
-        <v>31.89</v>
+        <v>34.47</v>
       </c>
       <c r="Z25" s="21">
-        <v>62.39</v>
+        <v>46.42</v>
       </c>
       <c r="AA25" s="21">
-        <v>59.01</v>
+        <v>34.97</v>
       </c>
       <c r="AB25" s="21">
-        <v>52.21</v>
+        <v>26.65</v>
       </c>
       <c r="AC25" s="21">
-        <v>-1.08651051130966</v>
+        <v>-0.931943757965873</v>
       </c>
       <c r="AD25" s="21">
-        <v>31.89</v>
+        <v>34.47</v>
       </c>
       <c r="AE25" s="21">
-        <v>43.11</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="AF25" s="21">
-        <v>48.83</v>
+        <v>50.7</v>
       </c>
       <c r="AG25" s="21">
-        <v>50.92</v>
+        <v>40.91</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="18">
         <v>81</v>
@@ -4343,96 +4337,96 @@
         <v>2022</v>
       </c>
       <c r="E26" s="21">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="F26" s="21">
-        <v>-0.214689249867495</v>
+        <v>-1.25077658101457</v>
       </c>
       <c r="G26" s="21">
-        <v>46.42</v>
+        <v>29.15</v>
       </c>
       <c r="H26" s="21">
-        <v>6.5</v>
+        <v>5.32</v>
       </c>
       <c r="I26" s="21">
-        <v>-0.901814084551583</v>
+        <v>-0.08336544931884959</v>
       </c>
       <c r="J26" s="21">
-        <v>34.97</v>
+        <v>48.61</v>
       </c>
       <c r="K26" s="21">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="L26" s="21">
-        <v>-1.40084428840899</v>
+        <v>0.669456112565981</v>
       </c>
       <c r="M26" s="21">
-        <v>26.65</v>
+        <v>61.16</v>
       </c>
       <c r="N26" s="21">
-        <v>89.90000000000001</v>
+        <v>93.83</v>
       </c>
       <c r="O26" s="21">
-        <v>-1.67140570703434</v>
+        <v>0.481020219549176</v>
       </c>
       <c r="P26" s="21">
-        <v>22.14</v>
+        <v>58.02</v>
       </c>
       <c r="Q26" s="21">
-        <v>0.5</v>
+        <v>1.08</v>
       </c>
       <c r="R26" s="21">
-        <v>1.26245828097694</v>
+        <v>-0.256444558836412</v>
       </c>
       <c r="S26" s="21">
-        <v>71.04000000000001</v>
+        <v>45.73</v>
       </c>
       <c r="T26" s="21">
-        <v>46.44</v>
+        <v>34.28</v>
       </c>
       <c r="U26" s="21">
-        <v>0.0417272670333663</v>
+        <v>1.40177806551469</v>
       </c>
       <c r="V26" s="21">
-        <v>50.7</v>
+        <v>73.36</v>
       </c>
       <c r="W26" s="21">
-        <v>48.1</v>
+        <v>32.54</v>
       </c>
       <c r="X26" s="21">
-        <v>-0.931943757965873</v>
+        <v>1.02338850384656</v>
       </c>
       <c r="Y26" s="21">
-        <v>34.47</v>
+        <v>67.06</v>
       </c>
       <c r="Z26" s="21">
-        <v>46.42</v>
+        <v>29.15</v>
       </c>
       <c r="AA26" s="21">
-        <v>34.97</v>
+        <v>48.61</v>
       </c>
       <c r="AB26" s="21">
-        <v>26.65</v>
+        <v>61.16</v>
       </c>
       <c r="AC26" s="21">
-        <v>-0.931943757965873</v>
+        <v>1.02338850384656</v>
       </c>
       <c r="AD26" s="21">
-        <v>34.47</v>
+        <v>67.06</v>
       </c>
       <c r="AE26" s="21">
-        <v>71.04000000000001</v>
+        <v>45.73</v>
       </c>
       <c r="AF26" s="21">
-        <v>50.7</v>
+        <v>73.36</v>
       </c>
       <c r="AG26" s="21">
-        <v>40.91</v>
+        <v>54.73</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s" s="18">
         <v>83</v>
@@ -4444,96 +4438,96 @@
         <v>2022</v>
       </c>
       <c r="E27" s="21">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="F27" s="21">
-        <v>-1.25077658101457</v>
+        <v>-1.82062461314546</v>
       </c>
       <c r="G27" s="21">
-        <v>29.15</v>
+        <v>19.66</v>
       </c>
       <c r="H27" s="21">
-        <v>5.32</v>
+        <v>6.23</v>
       </c>
       <c r="I27" s="21">
-        <v>-0.08336544931884959</v>
+        <v>-0.71454193920172</v>
       </c>
       <c r="J27" s="21">
-        <v>48.61</v>
+        <v>38.09</v>
       </c>
       <c r="K27" s="21">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="L27" s="21">
-        <v>0.669456112565981</v>
+        <v>0.516100527308576</v>
       </c>
       <c r="M27" s="21">
-        <v>61.16</v>
+        <v>58.6</v>
       </c>
       <c r="N27" s="21">
-        <v>93.83</v>
+        <v>92.7</v>
       </c>
       <c r="O27" s="21">
-        <v>0.481020219549176</v>
+        <v>-0.137870695728016</v>
       </c>
       <c r="P27" s="21">
-        <v>58.02</v>
+        <v>47.7</v>
       </c>
       <c r="Q27" s="21">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="R27" s="21">
-        <v>-0.256444558836412</v>
+        <v>0.136375141115318</v>
       </c>
       <c r="S27" s="21">
-        <v>45.73</v>
+        <v>52.27</v>
       </c>
       <c r="T27" s="21">
-        <v>34.28</v>
+        <v>43.5</v>
       </c>
       <c r="U27" s="21">
-        <v>1.40177806551469</v>
+        <v>0.370555338376713</v>
       </c>
       <c r="V27" s="21">
-        <v>73.36</v>
+        <v>56.18</v>
       </c>
       <c r="W27" s="21">
-        <v>32.54</v>
+        <v>40.96</v>
       </c>
       <c r="X27" s="21">
-        <v>1.02338850384656</v>
+        <v>-0.0347026044092667</v>
       </c>
       <c r="Y27" s="21">
-        <v>67.06</v>
+        <v>49.42</v>
       </c>
       <c r="Z27" s="21">
-        <v>29.15</v>
+        <v>19.66</v>
       </c>
       <c r="AA27" s="21">
-        <v>48.61</v>
+        <v>38.09</v>
       </c>
       <c r="AB27" s="21">
-        <v>61.16</v>
+        <v>58.6</v>
       </c>
       <c r="AC27" s="21">
-        <v>1.02338850384656</v>
+        <v>-0.0347026044092667</v>
       </c>
       <c r="AD27" s="21">
-        <v>67.06</v>
+        <v>49.42</v>
       </c>
       <c r="AE27" s="21">
-        <v>45.73</v>
+        <v>52.27</v>
       </c>
       <c r="AF27" s="21">
-        <v>73.36</v>
+        <v>56.18</v>
       </c>
       <c r="AG27" s="21">
-        <v>54.73</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="18">
         <v>85</v>
@@ -4545,96 +4539,96 @@
         <v>2022</v>
       </c>
       <c r="E28" s="21">
-        <v>1.93</v>
+        <v>1.21</v>
       </c>
       <c r="F28" s="21">
-        <v>-1.82062461314546</v>
+        <v>0.0443325829192739</v>
       </c>
       <c r="G28" s="21">
-        <v>19.66</v>
+        <v>50.74</v>
       </c>
       <c r="H28" s="21">
-        <v>6.23</v>
+        <v>5.22</v>
       </c>
       <c r="I28" s="21">
-        <v>-0.71454193920172</v>
+        <v>-0.0140053954855668</v>
       </c>
       <c r="J28" s="21">
-        <v>38.09</v>
+        <v>49.77</v>
       </c>
       <c r="K28" s="21">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="L28" s="21">
-        <v>0.516100527308576</v>
+        <v>-0.480710776864559</v>
       </c>
       <c r="M28" s="21">
-        <v>58.6</v>
+        <v>41.99</v>
       </c>
       <c r="N28" s="21">
-        <v>92.7</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="O28" s="21">
-        <v>-0.137870695728016</v>
+        <v>-0.148824517237344</v>
       </c>
       <c r="P28" s="21">
-        <v>47.7</v>
+        <v>47.52</v>
       </c>
       <c r="Q28" s="21">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="R28" s="21">
-        <v>0.136375141115318</v>
+        <v>0.188751101108882</v>
       </c>
       <c r="S28" s="21">
-        <v>52.27</v>
+        <v>53.15</v>
       </c>
       <c r="T28" s="21">
-        <v>43.5</v>
+        <v>55.68</v>
       </c>
       <c r="U28" s="21">
-        <v>0.370555338376713</v>
+        <v>-0.99173238576001</v>
       </c>
       <c r="V28" s="21">
-        <v>56.18</v>
+        <v>33.47</v>
       </c>
       <c r="W28" s="21">
-        <v>40.96</v>
+        <v>35.82</v>
       </c>
       <c r="X28" s="21">
-        <v>-0.0347026044092667</v>
+        <v>0.6112104949298029</v>
       </c>
       <c r="Y28" s="21">
-        <v>49.42</v>
+        <v>60.19</v>
       </c>
       <c r="Z28" s="21">
-        <v>19.66</v>
+        <v>50.74</v>
       </c>
       <c r="AA28" s="21">
-        <v>38.09</v>
+        <v>49.77</v>
       </c>
       <c r="AB28" s="21">
-        <v>58.6</v>
+        <v>41.99</v>
       </c>
       <c r="AC28" s="21">
-        <v>-0.0347026044092667</v>
+        <v>0.6112104949298029</v>
       </c>
       <c r="AD28" s="21">
-        <v>49.42</v>
+        <v>60.19</v>
       </c>
       <c r="AE28" s="21">
-        <v>52.27</v>
+        <v>53.15</v>
       </c>
       <c r="AF28" s="21">
-        <v>56.18</v>
+        <v>33.47</v>
       </c>
       <c r="AG28" s="21">
-        <v>45.99</v>
+        <v>48.12</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s" s="18">
         <v>87</v>
@@ -4646,96 +4640,96 @@
         <v>2022</v>
       </c>
       <c r="E29" s="21">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="F29" s="21">
-        <v>0.0443325829192739</v>
+        <v>-1.04355911478515</v>
       </c>
       <c r="G29" s="21">
-        <v>50.74</v>
+        <v>32.61</v>
       </c>
       <c r="H29" s="21">
-        <v>5.22</v>
+        <v>6.14</v>
       </c>
       <c r="I29" s="21">
-        <v>-0.0140053954855668</v>
+        <v>-0.652117890751765</v>
       </c>
       <c r="J29" s="21">
+        <v>39.13</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.669456112565981</v>
+      </c>
+      <c r="M29" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="N29" s="21">
+        <v>92.62</v>
+      </c>
+      <c r="O29" s="21">
+        <v>-0.181685981765338</v>
+      </c>
+      <c r="P29" s="21">
+        <v>46.97</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="R29" s="21">
+        <v>0.817262621031649</v>
+      </c>
+      <c r="S29" s="21">
+        <v>63.62</v>
+      </c>
+      <c r="T29" s="21">
+        <v>48.96</v>
+      </c>
+      <c r="U29" s="21">
+        <v>-0.240125365546646</v>
+      </c>
+      <c r="V29" s="21">
+        <v>46</v>
+      </c>
+      <c r="W29" s="21">
+        <v>36.44</v>
+      </c>
+      <c r="X29" s="21">
+        <v>0.533298798122367</v>
+      </c>
+      <c r="Y29" s="21">
+        <v>58.89</v>
+      </c>
+      <c r="Z29" s="21">
+        <v>32.61</v>
+      </c>
+      <c r="AA29" s="21">
+        <v>39.13</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="AC29" s="21">
+        <v>0.533298798122367</v>
+      </c>
+      <c r="AD29" s="21">
+        <v>58.89</v>
+      </c>
+      <c r="AE29" s="21">
+        <v>63.62</v>
+      </c>
+      <c r="AF29" s="21">
+        <v>46</v>
+      </c>
+      <c r="AG29" s="21">
         <v>49.77</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0.35</v>
-      </c>
-      <c r="L29" s="21">
-        <v>-0.480710776864559</v>
-      </c>
-      <c r="M29" s="21">
-        <v>41.99</v>
-      </c>
-      <c r="N29" s="21">
-        <v>92.68000000000001</v>
-      </c>
-      <c r="O29" s="21">
-        <v>-0.148824517237344</v>
-      </c>
-      <c r="P29" s="21">
-        <v>47.52</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0.91</v>
-      </c>
-      <c r="R29" s="21">
-        <v>0.188751101108882</v>
-      </c>
-      <c r="S29" s="21">
-        <v>53.15</v>
-      </c>
-      <c r="T29" s="21">
-        <v>55.68</v>
-      </c>
-      <c r="U29" s="21">
-        <v>-0.99173238576001</v>
-      </c>
-      <c r="V29" s="21">
-        <v>33.47</v>
-      </c>
-      <c r="W29" s="21">
-        <v>35.82</v>
-      </c>
-      <c r="X29" s="21">
-        <v>0.6112104949298029</v>
-      </c>
-      <c r="Y29" s="21">
-        <v>60.19</v>
-      </c>
-      <c r="Z29" s="21">
-        <v>50.74</v>
-      </c>
-      <c r="AA29" s="21">
-        <v>49.77</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>41.99</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>0.6112104949298029</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>60.19</v>
-      </c>
-      <c r="AE29" s="21">
-        <v>53.15</v>
-      </c>
-      <c r="AF29" s="21">
-        <v>33.47</v>
-      </c>
-      <c r="AG29" s="21">
-        <v>48.12</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s" s="18">
         <v>89</v>
@@ -4747,96 +4741,96 @@
         <v>2022</v>
       </c>
       <c r="E30" s="21">
-        <v>1.63</v>
+        <v>0.77</v>
       </c>
       <c r="F30" s="21">
-        <v>-1.04355911478515</v>
+        <v>1.18402864718106</v>
       </c>
       <c r="G30" s="21">
-        <v>32.61</v>
+        <v>69.73</v>
       </c>
       <c r="H30" s="21">
-        <v>6.14</v>
+        <v>2.88</v>
       </c>
       <c r="I30" s="21">
-        <v>-0.652117890751765</v>
+        <v>1.60901986421324</v>
       </c>
       <c r="J30" s="21">
-        <v>39.13</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="K30" s="21">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L30" s="21">
-        <v>0.669456112565981</v>
+        <v>1.43623403885301</v>
       </c>
       <c r="M30" s="21">
-        <v>61.16</v>
+        <v>73.94</v>
       </c>
       <c r="N30" s="21">
-        <v>92.62</v>
+        <v>96.47</v>
       </c>
       <c r="O30" s="21">
-        <v>-0.181685981765338</v>
+        <v>1.92692465878085</v>
       </c>
       <c r="P30" s="21">
-        <v>46.97</v>
+        <v>82.12</v>
       </c>
       <c r="Q30" s="21">
-        <v>0.67</v>
+        <v>1.44</v>
       </c>
       <c r="R30" s="21">
-        <v>0.817262621031649</v>
+        <v>-1.19921183872056</v>
       </c>
       <c r="S30" s="21">
-        <v>63.62</v>
+        <v>30.01</v>
       </c>
       <c r="T30" s="21">
-        <v>48.96</v>
+        <v>48.22</v>
       </c>
       <c r="U30" s="21">
-        <v>-0.240125365546646</v>
+        <v>-0.157359116296959</v>
       </c>
       <c r="V30" s="21">
-        <v>46</v>
+        <v>47.38</v>
       </c>
       <c r="W30" s="21">
-        <v>36.44</v>
+        <v>39.08</v>
       </c>
       <c r="X30" s="21">
-        <v>0.533298798122367</v>
+        <v>0.201545766555218</v>
       </c>
       <c r="Y30" s="21">
-        <v>58.89</v>
+        <v>53.36</v>
       </c>
       <c r="Z30" s="21">
-        <v>32.61</v>
+        <v>69.73</v>
       </c>
       <c r="AA30" s="21">
-        <v>39.13</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="AB30" s="21">
-        <v>61.16</v>
+        <v>73.94</v>
       </c>
       <c r="AC30" s="21">
-        <v>0.533298798122367</v>
+        <v>0.201545766555218</v>
       </c>
       <c r="AD30" s="21">
-        <v>58.89</v>
+        <v>53.36</v>
       </c>
       <c r="AE30" s="21">
-        <v>63.62</v>
+        <v>30.01</v>
       </c>
       <c r="AF30" s="21">
-        <v>46</v>
+        <v>47.38</v>
       </c>
       <c r="AG30" s="21">
-        <v>49.77</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="18">
         <v>91</v>
@@ -4848,96 +4842,96 @@
         <v>2022</v>
       </c>
       <c r="E31" s="21">
-        <v>0.77</v>
+        <v>0.98</v>
       </c>
       <c r="F31" s="21">
-        <v>1.18402864718106</v>
+        <v>0.640082798328842</v>
       </c>
       <c r="G31" s="21">
-        <v>69.73</v>
+        <v>60.67</v>
       </c>
       <c r="H31" s="21">
-        <v>2.88</v>
+        <v>5.96</v>
       </c>
       <c r="I31" s="21">
-        <v>1.60901986421324</v>
+        <v>-0.527269793851857</v>
       </c>
       <c r="J31" s="21">
-        <v>76.81999999999999</v>
+        <v>41.21</v>
       </c>
       <c r="K31" s="21">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="L31" s="21">
-        <v>1.43623403885301</v>
+        <v>-0.404032984235856</v>
       </c>
       <c r="M31" s="21">
-        <v>73.94</v>
+        <v>43.27</v>
       </c>
       <c r="N31" s="21">
-        <v>96.47</v>
+        <v>91.88</v>
       </c>
       <c r="O31" s="21">
-        <v>1.92692465878085</v>
+        <v>-0.586977377610585</v>
       </c>
       <c r="P31" s="21">
-        <v>82.12</v>
+        <v>40.22</v>
       </c>
       <c r="Q31" s="21">
-        <v>1.44</v>
+        <v>0.65</v>
       </c>
       <c r="R31" s="21">
-        <v>-1.19921183872056</v>
+        <v>0.869638581025213</v>
       </c>
       <c r="S31" s="21">
-        <v>30.01</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="T31" s="21">
-        <v>48.22</v>
+        <v>63.63</v>
       </c>
       <c r="U31" s="21">
-        <v>-0.157359116296959</v>
+        <v>-1.88091033378028</v>
       </c>
       <c r="V31" s="21">
-        <v>47.38</v>
+        <v>18.65</v>
       </c>
       <c r="W31" s="21">
-        <v>39.08</v>
+        <v>58.16</v>
       </c>
       <c r="X31" s="21">
-        <v>0.201545766555218</v>
+        <v>-2.19612387068008</v>
       </c>
       <c r="Y31" s="21">
-        <v>53.36</v>
+        <v>13.4</v>
       </c>
       <c r="Z31" s="21">
-        <v>69.73</v>
+        <v>60.67</v>
       </c>
       <c r="AA31" s="21">
-        <v>76.81999999999999</v>
+        <v>41.21</v>
       </c>
       <c r="AB31" s="21">
-        <v>73.94</v>
+        <v>43.27</v>
       </c>
       <c r="AC31" s="21">
-        <v>0.201545766555218</v>
+        <v>-2.19612387068008</v>
       </c>
       <c r="AD31" s="21">
-        <v>53.36</v>
+        <v>13.4</v>
       </c>
       <c r="AE31" s="21">
-        <v>30.01</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="AF31" s="21">
-        <v>47.38</v>
+        <v>18.65</v>
       </c>
       <c r="AG31" s="21">
-        <v>61.91</v>
+        <v>40.27</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="18">
         <v>93</v>
@@ -4949,96 +4943,96 @@
         <v>2022</v>
       </c>
       <c r="E32" s="21">
-        <v>0.98</v>
+        <v>1.57</v>
       </c>
       <c r="F32" s="21">
-        <v>0.640082798328842</v>
+        <v>-0.888146015113094</v>
       </c>
       <c r="G32" s="21">
-        <v>60.67</v>
+        <v>35.2</v>
       </c>
       <c r="H32" s="21">
-        <v>5.96</v>
+        <v>4.94</v>
       </c>
       <c r="I32" s="21">
-        <v>-0.527269793851857</v>
+        <v>0.180202755247624</v>
       </c>
       <c r="J32" s="21">
-        <v>41.21</v>
+        <v>53</v>
       </c>
       <c r="K32" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0.669456112565981</v>
+      </c>
+      <c r="M32" s="21">
+        <v>61.16</v>
+      </c>
+      <c r="N32" s="21">
+        <v>93.47</v>
+      </c>
+      <c r="O32" s="21">
+        <v>0.28385143238122</v>
+      </c>
+      <c r="P32" s="21">
+        <v>54.73</v>
+      </c>
+      <c r="Q32" s="21">
         <v>0.34</v>
       </c>
-      <c r="L32" s="21">
-        <v>-0.404032984235856</v>
-      </c>
-      <c r="M32" s="21">
-        <v>43.27</v>
-      </c>
-      <c r="N32" s="21">
-        <v>91.88</v>
-      </c>
-      <c r="O32" s="21">
-        <v>-0.586977377610585</v>
-      </c>
-      <c r="P32" s="21">
-        <v>40.22</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>0.65</v>
-      </c>
       <c r="R32" s="21">
-        <v>0.869638581025213</v>
+        <v>1.68146596092545</v>
       </c>
       <c r="S32" s="21">
-        <v>64.48999999999999</v>
+        <v>78.02</v>
       </c>
       <c r="T32" s="21">
-        <v>63.63</v>
+        <v>38.28</v>
       </c>
       <c r="U32" s="21">
-        <v>-1.88091033378028</v>
+        <v>0.954392934435308</v>
       </c>
       <c r="V32" s="21">
-        <v>18.65</v>
+        <v>65.91</v>
       </c>
       <c r="W32" s="21">
-        <v>58.16</v>
+        <v>40.76</v>
       </c>
       <c r="X32" s="21">
-        <v>-2.19612387068008</v>
+        <v>-0.0095697989875126</v>
       </c>
       <c r="Y32" s="21">
-        <v>13.4</v>
+        <v>49.84</v>
       </c>
       <c r="Z32" s="21">
-        <v>60.67</v>
+        <v>35.2</v>
       </c>
       <c r="AA32" s="21">
-        <v>41.21</v>
+        <v>53</v>
       </c>
       <c r="AB32" s="21">
-        <v>43.27</v>
+        <v>61.16</v>
       </c>
       <c r="AC32" s="21">
-        <v>-2.19612387068008</v>
+        <v>-0.0095697989875126</v>
       </c>
       <c r="AD32" s="21">
-        <v>13.4</v>
+        <v>49.84</v>
       </c>
       <c r="AE32" s="21">
-        <v>64.48999999999999</v>
+        <v>78.02</v>
       </c>
       <c r="AF32" s="21">
-        <v>18.65</v>
+        <v>65.91</v>
       </c>
       <c r="AG32" s="21">
-        <v>40.27</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s" s="18">
         <v>95</v>
@@ -5050,96 +5044,96 @@
         <v>2022</v>
       </c>
       <c r="E33" s="21">
-        <v>1.57</v>
+        <v>0.79</v>
       </c>
       <c r="F33" s="21">
-        <v>-0.888146015113094</v>
+        <v>1.1322242806237</v>
       </c>
       <c r="G33" s="21">
-        <v>35.2</v>
+        <v>68.87</v>
       </c>
       <c r="H33" s="21">
-        <v>4.94</v>
+        <v>3.38</v>
       </c>
       <c r="I33" s="21">
-        <v>0.180202755247624</v>
+        <v>1.26221959504683</v>
       </c>
       <c r="J33" s="21">
-        <v>53</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="K33" s="21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L33" s="21">
-        <v>0.669456112565981</v>
+        <v>0.286067149422468</v>
       </c>
       <c r="M33" s="21">
-        <v>61.16</v>
+        <v>54.77</v>
       </c>
       <c r="N33" s="21">
-        <v>93.47</v>
+        <v>95.23</v>
       </c>
       <c r="O33" s="21">
-        <v>0.28385143238122</v>
+        <v>1.24778772520234</v>
       </c>
       <c r="P33" s="21">
-        <v>54.73</v>
+        <v>70.8</v>
       </c>
       <c r="Q33" s="21">
-        <v>0.34</v>
+        <v>1.49</v>
       </c>
       <c r="R33" s="21">
-        <v>1.68146596092545</v>
+        <v>-1.33015173870447</v>
       </c>
       <c r="S33" s="21">
-        <v>78.02</v>
+        <v>27.83</v>
       </c>
       <c r="T33" s="21">
-        <v>38.28</v>
+        <v>56.91</v>
       </c>
       <c r="U33" s="21">
-        <v>0.954392934435308</v>
+        <v>-1.12930331356692</v>
       </c>
       <c r="V33" s="21">
-        <v>65.91</v>
+        <v>31.18</v>
       </c>
       <c r="W33" s="21">
-        <v>40.76</v>
+        <v>37.96</v>
       </c>
       <c r="X33" s="21">
-        <v>-0.0095697989875126</v>
+        <v>0.342289476917038</v>
       </c>
       <c r="Y33" s="21">
-        <v>49.84</v>
+        <v>55.7</v>
       </c>
       <c r="Z33" s="21">
-        <v>35.2</v>
+        <v>68.87</v>
       </c>
       <c r="AA33" s="21">
-        <v>53</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="AB33" s="21">
-        <v>61.16</v>
+        <v>54.77</v>
       </c>
       <c r="AC33" s="21">
-        <v>-0.0095697989875126</v>
+        <v>0.342289476917038</v>
       </c>
       <c r="AD33" s="21">
-        <v>49.84</v>
+        <v>55.7</v>
       </c>
       <c r="AE33" s="21">
-        <v>78.02</v>
+        <v>27.83</v>
       </c>
       <c r="AF33" s="21">
-        <v>65.91</v>
+        <v>31.18</v>
       </c>
       <c r="AG33" s="21">
-        <v>56.84</v>
+        <v>54.31</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="18">
         <v>97</v>
@@ -5151,96 +5145,96 @@
         <v>2022</v>
       </c>
       <c r="E34" s="21">
-        <v>0.79</v>
+        <v>1.39</v>
       </c>
       <c r="F34" s="21">
-        <v>1.1322242806237</v>
+        <v>-0.42190671609691</v>
       </c>
       <c r="G34" s="21">
-        <v>68.87</v>
+        <v>42.97</v>
       </c>
       <c r="H34" s="21">
-        <v>3.38</v>
+        <v>5.03</v>
       </c>
       <c r="I34" s="21">
-        <v>1.26221959504683</v>
+        <v>0.11777870679767</v>
       </c>
       <c r="J34" s="21">
-        <v>71.04000000000001</v>
+        <v>51.96</v>
       </c>
       <c r="K34" s="21">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="L34" s="21">
-        <v>0.286067149422468</v>
+        <v>-1.32416649578029</v>
       </c>
       <c r="M34" s="21">
-        <v>54.77</v>
+        <v>27.93</v>
       </c>
       <c r="N34" s="21">
-        <v>95.23</v>
+        <v>91.53</v>
       </c>
       <c r="O34" s="21">
-        <v>1.24778772520234</v>
+        <v>-0.778669254023872</v>
       </c>
       <c r="P34" s="21">
-        <v>70.8</v>
+        <v>37.02</v>
       </c>
       <c r="Q34" s="21">
-        <v>1.49</v>
+        <v>0.37</v>
       </c>
       <c r="R34" s="21">
-        <v>-1.33015173870447</v>
+        <v>1.60290202093511</v>
       </c>
       <c r="S34" s="21">
-        <v>27.83</v>
+        <v>76.72</v>
       </c>
       <c r="T34" s="21">
-        <v>56.91</v>
+        <v>47.65</v>
       </c>
       <c r="U34" s="21">
-        <v>-1.12930331356692</v>
+        <v>-0.09360673511814729</v>
       </c>
       <c r="V34" s="21">
-        <v>31.18</v>
+        <v>48.44</v>
       </c>
       <c r="W34" s="21">
-        <v>37.96</v>
+        <v>41.75</v>
       </c>
       <c r="X34" s="21">
-        <v>0.342289476917038</v>
+        <v>-0.133977185825194</v>
       </c>
       <c r="Y34" s="21">
-        <v>55.7</v>
+        <v>47.77</v>
       </c>
       <c r="Z34" s="21">
-        <v>68.87</v>
+        <v>42.97</v>
       </c>
       <c r="AA34" s="21">
-        <v>71.04000000000001</v>
+        <v>51.96</v>
       </c>
       <c r="AB34" s="21">
-        <v>54.77</v>
+        <v>27.93</v>
       </c>
       <c r="AC34" s="21">
-        <v>0.342289476917038</v>
+        <v>-0.133977185825194</v>
       </c>
       <c r="AD34" s="21">
-        <v>55.7</v>
+        <v>47.77</v>
       </c>
       <c r="AE34" s="21">
-        <v>27.83</v>
+        <v>76.72</v>
       </c>
       <c r="AF34" s="21">
-        <v>31.18</v>
+        <v>48.44</v>
       </c>
       <c r="AG34" s="21">
-        <v>54.31</v>
+        <v>47.54</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="18">
         <v>99</v>
@@ -5252,96 +5246,96 @@
         <v>2022</v>
       </c>
       <c r="E35" s="21">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="F35" s="21">
-        <v>-0.42190671609691</v>
+        <v>0.329256598984719</v>
       </c>
       <c r="G35" s="21">
-        <v>42.97</v>
+        <v>55.49</v>
       </c>
       <c r="H35" s="21">
-        <v>5.03</v>
+        <v>4.61</v>
       </c>
       <c r="I35" s="21">
-        <v>0.11777870679767</v>
+        <v>0.409090932897456</v>
       </c>
       <c r="J35" s="21">
-        <v>51.96</v>
+        <v>56.82</v>
       </c>
       <c r="K35" s="21">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="L35" s="21">
-        <v>-1.32416649578029</v>
+        <v>0.36274494205117</v>
       </c>
       <c r="M35" s="21">
-        <v>27.93</v>
+        <v>56.05</v>
       </c>
       <c r="N35" s="21">
-        <v>91.53</v>
+        <v>93.88</v>
       </c>
       <c r="O35" s="21">
-        <v>-0.778669254023872</v>
+        <v>0.508404773322501</v>
       </c>
       <c r="P35" s="21">
-        <v>37.02</v>
+        <v>58.47</v>
       </c>
       <c r="Q35" s="21">
-        <v>0.37</v>
+        <v>1.04</v>
       </c>
       <c r="R35" s="21">
-        <v>1.60290202093511</v>
+        <v>-0.151692638849284</v>
       </c>
       <c r="S35" s="21">
-        <v>76.72</v>
+        <v>47.47</v>
       </c>
       <c r="T35" s="21">
-        <v>47.65</v>
+        <v>43.57</v>
       </c>
       <c r="U35" s="21">
-        <v>-0.09360673511814729</v>
+        <v>0.362726098582824</v>
       </c>
       <c r="V35" s="21">
-        <v>48.44</v>
+        <v>56.05</v>
       </c>
       <c r="W35" s="21">
-        <v>41.75</v>
+        <v>33.58</v>
       </c>
       <c r="X35" s="21">
-        <v>-0.133977185825194</v>
+        <v>0.892697915653444</v>
       </c>
       <c r="Y35" s="21">
-        <v>47.77</v>
+        <v>64.88</v>
       </c>
       <c r="Z35" s="21">
-        <v>42.97</v>
+        <v>55.49</v>
       </c>
       <c r="AA35" s="21">
-        <v>51.96</v>
+        <v>56.82</v>
       </c>
       <c r="AB35" s="21">
-        <v>27.93</v>
+        <v>56.05</v>
       </c>
       <c r="AC35" s="21">
-        <v>-0.133977185825194</v>
+        <v>0.892697915653444</v>
       </c>
       <c r="AD35" s="21">
-        <v>47.77</v>
+        <v>64.88</v>
       </c>
       <c r="AE35" s="21">
-        <v>76.72</v>
+        <v>47.47</v>
       </c>
       <c r="AF35" s="21">
-        <v>48.44</v>
+        <v>56.05</v>
       </c>
       <c r="AG35" s="21">
-        <v>47.54</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="18">
         <v>101</v>
@@ -5353,96 +5347,96 @@
         <v>2022</v>
       </c>
       <c r="E36" s="21">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="F36" s="21">
-        <v>0.329256598984719</v>
+        <v>-1.74291806330943</v>
       </c>
       <c r="G36" s="21">
-        <v>55.49</v>
+        <v>20.95</v>
       </c>
       <c r="H36" s="21">
-        <v>4.61</v>
+        <v>10.08</v>
       </c>
       <c r="I36" s="21">
-        <v>0.409090932897456</v>
+        <v>-3</v>
       </c>
       <c r="J36" s="21">
-        <v>56.82</v>
+        <v>0</v>
       </c>
       <c r="K36" s="21">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="L36" s="21">
-        <v>0.36274494205117</v>
+        <v>-0.327355191607154</v>
       </c>
       <c r="M36" s="21">
-        <v>56.05</v>
+        <v>44.54</v>
       </c>
       <c r="N36" s="21">
-        <v>93.88</v>
+        <v>88.2</v>
       </c>
       <c r="O36" s="21">
-        <v>0.508404773322501</v>
+        <v>-2.60248053532746</v>
       </c>
       <c r="P36" s="21">
-        <v>58.47</v>
+        <v>6.63</v>
       </c>
       <c r="Q36" s="21">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="R36" s="21">
-        <v>-0.151692638849284</v>
+        <v>-0.0469407188621562</v>
       </c>
       <c r="S36" s="21">
-        <v>47.47</v>
+        <v>49.22</v>
       </c>
       <c r="T36" s="21">
-        <v>43.57</v>
+        <v>51.87</v>
       </c>
       <c r="U36" s="21">
-        <v>0.362726098582824</v>
+        <v>-0.565598048406897</v>
       </c>
       <c r="V36" s="21">
-        <v>56.05</v>
+        <v>40.57</v>
       </c>
       <c r="W36" s="21">
-        <v>33.58</v>
+        <v>36.25</v>
       </c>
       <c r="X36" s="21">
-        <v>0.892697915653444</v>
+        <v>0.557174963273032</v>
       </c>
       <c r="Y36" s="21">
-        <v>64.88</v>
+        <v>59.29</v>
       </c>
       <c r="Z36" s="21">
-        <v>55.49</v>
+        <v>20.95</v>
       </c>
       <c r="AA36" s="21">
-        <v>56.82</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="21">
-        <v>56.05</v>
+        <v>44.54</v>
       </c>
       <c r="AC36" s="21">
-        <v>0.892697915653444</v>
+        <v>0.557174963273032</v>
       </c>
       <c r="AD36" s="21">
-        <v>64.88</v>
+        <v>59.29</v>
       </c>
       <c r="AE36" s="21">
-        <v>47.47</v>
+        <v>49.22</v>
       </c>
       <c r="AF36" s="21">
-        <v>56.05</v>
+        <v>40.57</v>
       </c>
       <c r="AG36" s="21">
-        <v>56.46</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s" s="18">
         <v>103</v>
@@ -5454,96 +5448,96 @@
         <v>2022</v>
       </c>
       <c r="E37" s="21">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="F37" s="21">
-        <v>-1.74291806330943</v>
+        <v>-1.43209186396531</v>
       </c>
       <c r="G37" s="21">
-        <v>20.95</v>
+        <v>26.13</v>
       </c>
       <c r="H37" s="21">
-        <v>10.08</v>
+        <v>6.13</v>
       </c>
       <c r="I37" s="21">
-        <v>-3</v>
+        <v>-0.645181885368437</v>
       </c>
       <c r="J37" s="21">
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="K37" s="21">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="L37" s="21">
-        <v>-0.327355191607154</v>
+        <v>0.36274494205117</v>
       </c>
       <c r="M37" s="21">
-        <v>44.54</v>
+        <v>56.05</v>
       </c>
       <c r="N37" s="21">
-        <v>88.2</v>
+        <v>92.61</v>
       </c>
       <c r="O37" s="21">
-        <v>-2.60248053532746</v>
+        <v>-0.187162892520007</v>
       </c>
       <c r="P37" s="21">
-        <v>6.63</v>
+        <v>46.88</v>
       </c>
       <c r="Q37" s="21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="R37" s="21">
-        <v>-0.0469407188621562</v>
+        <v>0.0054352411314077</v>
       </c>
       <c r="S37" s="21">
-        <v>49.22</v>
+        <v>50.09</v>
       </c>
       <c r="T37" s="21">
-        <v>51.87</v>
+        <v>46.6</v>
       </c>
       <c r="U37" s="21">
-        <v>-0.565598048406897</v>
+        <v>0.0238318617901906</v>
       </c>
       <c r="V37" s="21">
-        <v>40.57</v>
+        <v>50.4</v>
       </c>
       <c r="W37" s="21">
-        <v>36.25</v>
+        <v>38.94</v>
       </c>
       <c r="X37" s="21">
-        <v>0.557174963273032</v>
+        <v>0.219138730350446</v>
       </c>
       <c r="Y37" s="21">
-        <v>59.29</v>
+        <v>53.65</v>
       </c>
       <c r="Z37" s="21">
-        <v>20.95</v>
+        <v>26.13</v>
       </c>
       <c r="AA37" s="21">
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="AB37" s="21">
-        <v>44.54</v>
+        <v>56.05</v>
       </c>
       <c r="AC37" s="21">
-        <v>0.557174963273032</v>
+        <v>0.219138730350446</v>
       </c>
       <c r="AD37" s="21">
-        <v>59.29</v>
+        <v>53.65</v>
       </c>
       <c r="AE37" s="21">
-        <v>49.22</v>
+        <v>50.09</v>
       </c>
       <c r="AF37" s="21">
-        <v>40.57</v>
+        <v>50.4</v>
       </c>
       <c r="AG37" s="21">
-        <v>31.6</v>
+        <v>46.06</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="18">
         <v>105</v>
@@ -5555,96 +5549,96 @@
         <v>2022</v>
       </c>
       <c r="E38" s="21">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="F38" s="21">
-        <v>-1.43209186396531</v>
+        <v>-0.370102349539556</v>
       </c>
       <c r="G38" s="21">
-        <v>26.13</v>
+        <v>43.83</v>
       </c>
       <c r="H38" s="21">
-        <v>6.13</v>
+        <v>5.36</v>
       </c>
       <c r="I38" s="21">
-        <v>-0.645181885368437</v>
+        <v>-0.111109470852163</v>
       </c>
       <c r="J38" s="21">
-        <v>39.25</v>
+        <v>48.15</v>
       </c>
       <c r="K38" s="21">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="L38" s="21">
-        <v>0.36274494205117</v>
+        <v>0.592778319937278</v>
       </c>
       <c r="M38" s="21">
-        <v>56.05</v>
+        <v>59.88</v>
       </c>
       <c r="N38" s="21">
-        <v>92.61</v>
+        <v>93.67</v>
       </c>
       <c r="O38" s="21">
-        <v>-0.187162892520007</v>
+        <v>0.393389647474531</v>
       </c>
       <c r="P38" s="21">
-        <v>46.88</v>
+        <v>56.56</v>
       </c>
       <c r="Q38" s="21">
-        <v>0.98</v>
+        <v>1.58</v>
       </c>
       <c r="R38" s="21">
-        <v>0.0054352411314077</v>
+        <v>-1.56584355867551</v>
       </c>
       <c r="S38" s="21">
-        <v>50.09</v>
+        <v>23.9</v>
       </c>
       <c r="T38" s="21">
-        <v>46.6</v>
+        <v>48.62</v>
       </c>
       <c r="U38" s="21">
-        <v>0.0238318617901906</v>
+        <v>-0.202097629404898</v>
       </c>
       <c r="V38" s="21">
-        <v>50.4</v>
+        <v>46.63</v>
       </c>
       <c r="W38" s="21">
-        <v>38.94</v>
+        <v>43.4</v>
       </c>
       <c r="X38" s="21">
-        <v>0.219138730350446</v>
+        <v>-0.341322830554661</v>
       </c>
       <c r="Y38" s="21">
-        <v>53.65</v>
+        <v>44.31</v>
       </c>
       <c r="Z38" s="21">
-        <v>26.13</v>
+        <v>43.83</v>
       </c>
       <c r="AA38" s="21">
-        <v>39.25</v>
+        <v>48.15</v>
       </c>
       <c r="AB38" s="21">
-        <v>56.05</v>
+        <v>59.88</v>
       </c>
       <c r="AC38" s="21">
-        <v>0.219138730350446</v>
+        <v>-0.341322830554661</v>
       </c>
       <c r="AD38" s="21">
-        <v>53.65</v>
+        <v>44.31</v>
       </c>
       <c r="AE38" s="21">
-        <v>50.09</v>
+        <v>23.9</v>
       </c>
       <c r="AF38" s="21">
-        <v>50.4</v>
+        <v>46.63</v>
       </c>
       <c r="AG38" s="21">
-        <v>46.06</v>
+        <v>46.18</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s" s="18">
         <v>107</v>
@@ -5656,96 +5650,96 @@
         <v>2022</v>
       </c>
       <c r="E39" s="21">
-        <v>1.37</v>
+        <v>0.79</v>
       </c>
       <c r="F39" s="21">
-        <v>-0.370102349539556</v>
+        <v>1.1322242806237</v>
       </c>
       <c r="G39" s="21">
-        <v>43.83</v>
+        <v>68.87</v>
       </c>
       <c r="H39" s="21">
-        <v>5.36</v>
+        <v>3.48</v>
       </c>
       <c r="I39" s="21">
-        <v>-0.111109470852163</v>
+        <v>1.19285954121355</v>
       </c>
       <c r="J39" s="21">
-        <v>48.15</v>
+        <v>69.88</v>
       </c>
       <c r="K39" s="21">
-        <v>0.21</v>
+        <v>0.57</v>
       </c>
       <c r="L39" s="21">
-        <v>0.592778319937278</v>
+        <v>-2.16762221469602</v>
       </c>
       <c r="M39" s="21">
-        <v>59.88</v>
+        <v>13.87</v>
       </c>
       <c r="N39" s="21">
-        <v>93.67</v>
+        <v>92.91</v>
       </c>
       <c r="O39" s="21">
-        <v>0.393389647474531</v>
+        <v>-0.0228555698800451</v>
       </c>
       <c r="P39" s="21">
-        <v>56.56</v>
+        <v>49.62</v>
       </c>
       <c r="Q39" s="21">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="R39" s="21">
-        <v>-1.56584355867551</v>
+        <v>-0.204068598842848</v>
       </c>
       <c r="S39" s="21">
-        <v>23.9</v>
+        <v>46.6</v>
       </c>
       <c r="T39" s="21">
-        <v>48.62</v>
+        <v>56.12</v>
       </c>
       <c r="U39" s="21">
-        <v>-0.202097629404898</v>
+        <v>-1.04094475017874</v>
       </c>
       <c r="V39" s="21">
-        <v>46.63</v>
+        <v>32.65</v>
       </c>
       <c r="W39" s="21">
-        <v>43.4</v>
+        <v>51.35</v>
       </c>
       <c r="X39" s="21">
-        <v>-0.341322830554661</v>
+        <v>-1.34035184606937</v>
       </c>
       <c r="Y39" s="21">
-        <v>44.31</v>
+        <v>27.66</v>
       </c>
       <c r="Z39" s="21">
-        <v>43.83</v>
+        <v>68.87</v>
       </c>
       <c r="AA39" s="21">
-        <v>48.15</v>
+        <v>69.88</v>
       </c>
       <c r="AB39" s="21">
-        <v>59.88</v>
+        <v>13.87</v>
       </c>
       <c r="AC39" s="21">
-        <v>-0.341322830554661</v>
+        <v>-1.34035184606937</v>
       </c>
       <c r="AD39" s="21">
-        <v>44.31</v>
+        <v>27.66</v>
       </c>
       <c r="AE39" s="21">
-        <v>23.9</v>
+        <v>46.6</v>
       </c>
       <c r="AF39" s="21">
-        <v>46.63</v>
+        <v>32.65</v>
       </c>
       <c r="AG39" s="21">
-        <v>46.18</v>
+        <v>44.16</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="17">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="18">
         <v>109</v>
@@ -5757,96 +5751,96 @@
         <v>2022</v>
       </c>
       <c r="E40" s="21">
-        <v>0.79</v>
+        <v>1.32</v>
       </c>
       <c r="F40" s="21">
-        <v>1.1322242806237</v>
+        <v>-0.240591433146172</v>
       </c>
       <c r="G40" s="21">
-        <v>68.87</v>
+        <v>45.99</v>
       </c>
       <c r="H40" s="21">
-        <v>3.48</v>
+        <v>6.38</v>
       </c>
       <c r="I40" s="21">
-        <v>1.19285954121355</v>
+        <v>-0.818582019951644</v>
       </c>
       <c r="J40" s="21">
-        <v>69.88</v>
+        <v>36.36</v>
       </c>
       <c r="K40" s="21">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="L40" s="21">
-        <v>-2.16762221469602</v>
+        <v>-0.09732181372104549</v>
       </c>
       <c r="M40" s="21">
-        <v>13.87</v>
+        <v>48.38</v>
       </c>
       <c r="N40" s="21">
-        <v>92.91</v>
+        <v>91.95</v>
       </c>
       <c r="O40" s="21">
-        <v>-0.0228555698800451</v>
+        <v>-0.548639002327923</v>
       </c>
       <c r="P40" s="21">
-        <v>49.62</v>
+        <v>40.86</v>
       </c>
       <c r="Q40" s="21">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="R40" s="21">
-        <v>-0.204068598842848</v>
+        <v>-0.544512338801014</v>
       </c>
       <c r="S40" s="21">
-        <v>46.6</v>
+        <v>40.92</v>
       </c>
       <c r="T40" s="21">
-        <v>56.12</v>
+        <v>47.1</v>
       </c>
       <c r="U40" s="21">
-        <v>-1.04094475017874</v>
+        <v>-0.0320912795947324</v>
       </c>
       <c r="V40" s="21">
-        <v>32.65</v>
+        <v>49.47</v>
       </c>
       <c r="W40" s="21">
-        <v>51.35</v>
+        <v>46.24</v>
       </c>
       <c r="X40" s="21">
-        <v>-1.34035184606937</v>
+        <v>-0.698208667543564</v>
       </c>
       <c r="Y40" s="21">
-        <v>27.66</v>
+        <v>38.36</v>
       </c>
       <c r="Z40" s="21">
-        <v>68.87</v>
+        <v>45.99</v>
       </c>
       <c r="AA40" s="21">
-        <v>69.88</v>
+        <v>36.36</v>
       </c>
       <c r="AB40" s="21">
-        <v>13.87</v>
+        <v>48.38</v>
       </c>
       <c r="AC40" s="21">
-        <v>-1.34035184606937</v>
+        <v>-0.698208667543564</v>
       </c>
       <c r="AD40" s="21">
-        <v>27.66</v>
+        <v>38.36</v>
       </c>
       <c r="AE40" s="21">
-        <v>46.6</v>
+        <v>40.92</v>
       </c>
       <c r="AF40" s="21">
-        <v>32.65</v>
+        <v>49.47</v>
       </c>
       <c r="AG40" s="21">
-        <v>44.16</v>
+        <v>42.91</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="17">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s" s="18">
         <v>111</v>
@@ -5858,96 +5852,96 @@
         <v>2022</v>
       </c>
       <c r="E41" s="21">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="F41" s="21">
-        <v>-0.240591433146172</v>
+        <v>-1.43209186396531</v>
       </c>
       <c r="G41" s="21">
-        <v>45.99</v>
+        <v>26.13</v>
       </c>
       <c r="H41" s="21">
-        <v>6.38</v>
+        <v>6.9</v>
       </c>
       <c r="I41" s="21">
-        <v>-0.818582019951644</v>
+        <v>-1.17925429988471</v>
       </c>
       <c r="J41" s="21">
-        <v>36.36</v>
+        <v>30.35</v>
       </c>
       <c r="K41" s="21">
-        <v>0.3</v>
+        <v>0.48</v>
       </c>
       <c r="L41" s="21">
-        <v>-0.09732181372104549</v>
+        <v>-1.47752208103769</v>
       </c>
       <c r="M41" s="21">
-        <v>48.38</v>
+        <v>25.37</v>
       </c>
       <c r="N41" s="21">
-        <v>91.95</v>
+        <v>90.16</v>
       </c>
       <c r="O41" s="21">
-        <v>-0.548639002327923</v>
+        <v>-1.52900602741304</v>
       </c>
       <c r="P41" s="21">
-        <v>40.86</v>
+        <v>24.52</v>
       </c>
       <c r="Q41" s="21">
-        <v>1.19</v>
+        <v>0.74</v>
       </c>
       <c r="R41" s="21">
-        <v>-0.544512338801014</v>
+        <v>0.633946761054176</v>
       </c>
       <c r="S41" s="21">
-        <v>40.92</v>
+        <v>60.57</v>
       </c>
       <c r="T41" s="21">
-        <v>47.1</v>
+        <v>45</v>
       </c>
       <c r="U41" s="21">
-        <v>-0.0320912795947324</v>
+        <v>0.202785914221944</v>
       </c>
       <c r="V41" s="21">
-        <v>49.47</v>
+        <v>53.38</v>
       </c>
       <c r="W41" s="21">
-        <v>46.24</v>
+        <v>42.3</v>
       </c>
       <c r="X41" s="21">
-        <v>-0.698208667543564</v>
+        <v>-0.203092400735016</v>
       </c>
       <c r="Y41" s="21">
-        <v>38.36</v>
+        <v>46.62</v>
       </c>
       <c r="Z41" s="21">
-        <v>45.99</v>
+        <v>26.13</v>
       </c>
       <c r="AA41" s="21">
-        <v>36.36</v>
+        <v>30.35</v>
       </c>
       <c r="AB41" s="21">
-        <v>48.38</v>
+        <v>25.37</v>
       </c>
       <c r="AC41" s="21">
-        <v>-0.698208667543564</v>
+        <v>-0.203092400735016</v>
       </c>
       <c r="AD41" s="21">
-        <v>38.36</v>
+        <v>46.62</v>
       </c>
       <c r="AE41" s="21">
-        <v>40.92</v>
+        <v>60.57</v>
       </c>
       <c r="AF41" s="21">
-        <v>49.47</v>
+        <v>53.38</v>
       </c>
       <c r="AG41" s="21">
-        <v>42.91</v>
+        <v>38.13</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="18">
         <v>113</v>
@@ -5959,96 +5953,96 @@
         <v>2022</v>
       </c>
       <c r="E42" s="21">
-        <v>1.78</v>
+        <v>0.91</v>
       </c>
       <c r="F42" s="21">
-        <v>-1.43209186396531</v>
+        <v>0.82139808127958</v>
       </c>
       <c r="G42" s="21">
-        <v>26.13</v>
+        <v>63.69</v>
       </c>
       <c r="H42" s="21">
-        <v>6.9</v>
+        <v>4.02</v>
       </c>
       <c r="I42" s="21">
-        <v>-1.17925429988471</v>
+        <v>0.818315250513823</v>
       </c>
       <c r="J42" s="21">
-        <v>30.35</v>
+        <v>63.64</v>
       </c>
       <c r="K42" s="21">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="L42" s="21">
-        <v>-1.47752208103769</v>
+        <v>0.516100527308576</v>
       </c>
       <c r="M42" s="21">
-        <v>25.37</v>
+        <v>58.6</v>
       </c>
       <c r="N42" s="21">
-        <v>90.16</v>
+        <v>94.67</v>
       </c>
       <c r="O42" s="21">
-        <v>-1.52900602741304</v>
+        <v>0.941080722941074</v>
       </c>
       <c r="P42" s="21">
-        <v>24.52</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="Q42" s="21">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R42" s="21">
-        <v>0.633946761054176</v>
+        <v>0.450630901076701</v>
       </c>
       <c r="S42" s="21">
-        <v>60.57</v>
+        <v>57.51</v>
       </c>
       <c r="T42" s="21">
-        <v>45</v>
+        <v>37.1</v>
       </c>
       <c r="U42" s="21">
-        <v>0.202785914221944</v>
+        <v>1.08637154810373</v>
       </c>
       <c r="V42" s="21">
-        <v>53.38</v>
+        <v>68.11</v>
       </c>
       <c r="W42" s="21">
-        <v>42.3</v>
+        <v>31.44</v>
       </c>
       <c r="X42" s="21">
-        <v>-0.203092400735016</v>
+        <v>1.16161893366621</v>
       </c>
       <c r="Y42" s="21">
-        <v>46.62</v>
+        <v>69.36</v>
       </c>
       <c r="Z42" s="21">
-        <v>26.13</v>
+        <v>63.69</v>
       </c>
       <c r="AA42" s="21">
-        <v>30.35</v>
+        <v>63.64</v>
       </c>
       <c r="AB42" s="21">
-        <v>25.37</v>
+        <v>58.6</v>
       </c>
       <c r="AC42" s="21">
-        <v>-0.203092400735016</v>
+        <v>1.16161893366621</v>
       </c>
       <c r="AD42" s="21">
-        <v>46.62</v>
+        <v>69.36</v>
       </c>
       <c r="AE42" s="21">
-        <v>60.57</v>
+        <v>57.51</v>
       </c>
       <c r="AF42" s="21">
-        <v>53.38</v>
+        <v>68.11</v>
       </c>
       <c r="AG42" s="21">
-        <v>38.13</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="18">
         <v>115</v>
@@ -6060,96 +6054,96 @@
         <v>2022</v>
       </c>
       <c r="E43" s="21">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="F43" s="21">
-        <v>0.82139808127958</v>
+        <v>-0.577319815768971</v>
       </c>
       <c r="G43" s="21">
-        <v>63.69</v>
+        <v>40.38</v>
       </c>
       <c r="H43" s="21">
-        <v>4.02</v>
+        <v>9.84</v>
       </c>
       <c r="I43" s="21">
-        <v>0.818315250513823</v>
+        <v>-3</v>
       </c>
       <c r="J43" s="21">
-        <v>63.64</v>
+        <v>0</v>
       </c>
       <c r="K43" s="21">
-        <v>0.22</v>
+        <v>0.49</v>
       </c>
       <c r="L43" s="21">
-        <v>0.516100527308576</v>
+        <v>-1.5541998736664</v>
       </c>
       <c r="M43" s="21">
-        <v>58.6</v>
+        <v>24.1</v>
       </c>
       <c r="N43" s="21">
-        <v>94.67</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="O43" s="21">
-        <v>0.941080722941074</v>
+        <v>-3</v>
       </c>
       <c r="P43" s="21">
-        <v>65.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="21">
-        <v>0.8100000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="R43" s="21">
-        <v>0.450630901076701</v>
+        <v>-1.38252769869804</v>
       </c>
       <c r="S43" s="21">
-        <v>57.51</v>
+        <v>26.96</v>
       </c>
       <c r="T43" s="21">
-        <v>37.1</v>
+        <v>50.3</v>
       </c>
       <c r="U43" s="21">
-        <v>1.08637154810373</v>
+        <v>-0.389999384458239</v>
       </c>
       <c r="V43" s="21">
-        <v>68.11</v>
+        <v>43.5</v>
       </c>
       <c r="W43" s="21">
-        <v>31.44</v>
+        <v>45.59</v>
       </c>
       <c r="X43" s="21">
-        <v>1.16161893366621</v>
+        <v>-0.616527049922865</v>
       </c>
       <c r="Y43" s="21">
-        <v>69.36</v>
+        <v>39.72</v>
       </c>
       <c r="Z43" s="21">
-        <v>63.69</v>
+        <v>40.38</v>
       </c>
       <c r="AA43" s="21">
-        <v>63.64</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="21">
-        <v>58.6</v>
+        <v>24.1</v>
       </c>
       <c r="AC43" s="21">
-        <v>1.16161893366621</v>
+        <v>-0.616527049922865</v>
       </c>
       <c r="AD43" s="21">
-        <v>69.36</v>
+        <v>39.72</v>
       </c>
       <c r="AE43" s="21">
-        <v>57.51</v>
+        <v>26.96</v>
       </c>
       <c r="AF43" s="21">
-        <v>68.11</v>
+        <v>43.5</v>
       </c>
       <c r="AG43" s="21">
-        <v>63.8</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s" s="18">
         <v>117</v>
@@ -6161,96 +6155,96 @@
         <v>2022</v>
       </c>
       <c r="E44" s="21">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="F44" s="21">
-        <v>-0.577319815768971</v>
+        <v>0.458767515378104</v>
       </c>
       <c r="G44" s="21">
-        <v>40.38</v>
+        <v>57.65</v>
       </c>
       <c r="H44" s="21">
-        <v>9.84</v>
+        <v>4.35</v>
       </c>
       <c r="I44" s="21">
-        <v>-3</v>
+        <v>0.589427072863991</v>
       </c>
       <c r="J44" s="21">
-        <v>0</v>
+        <v>59.82</v>
       </c>
       <c r="K44" s="21">
-        <v>0.49</v>
+        <v>0.21</v>
       </c>
       <c r="L44" s="21">
-        <v>-1.5541998736664</v>
+        <v>0.592778319937278</v>
       </c>
       <c r="M44" s="21">
-        <v>24.1</v>
+        <v>59.88</v>
       </c>
       <c r="N44" s="21">
-        <v>87.26000000000001</v>
+        <v>94.52</v>
       </c>
       <c r="O44" s="21">
-        <v>-3</v>
+        <v>0.858927061621089</v>
       </c>
       <c r="P44" s="21">
-        <v>0</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="Q44" s="21">
-        <v>1.51</v>
+        <v>1.12</v>
       </c>
       <c r="R44" s="21">
-        <v>-1.38252769869804</v>
+        <v>-0.36119647882354</v>
       </c>
       <c r="S44" s="21">
-        <v>26.96</v>
+        <v>43.98</v>
       </c>
       <c r="T44" s="21">
-        <v>50.3</v>
+        <v>38.36</v>
       </c>
       <c r="U44" s="21">
-        <v>-0.389999384458239</v>
+        <v>0.945445231813721</v>
       </c>
       <c r="V44" s="21">
-        <v>43.5</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="W44" s="21">
-        <v>45.59</v>
+        <v>37.27</v>
       </c>
       <c r="X44" s="21">
-        <v>-0.616527049922865</v>
+        <v>0.428997655622088</v>
       </c>
       <c r="Y44" s="21">
-        <v>39.72</v>
+        <v>57.15</v>
       </c>
       <c r="Z44" s="21">
-        <v>40.38</v>
+        <v>57.65</v>
       </c>
       <c r="AA44" s="21">
-        <v>0</v>
+        <v>59.82</v>
       </c>
       <c r="AB44" s="21">
-        <v>24.1</v>
+        <v>59.88</v>
       </c>
       <c r="AC44" s="21">
-        <v>-0.616527049922865</v>
+        <v>0.428997655622088</v>
       </c>
       <c r="AD44" s="21">
-        <v>39.72</v>
+        <v>57.15</v>
       </c>
       <c r="AE44" s="21">
-        <v>26.96</v>
+        <v>43.98</v>
       </c>
       <c r="AF44" s="21">
-        <v>43.5</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="AG44" s="21">
-        <v>24.95</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="17">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="18">
         <v>119</v>
@@ -6271,87 +6265,87 @@
         <v>57.65</v>
       </c>
       <c r="H45" s="21">
-        <v>4.35</v>
+        <v>5.19</v>
       </c>
       <c r="I45" s="21">
-        <v>0.589427072863991</v>
+        <v>0.0068026206644175</v>
       </c>
       <c r="J45" s="21">
-        <v>59.82</v>
+        <v>50.11</v>
       </c>
       <c r="K45" s="21">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="L45" s="21">
-        <v>0.592778319937278</v>
+        <v>1.1295228683382</v>
       </c>
       <c r="M45" s="21">
-        <v>59.88</v>
+        <v>68.83</v>
       </c>
       <c r="N45" s="21">
-        <v>94.52</v>
+        <v>93.92</v>
       </c>
       <c r="O45" s="21">
-        <v>0.858927061621089</v>
+        <v>0.530312416341166</v>
       </c>
       <c r="P45" s="21">
-        <v>64.31999999999999</v>
+        <v>58.84</v>
       </c>
       <c r="Q45" s="21">
-        <v>1.12</v>
+        <v>2.01</v>
       </c>
       <c r="R45" s="21">
-        <v>-0.36119647882354</v>
+        <v>-2.69192669853714</v>
       </c>
       <c r="S45" s="21">
-        <v>43.98</v>
+        <v>5.13</v>
       </c>
       <c r="T45" s="21">
-        <v>38.36</v>
+        <v>41.64</v>
       </c>
       <c r="U45" s="21">
-        <v>0.945445231813721</v>
+        <v>0.578589424328626</v>
       </c>
       <c r="V45" s="21">
-        <v>65.76000000000001</v>
+        <v>59.64</v>
       </c>
       <c r="W45" s="21">
-        <v>37.27</v>
+        <v>37.23</v>
       </c>
       <c r="X45" s="21">
-        <v>0.428997655622088</v>
+        <v>0.43402421670644</v>
       </c>
       <c r="Y45" s="21">
-        <v>57.15</v>
+        <v>57.23</v>
       </c>
       <c r="Z45" s="21">
         <v>57.65</v>
       </c>
       <c r="AA45" s="21">
-        <v>59.82</v>
+        <v>50.11</v>
       </c>
       <c r="AB45" s="21">
-        <v>59.88</v>
+        <v>68.83</v>
       </c>
       <c r="AC45" s="21">
-        <v>0.428997655622088</v>
+        <v>0.43402421670644</v>
       </c>
       <c r="AD45" s="21">
-        <v>57.15</v>
+        <v>57.23</v>
       </c>
       <c r="AE45" s="21">
-        <v>43.98</v>
+        <v>5.13</v>
       </c>
       <c r="AF45" s="21">
-        <v>65.76000000000001</v>
+        <v>59.64</v>
       </c>
       <c r="AG45" s="21">
-        <v>58.37</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="17">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s" s="18">
         <v>121</v>
@@ -6363,96 +6357,96 @@
         <v>2022</v>
       </c>
       <c r="E46" s="21">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="F46" s="21">
-        <v>0.458767515378104</v>
+        <v>-0.318297982982203</v>
       </c>
       <c r="G46" s="21">
-        <v>57.65</v>
+        <v>44.7</v>
       </c>
       <c r="H46" s="21">
-        <v>5.19</v>
+        <v>3.49</v>
       </c>
       <c r="I46" s="21">
-        <v>0.0068026206644175</v>
+        <v>1.18592353583022</v>
       </c>
       <c r="J46" s="21">
-        <v>50.11</v>
+        <v>69.77</v>
       </c>
       <c r="K46" s="21">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="L46" s="21">
-        <v>1.1295228683382</v>
+        <v>0.746133905194683</v>
       </c>
       <c r="M46" s="21">
-        <v>68.83</v>
+        <v>62.44</v>
       </c>
       <c r="N46" s="21">
-        <v>93.92</v>
+        <v>94.75</v>
       </c>
       <c r="O46" s="21">
-        <v>0.530312416341166</v>
+        <v>0.984896008978396</v>
       </c>
       <c r="P46" s="21">
-        <v>58.84</v>
+        <v>66.41</v>
       </c>
       <c r="Q46" s="21">
-        <v>2.01</v>
+        <v>0.98</v>
       </c>
       <c r="R46" s="21">
-        <v>-2.69192669853714</v>
+        <v>0.0054352411314077</v>
       </c>
       <c r="S46" s="21">
-        <v>5.13</v>
+        <v>50.09</v>
       </c>
       <c r="T46" s="21">
-        <v>41.64</v>
+        <v>60.8</v>
       </c>
       <c r="U46" s="21">
-        <v>0.578589424328626</v>
+        <v>-1.56438535354162</v>
       </c>
       <c r="V46" s="21">
-        <v>59.64</v>
+        <v>23.93</v>
       </c>
       <c r="W46" s="21">
-        <v>37.23</v>
+        <v>42.51</v>
       </c>
       <c r="X46" s="21">
-        <v>0.43402421670644</v>
+        <v>-0.229481846427857</v>
       </c>
       <c r="Y46" s="21">
-        <v>57.23</v>
+        <v>46.18</v>
       </c>
       <c r="Z46" s="21">
-        <v>57.65</v>
+        <v>44.7</v>
       </c>
       <c r="AA46" s="21">
-        <v>50.11</v>
+        <v>69.77</v>
       </c>
       <c r="AB46" s="21">
-        <v>68.83</v>
+        <v>62.44</v>
       </c>
       <c r="AC46" s="21">
-        <v>0.43402421670644</v>
+        <v>-0.229481846427857</v>
       </c>
       <c r="AD46" s="21">
-        <v>57.23</v>
+        <v>46.18</v>
       </c>
       <c r="AE46" s="21">
-        <v>5.13</v>
+        <v>50.09</v>
       </c>
       <c r="AF46" s="21">
-        <v>59.64</v>
+        <v>23.93</v>
       </c>
       <c r="AG46" s="21">
-        <v>51.06</v>
+        <v>51.93</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s" s="18">
         <v>123</v>
@@ -6464,96 +6458,96 @@
         <v>2022</v>
       </c>
       <c r="E47" s="21">
-        <v>1.35</v>
+        <v>0.66</v>
       </c>
       <c r="F47" s="21">
-        <v>-0.318297982982203</v>
+        <v>1.4689526632465</v>
       </c>
       <c r="G47" s="21">
-        <v>44.7</v>
+        <v>74.48</v>
       </c>
       <c r="H47" s="21">
-        <v>3.49</v>
+        <v>4.35</v>
       </c>
       <c r="I47" s="21">
-        <v>1.18592353583022</v>
+        <v>0.589427072863991</v>
       </c>
       <c r="J47" s="21">
-        <v>69.77</v>
+        <v>59.82</v>
       </c>
       <c r="K47" s="21">
-        <v>0.19</v>
+        <v>0.61</v>
       </c>
       <c r="L47" s="21">
-        <v>0.746133905194683</v>
+        <v>-2.47433338521083</v>
       </c>
       <c r="M47" s="21">
-        <v>62.44</v>
+        <v>8.76</v>
       </c>
       <c r="N47" s="21">
-        <v>94.75</v>
+        <v>91.77</v>
       </c>
       <c r="O47" s="21">
-        <v>0.984896008978396</v>
+        <v>-0.647223395911905</v>
       </c>
       <c r="P47" s="21">
-        <v>66.41</v>
+        <v>39.21</v>
       </c>
       <c r="Q47" s="21">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="R47" s="21">
-        <v>0.0054352411314077</v>
+        <v>1.52433808094476</v>
       </c>
       <c r="S47" s="21">
-        <v>50.09</v>
+        <v>75.41</v>
       </c>
       <c r="T47" s="21">
-        <v>60.8</v>
+        <v>60.2</v>
       </c>
       <c r="U47" s="21">
-        <v>-1.56438535354162</v>
+        <v>-1.49727758387971</v>
       </c>
       <c r="V47" s="21">
-        <v>23.93</v>
+        <v>25.05</v>
       </c>
       <c r="W47" s="21">
-        <v>42.51</v>
+        <v>49.13</v>
       </c>
       <c r="X47" s="21">
-        <v>-0.229481846427857</v>
+        <v>-1.0613777058879</v>
       </c>
       <c r="Y47" s="21">
-        <v>46.18</v>
+        <v>32.31</v>
       </c>
       <c r="Z47" s="21">
-        <v>44.7</v>
+        <v>74.48</v>
       </c>
       <c r="AA47" s="21">
-        <v>69.77</v>
+        <v>59.82</v>
       </c>
       <c r="AB47" s="21">
-        <v>62.44</v>
+        <v>8.76</v>
       </c>
       <c r="AC47" s="21">
-        <v>-0.229481846427857</v>
+        <v>-1.0613777058879</v>
       </c>
       <c r="AD47" s="21">
-        <v>46.18</v>
+        <v>32.31</v>
       </c>
       <c r="AE47" s="21">
-        <v>50.09</v>
+        <v>75.41</v>
       </c>
       <c r="AF47" s="21">
-        <v>23.93</v>
+        <v>25.05</v>
       </c>
       <c r="AG47" s="21">
-        <v>51.93</v>
+        <v>45.01</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s" s="18">
         <v>125</v>
@@ -6565,96 +6559,96 @@
         <v>2022</v>
       </c>
       <c r="E48" s="21">
-        <v>0.66</v>
+        <v>1.13</v>
       </c>
       <c r="F48" s="21">
-        <v>1.4689526632465</v>
+        <v>0.251550049148689</v>
       </c>
       <c r="G48" s="21">
-        <v>74.48</v>
+        <v>54.19</v>
       </c>
       <c r="H48" s="21">
-        <v>4.35</v>
+        <v>4.81</v>
       </c>
       <c r="I48" s="21">
-        <v>0.589427072863991</v>
+        <v>0.270370825230891</v>
       </c>
       <c r="J48" s="21">
-        <v>59.82</v>
+        <v>54.51</v>
       </c>
       <c r="K48" s="21">
-        <v>0.61</v>
+        <v>0.21</v>
       </c>
       <c r="L48" s="21">
-        <v>-2.47433338521083</v>
+        <v>0.592778319937278</v>
       </c>
       <c r="M48" s="21">
-        <v>8.76</v>
+        <v>59.88</v>
       </c>
       <c r="N48" s="21">
-        <v>91.77</v>
+        <v>93.73</v>
       </c>
       <c r="O48" s="21">
-        <v>-0.647223395911905</v>
+        <v>0.426251112002524</v>
       </c>
       <c r="P48" s="21">
-        <v>39.21</v>
+        <v>57.1</v>
       </c>
       <c r="Q48" s="21">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="R48" s="21">
-        <v>1.52433808094476</v>
+        <v>-0.544512338801014</v>
       </c>
       <c r="S48" s="21">
-        <v>75.41</v>
+        <v>40.92</v>
       </c>
       <c r="T48" s="21">
-        <v>60.2</v>
+        <v>43.37</v>
       </c>
       <c r="U48" s="21">
-        <v>-1.49727758387971</v>
+        <v>0.385095355136793</v>
       </c>
       <c r="V48" s="21">
-        <v>25.05</v>
+        <v>56.42</v>
       </c>
       <c r="W48" s="21">
-        <v>49.13</v>
+        <v>34.51</v>
       </c>
       <c r="X48" s="21">
-        <v>-1.0613777058879</v>
+        <v>0.77583037044229</v>
       </c>
       <c r="Y48" s="21">
-        <v>32.31</v>
+        <v>62.93</v>
       </c>
       <c r="Z48" s="21">
-        <v>74.48</v>
+        <v>54.19</v>
       </c>
       <c r="AA48" s="21">
-        <v>59.82</v>
+        <v>54.51</v>
       </c>
       <c r="AB48" s="21">
-        <v>8.76</v>
+        <v>59.88</v>
       </c>
       <c r="AC48" s="21">
-        <v>-1.0613777058879</v>
+        <v>0.77583037044229</v>
       </c>
       <c r="AD48" s="21">
-        <v>32.31</v>
+        <v>62.93</v>
       </c>
       <c r="AE48" s="21">
-        <v>75.41</v>
+        <v>40.92</v>
       </c>
       <c r="AF48" s="21">
-        <v>25.05</v>
+        <v>56.42</v>
       </c>
       <c r="AG48" s="21">
-        <v>45.01</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="17">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s" s="18">
         <v>127</v>
@@ -6666,96 +6660,96 @@
         <v>2022</v>
       </c>
       <c r="E49" s="21">
-        <v>1.13</v>
+        <v>0.66</v>
       </c>
       <c r="F49" s="21">
-        <v>0.251550049148689</v>
+        <v>1.4689526632465</v>
       </c>
       <c r="G49" s="21">
-        <v>54.19</v>
+        <v>74.48</v>
       </c>
       <c r="H49" s="21">
-        <v>4.81</v>
+        <v>3.3</v>
       </c>
       <c r="I49" s="21">
-        <v>0.270370825230891</v>
+        <v>1.31770763811346</v>
       </c>
       <c r="J49" s="21">
-        <v>54.51</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="K49" s="21">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="L49" s="21">
-        <v>0.592778319937278</v>
+        <v>-0.864099740008072</v>
       </c>
       <c r="M49" s="21">
-        <v>59.88</v>
+        <v>35.6</v>
       </c>
       <c r="N49" s="21">
-        <v>93.73</v>
+        <v>93.78</v>
       </c>
       <c r="O49" s="21">
-        <v>0.426251112002524</v>
+        <v>0.45363566577585</v>
       </c>
       <c r="P49" s="21">
-        <v>57.1</v>
+        <v>57.56</v>
       </c>
       <c r="Q49" s="21">
-        <v>1.19</v>
+        <v>0.61</v>
       </c>
       <c r="R49" s="21">
-        <v>-0.544512338801014</v>
+        <v>0.974390501012341</v>
       </c>
       <c r="S49" s="21">
-        <v>40.92</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="T49" s="21">
-        <v>43.37</v>
+        <v>56.26</v>
       </c>
       <c r="U49" s="21">
-        <v>0.385095355136793</v>
+        <v>-1.05660322976652</v>
       </c>
       <c r="V49" s="21">
-        <v>56.42</v>
+        <v>32.39</v>
       </c>
       <c r="W49" s="21">
-        <v>34.51</v>
+        <v>48.5</v>
       </c>
       <c r="X49" s="21">
-        <v>0.77583037044229</v>
+        <v>-0.98220936880938</v>
       </c>
       <c r="Y49" s="21">
-        <v>62.93</v>
+        <v>33.63</v>
       </c>
       <c r="Z49" s="21">
-        <v>54.19</v>
+        <v>74.48</v>
       </c>
       <c r="AA49" s="21">
-        <v>54.51</v>
+        <v>71.95999999999999</v>
       </c>
       <c r="AB49" s="21">
-        <v>59.88</v>
+        <v>35.6</v>
       </c>
       <c r="AC49" s="21">
-        <v>0.77583037044229</v>
+        <v>-0.98220936880938</v>
       </c>
       <c r="AD49" s="21">
-        <v>62.93</v>
+        <v>33.63</v>
       </c>
       <c r="AE49" s="21">
-        <v>40.92</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="AF49" s="21">
-        <v>56.42</v>
+        <v>32.39</v>
       </c>
       <c r="AG49" s="21">
-        <v>55.14</v>
+        <v>53.12</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="18">
         <v>129</v>
@@ -6767,96 +6761,96 @@
         <v>2022</v>
       </c>
       <c r="E50" s="21">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="F50" s="21">
-        <v>1.4689526632465</v>
+        <v>1.028615547509</v>
       </c>
       <c r="G50" s="21">
-        <v>74.48</v>
+        <v>67.14</v>
       </c>
       <c r="H50" s="21">
-        <v>3.3</v>
+        <v>4.89</v>
       </c>
       <c r="I50" s="21">
-        <v>1.31770763811346</v>
+        <v>0.214882782164265</v>
       </c>
       <c r="J50" s="21">
-        <v>71.95999999999999</v>
+        <v>53.58</v>
       </c>
       <c r="K50" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="L50" s="21">
-        <v>-0.864099740008072</v>
+        <v>0.822811697823386</v>
       </c>
       <c r="M50" s="21">
-        <v>35.6</v>
+        <v>63.71</v>
       </c>
       <c r="N50" s="21">
-        <v>93.78</v>
+        <v>94.41</v>
       </c>
       <c r="O50" s="21">
-        <v>0.45363566577585</v>
+        <v>0.79868104331977</v>
       </c>
       <c r="P50" s="21">
-        <v>57.56</v>
+        <v>63.31</v>
       </c>
       <c r="Q50" s="21">
-        <v>0.61</v>
+        <v>1.59</v>
       </c>
       <c r="R50" s="21">
-        <v>0.974390501012341</v>
+        <v>-1.59203153867229</v>
       </c>
       <c r="S50" s="21">
-        <v>66.23999999999999</v>
+        <v>23.47</v>
       </c>
       <c r="T50" s="21">
-        <v>56.26</v>
+        <v>46.25</v>
       </c>
       <c r="U50" s="21">
-        <v>-1.05660322976652</v>
+        <v>0.0629780607596368</v>
       </c>
       <c r="V50" s="21">
-        <v>32.39</v>
+        <v>51.05</v>
       </c>
       <c r="W50" s="21">
-        <v>48.5</v>
+        <v>37.89</v>
       </c>
       <c r="X50" s="21">
-        <v>-0.98220936880938</v>
+        <v>0.351085958814652</v>
       </c>
       <c r="Y50" s="21">
-        <v>33.63</v>
+        <v>55.85</v>
       </c>
       <c r="Z50" s="21">
-        <v>74.48</v>
+        <v>67.14</v>
       </c>
       <c r="AA50" s="21">
-        <v>71.95999999999999</v>
+        <v>53.58</v>
       </c>
       <c r="AB50" s="21">
-        <v>35.6</v>
+        <v>63.71</v>
       </c>
       <c r="AC50" s="21">
-        <v>-0.98220936880938</v>
+        <v>0.351085958814652</v>
       </c>
       <c r="AD50" s="21">
-        <v>33.63</v>
+        <v>55.85</v>
       </c>
       <c r="AE50" s="21">
-        <v>66.23999999999999</v>
+        <v>23.47</v>
       </c>
       <c r="AF50" s="21">
-        <v>32.39</v>
+        <v>51.05</v>
       </c>
       <c r="AG50" s="21">
-        <v>53.12</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s" s="18">
         <v>131</v>
@@ -6877,87 +6871,87 @@
         <v>67.14</v>
       </c>
       <c r="H51" s="21">
-        <v>4.89</v>
+        <v>5.2</v>
       </c>
       <c r="I51" s="21">
-        <v>0.214882782164265</v>
+        <v>-0.0001333847189105</v>
       </c>
       <c r="J51" s="21">
-        <v>53.58</v>
+        <v>50</v>
       </c>
       <c r="K51" s="21">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="L51" s="21">
-        <v>0.822811697823386</v>
+        <v>-0.173999606349748</v>
       </c>
       <c r="M51" s="21">
-        <v>63.71</v>
+        <v>47.1</v>
       </c>
       <c r="N51" s="21">
-        <v>94.41</v>
+        <v>92.53</v>
       </c>
       <c r="O51" s="21">
-        <v>0.79868104331977</v>
+        <v>-0.230978178557329</v>
       </c>
       <c r="P51" s="21">
-        <v>63.31</v>
+        <v>46.15</v>
       </c>
       <c r="Q51" s="21">
-        <v>1.59</v>
+        <v>0.88</v>
       </c>
       <c r="R51" s="21">
-        <v>-1.59203153867229</v>
+        <v>0.267315041099228</v>
       </c>
       <c r="S51" s="21">
-        <v>23.47</v>
+        <v>54.46</v>
       </c>
       <c r="T51" s="21">
-        <v>46.25</v>
+        <v>52.08</v>
       </c>
       <c r="U51" s="21">
-        <v>0.0629780607596368</v>
+        <v>-0.589085767788565</v>
       </c>
       <c r="V51" s="21">
-        <v>51.05</v>
+        <v>40.18</v>
       </c>
       <c r="W51" s="21">
-        <v>37.89</v>
+        <v>47</v>
       </c>
       <c r="X51" s="21">
-        <v>0.351085958814652</v>
+        <v>-0.793713328146228</v>
       </c>
       <c r="Y51" s="21">
-        <v>55.85</v>
+        <v>36.77</v>
       </c>
       <c r="Z51" s="21">
         <v>67.14</v>
       </c>
       <c r="AA51" s="21">
-        <v>53.58</v>
+        <v>50</v>
       </c>
       <c r="AB51" s="21">
-        <v>63.71</v>
+        <v>47.1</v>
       </c>
       <c r="AC51" s="21">
-        <v>0.351085958814652</v>
+        <v>-0.793713328146228</v>
       </c>
       <c r="AD51" s="21">
-        <v>55.85</v>
+        <v>36.77</v>
       </c>
       <c r="AE51" s="21">
-        <v>23.47</v>
+        <v>54.46</v>
       </c>
       <c r="AF51" s="21">
-        <v>51.05</v>
+        <v>40.18</v>
       </c>
       <c r="AG51" s="21">
-        <v>54.02</v>
+        <v>48.83</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="17">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s" s="18">
         <v>133</v>
@@ -6969,191 +6963,90 @@
         <v>2022</v>
       </c>
       <c r="E52" s="21">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="F52" s="21">
-        <v>1.028615547509</v>
+        <v>1.54665921308253</v>
       </c>
       <c r="G52" s="21">
-        <v>67.14</v>
+        <v>75.78</v>
       </c>
       <c r="H52" s="21">
-        <v>5.2</v>
+        <v>4.74</v>
       </c>
       <c r="I52" s="21">
-        <v>-0.0001333847189105</v>
+        <v>0.318922862914189</v>
       </c>
       <c r="J52" s="21">
-        <v>50</v>
+        <v>55.32</v>
       </c>
       <c r="K52" s="21">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="L52" s="21">
-        <v>-0.173999606349748</v>
+        <v>1.1295228683382</v>
       </c>
       <c r="M52" s="21">
-        <v>47.1</v>
+        <v>68.83</v>
       </c>
       <c r="N52" s="21">
-        <v>92.53</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="O52" s="21">
-        <v>-0.230978178557329</v>
+        <v>0.8534501508664289</v>
       </c>
       <c r="P52" s="21">
-        <v>46.15</v>
+        <v>64.22</v>
       </c>
       <c r="Q52" s="21">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="R52" s="21">
-        <v>0.267315041099228</v>
+        <v>0.0054352411314077</v>
       </c>
       <c r="S52" s="21">
-        <v>54.46</v>
+        <v>50.09</v>
       </c>
       <c r="T52" s="21">
-        <v>52.08</v>
+        <v>55.54</v>
       </c>
       <c r="U52" s="21">
-        <v>-0.589085767788565</v>
+        <v>-0.976073906172231</v>
       </c>
       <c r="V52" s="21">
-        <v>40.18</v>
+        <v>33.73</v>
       </c>
       <c r="W52" s="21">
-        <v>47</v>
+        <v>40.36</v>
       </c>
       <c r="X52" s="21">
-        <v>-0.793713328146228</v>
+        <v>0.0406958118559945</v>
       </c>
       <c r="Y52" s="21">
-        <v>36.77</v>
+        <v>50.68</v>
       </c>
       <c r="Z52" s="21">
-        <v>67.14</v>
+        <v>75.78</v>
       </c>
       <c r="AA52" s="21">
-        <v>50</v>
+        <v>55.32</v>
       </c>
       <c r="AB52" s="21">
-        <v>47.1</v>
+        <v>68.83</v>
       </c>
       <c r="AC52" s="21">
-        <v>-0.793713328146228</v>
+        <v>0.0406958118559945</v>
       </c>
       <c r="AD52" s="21">
-        <v>36.77</v>
+        <v>50.68</v>
       </c>
       <c r="AE52" s="21">
-        <v>54.46</v>
+        <v>50.09</v>
       </c>
       <c r="AF52" s="21">
-        <v>40.18</v>
+        <v>33.73</v>
       </c>
       <c r="AG52" s="21">
-        <v>48.83</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="17">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s" s="18">
-        <v>135</v>
-      </c>
-      <c r="C53" t="s" s="19">
-        <v>136</v>
-      </c>
-      <c r="D53" s="20">
-        <v>2022</v>
-      </c>
-      <c r="E53" s="21">
-        <v>0.63</v>
-      </c>
-      <c r="F53" s="21">
-        <v>1.54665921308253</v>
-      </c>
-      <c r="G53" s="21">
-        <v>75.78</v>
-      </c>
-      <c r="H53" s="21">
-        <v>4.74</v>
-      </c>
-      <c r="I53" s="21">
-        <v>0.318922862914189</v>
-      </c>
-      <c r="J53" s="21">
-        <v>55.32</v>
-      </c>
-      <c r="K53" s="21">
-        <v>0.14</v>
-      </c>
-      <c r="L53" s="21">
-        <v>1.1295228683382</v>
-      </c>
-      <c r="M53" s="21">
-        <v>68.83</v>
-      </c>
-      <c r="N53" s="21">
-        <v>94.51000000000001</v>
-      </c>
-      <c r="O53" s="21">
-        <v>0.8534501508664289</v>
-      </c>
-      <c r="P53" s="21">
-        <v>64.22</v>
-      </c>
-      <c r="Q53" s="21">
-        <v>0.98</v>
-      </c>
-      <c r="R53" s="21">
-        <v>0.0054352411314077</v>
-      </c>
-      <c r="S53" s="21">
-        <v>50.09</v>
-      </c>
-      <c r="T53" s="21">
-        <v>55.54</v>
-      </c>
-      <c r="U53" s="21">
-        <v>-0.976073906172231</v>
-      </c>
-      <c r="V53" s="21">
-        <v>33.73</v>
-      </c>
-      <c r="W53" s="21">
-        <v>40.36</v>
-      </c>
-      <c r="X53" s="21">
-        <v>0.0406958118559945</v>
-      </c>
-      <c r="Y53" s="21">
-        <v>50.68</v>
-      </c>
-      <c r="Z53" s="21">
-        <v>75.78</v>
-      </c>
-      <c r="AA53" s="21">
-        <v>55.32</v>
-      </c>
-      <c r="AB53" s="21">
-        <v>68.83</v>
-      </c>
-      <c r="AC53" s="21">
-        <v>0.0406958118559945</v>
-      </c>
-      <c r="AD53" s="21">
-        <v>50.68</v>
-      </c>
-      <c r="AE53" s="21">
-        <v>50.09</v>
-      </c>
-      <c r="AF53" s="21">
-        <v>33.73</v>
-      </c>
-      <c r="AG53" s="21">
         <v>56.95</v>
       </c>
     </row>

--- a/between_states/between_states_relative_data/community_living_between_2022_excel.xlsx
+++ b/between_states/between_states_relative_data/community_living_between_2022_excel.xlsx
@@ -25,6 +25,30 @@
     <t>year</t>
   </si>
   <si>
+    <t>Community Living Relative Score</t>
+  </si>
+  <si>
+    <t>Living at Home Relative Score</t>
+  </si>
+  <si>
+    <t>Living in Nursing Home Age 18-64 Relative Score</t>
+  </si>
+  <si>
+    <t>Living in Institutionalized Groupquarters Relative Score</t>
+  </si>
+  <si>
+    <t>Living in Non-Institutionalized Groupquarters Relative Score</t>
+  </si>
+  <si>
+    <t>Living in Correctional Facilities Relative Score</t>
+  </si>
+  <si>
+    <t>Living in Public Housing Relative Score</t>
+  </si>
+  <si>
+    <t>Housing Choice Vouchers Relative Score</t>
+  </si>
+  <si>
     <t>pwd_nursing_18_64_pct</t>
   </si>
   <si>
@@ -86,30 +110,6 @@
   </si>
   <si>
     <t>REL_index_pwd_pubhousing_pct</t>
-  </si>
-  <si>
-    <t>Nursing Home 18-64 Relative Score</t>
-  </si>
-  <si>
-    <t>Institutonalized Groupquarters Relative Score</t>
-  </si>
-  <si>
-    <t>Non-Institutonalized Groupquarters Relative Score</t>
-  </si>
-  <si>
-    <t>Public Housing Relative Score</t>
-  </si>
-  <si>
-    <t>Home Relative Score</t>
-  </si>
-  <si>
-    <t>Correctional Facility Relative Score</t>
-  </si>
-  <si>
-    <t>Housing Choice Vouchers Relative Score</t>
-  </si>
-  <si>
-    <t>Community Living Relative Score</t>
   </si>
   <si>
     <t>United States</t>
@@ -647,7 +647,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -655,64 +655,58 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,15 +728,15 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffff84ff"/>
+      <rgbColor rgb="ffeaeaea"/>
+      <rgbColor rgb="ff75d5ff"/>
+      <rgbColor rgb="ff73fdff"/>
       <rgbColor rgb="ffffd478"/>
       <rgbColor rgb="fffefc78"/>
       <rgbColor rgb="ffd4fb78"/>
       <rgbColor rgb="ff72fa78"/>
       <rgbColor rgb="ff72fcd5"/>
-      <rgbColor rgb="ff73fdff"/>
-      <rgbColor rgb="ff75d5ff"/>
-      <rgbColor rgb="ffff84ff"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
     </indexedColors>
@@ -1789,30 +1783,33 @@
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.17188" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.1719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="1" customWidth="1"/>
-    <col min="13" max="13" width="35.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1719" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.8516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.3516" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="30.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="34" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.1719" style="1" customWidth="1"/>
-    <col min="25" max="25" width="42.9688" style="1" customWidth="1"/>
-    <col min="26" max="26" width="34.0078" style="1" customWidth="1"/>
-    <col min="27" max="32" width="47.4609" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.0078" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5781" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.2656" style="1" customWidth="1"/>
+    <col min="8" max="8" width="62.1016" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55.6328" style="1" customWidth="1"/>
+    <col min="10" max="12" width="57.4531" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.1719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="29" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32.3516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.1719" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32" style="1" customWidth="1"/>
+    <col min="21" max="21" width="35.3516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.3516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6719" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.1719" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.8516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.3516" style="1" customWidth="1"/>
+    <col min="28" max="28" width="28.8516" style="1" customWidth="1"/>
+    <col min="29" max="29" width="30.5" style="1" customWidth="1"/>
+    <col min="30" max="30" width="34" style="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.1719" style="1" customWidth="1"/>
+    <col min="33" max="33" width="42.9688" style="1" customWidth="1"/>
     <col min="34" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1832,10 +1829,10 @@
       <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
       <c r="H1" t="s" s="4">
@@ -1850,5204 +1847,5222 @@
       <c r="K1" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="6">
+      <c r="N1" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="6">
+      <c r="O1" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="6">
+      <c r="P1" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="7">
+      <c r="Q1" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="7">
+      <c r="R1" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="7">
+      <c r="S1" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="8">
+      <c r="T1" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="8">
+      <c r="U1" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="8">
+      <c r="V1" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="9">
+      <c r="W1" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="9">
+      <c r="X1" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="9">
+      <c r="Y1" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="3">
+      <c r="Z1" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="4">
+      <c r="AA1" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="5">
+      <c r="AB1" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="9">
+      <c r="AC1" t="s" s="6">
         <v>28</v>
       </c>
       <c r="AD1" t="s" s="6">
         <v>29</v>
       </c>
-      <c r="AE1" t="s" s="7">
+      <c r="AE1" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="AF1" t="s" s="8">
+      <c r="AF1" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="AG1" t="s" s="10">
+      <c r="AG1" t="s" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="B2" t="s" s="13">
         <v>33</v>
       </c>
-      <c r="C2" t="s" s="13">
+      <c r="C2" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>2022</v>
       </c>
       <c r="E2" s="15">
-        <v>1.26</v>
+        <v>49.95</v>
       </c>
       <c r="F2" s="15">
-        <v>-0.0851783334741105</v>
+        <v>51.9</v>
       </c>
       <c r="G2" s="15">
         <v>48.58</v>
       </c>
       <c r="H2" s="15">
+        <v>52.19</v>
+      </c>
+      <c r="I2" s="15">
+        <v>50.93</v>
+      </c>
+      <c r="J2" s="15">
+        <v>46.16</v>
+      </c>
+      <c r="K2" s="15">
+        <v>49.08</v>
+      </c>
+      <c r="L2" s="15">
+        <v>48.37</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1.26</v>
+      </c>
+      <c r="N2" s="15">
+        <v>-0.0851783334741105</v>
+      </c>
+      <c r="O2" s="15">
+        <v>48.58</v>
+      </c>
+      <c r="P2" s="15">
         <v>5.01</v>
       </c>
-      <c r="I2" s="15">
+      <c r="Q2" s="15">
         <v>0.131650717564326</v>
       </c>
-      <c r="J2" s="15">
+      <c r="R2" s="15">
         <v>52.19</v>
       </c>
-      <c r="K2" s="15">
+      <c r="S2" s="15">
         <v>0.28</v>
       </c>
-      <c r="L2" s="15">
+      <c r="T2" s="15">
         <v>0.0560337715363595</v>
       </c>
-      <c r="M2" s="15">
+      <c r="U2" s="15">
         <v>50.93</v>
       </c>
-      <c r="N2" s="15">
+      <c r="V2" s="15">
         <v>93.16</v>
       </c>
-      <c r="O2" s="15">
+      <c r="W2" s="15">
         <v>0.114067198986591</v>
       </c>
-      <c r="P2" s="15">
+      <c r="X2" s="15">
         <v>51.9</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Y2" s="15">
         <v>1.07</v>
       </c>
-      <c r="R2" s="15">
+      <c r="Z2" s="15">
         <v>-0.23025657883963</v>
       </c>
-      <c r="S2" s="15">
+      <c r="AA2" s="15">
         <v>46.16</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="15">
-        <v>48.58</v>
-      </c>
-      <c r="AA2" s="15">
-        <v>52.19</v>
-      </c>
       <c r="AB2" s="15">
-        <v>50.93</v>
-      </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
+        <v>47.69</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>-0.0979240016330632</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>48.37</v>
+      </c>
       <c r="AE2" s="15">
-        <v>46.16</v>
-      </c>
-      <c r="AF2" s="16"/>
+        <v>41.15</v>
+      </c>
+      <c r="AF2" s="15">
+        <v>-0.0553040319715805</v>
+      </c>
       <c r="AG2" s="15">
-        <v>49.95</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="18">
+      <c r="B3" t="s" s="17">
         <v>35</v>
       </c>
-      <c r="C3" t="s" s="19">
+      <c r="C3" t="s" s="18">
         <v>36</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>2022</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
+        <v>58.22</v>
+      </c>
+      <c r="F3" s="19">
+        <v>62.85</v>
+      </c>
+      <c r="G3" s="19">
+        <v>45.13</v>
+      </c>
+      <c r="H3" s="19">
+        <v>54.51</v>
+      </c>
+      <c r="I3" s="19">
+        <v>63.71</v>
+      </c>
+      <c r="J3" s="19">
+        <v>39.18</v>
+      </c>
+      <c r="K3" s="19">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="L3" s="19">
+        <v>76.89</v>
+      </c>
+      <c r="M3" s="19">
         <v>1.34</v>
       </c>
-      <c r="F3" s="21">
+      <c r="N3" s="19">
         <v>-0.292395799703526</v>
       </c>
-      <c r="G3" s="21">
+      <c r="O3" s="19">
         <v>45.13</v>
       </c>
-      <c r="H3" s="21">
+      <c r="P3" s="19">
         <v>4.81</v>
       </c>
-      <c r="I3" s="21">
+      <c r="Q3" s="19">
         <v>0.270370825230891</v>
       </c>
-      <c r="J3" s="21">
+      <c r="R3" s="19">
         <v>54.51</v>
       </c>
-      <c r="K3" s="21">
+      <c r="S3" s="19">
         <v>0.18</v>
       </c>
-      <c r="L3" s="21">
+      <c r="T3" s="19">
         <v>0.822811697823386</v>
       </c>
-      <c r="M3" s="21">
+      <c r="U3" s="19">
         <v>63.71</v>
       </c>
-      <c r="N3" s="21">
+      <c r="V3" s="19">
         <v>94.36</v>
       </c>
-      <c r="O3" s="21">
+      <c r="W3" s="19">
         <v>0.771296489546444</v>
       </c>
-      <c r="P3" s="21">
+      <c r="X3" s="19">
         <v>62.85</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Y3" s="19">
         <v>1.23</v>
       </c>
-      <c r="R3" s="21">
+      <c r="Z3" s="19">
         <v>-0.649264258788142</v>
       </c>
-      <c r="S3" s="21">
+      <c r="AA3" s="19">
         <v>39.18</v>
       </c>
-      <c r="T3" s="21">
+      <c r="AB3" s="19">
         <v>32.39</v>
       </c>
-      <c r="U3" s="21">
+      <c r="AC3" s="19">
         <v>1.6131675399497</v>
       </c>
-      <c r="V3" s="21">
+      <c r="AD3" s="19">
         <v>76.89</v>
       </c>
-      <c r="W3" s="21">
+      <c r="AE3" s="19">
         <v>33.4</v>
       </c>
-      <c r="X3" s="21">
+      <c r="AF3" s="19">
         <v>0.915317440533022</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="AG3" s="19">
         <v>65.26000000000001</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>45.13</v>
-      </c>
-      <c r="AA3" s="21">
-        <v>54.51</v>
-      </c>
-      <c r="AB3" s="21">
-        <v>63.71</v>
-      </c>
-      <c r="AC3" s="21">
-        <v>0.915317440533022</v>
-      </c>
-      <c r="AD3" s="21">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="AE3" s="21">
-        <v>39.18</v>
-      </c>
-      <c r="AF3" s="21">
-        <v>76.89</v>
-      </c>
-      <c r="AG3" s="21">
-        <v>58.22</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="18">
+      <c r="B4" t="s" s="17">
         <v>37</v>
       </c>
-      <c r="C4" t="s" s="19">
+      <c r="C4" t="s" s="18">
         <v>38</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>2022</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
+        <v>60.32</v>
+      </c>
+      <c r="F4" s="19">
+        <v>63.13</v>
+      </c>
+      <c r="G4" s="19">
+        <v>83.98</v>
+      </c>
+      <c r="H4" s="19">
+        <v>72.66</v>
+      </c>
+      <c r="I4" s="19">
+        <v>45.82</v>
+      </c>
+      <c r="J4" s="19">
+        <v>48.34</v>
+      </c>
+      <c r="K4" s="19">
+        <v>69.53</v>
+      </c>
+      <c r="L4" s="19">
+        <v>38.77</v>
+      </c>
+      <c r="M4" s="19">
         <v>0.44</v>
       </c>
-      <c r="F4" s="21">
+      <c r="N4" s="19">
         <v>2.03880069537739</v>
       </c>
-      <c r="G4" s="21">
+      <c r="O4" s="19">
         <v>83.98</v>
       </c>
-      <c r="H4" s="21">
+      <c r="P4" s="19">
         <v>3.24</v>
       </c>
-      <c r="I4" s="21">
+      <c r="Q4" s="19">
         <v>1.35932367041343</v>
       </c>
-      <c r="J4" s="21">
+      <c r="R4" s="19">
         <v>72.66</v>
       </c>
-      <c r="K4" s="21">
+      <c r="S4" s="19">
         <v>0.32</v>
       </c>
-      <c r="L4" s="21">
+      <c r="T4" s="19">
         <v>-0.250677398978451</v>
       </c>
-      <c r="M4" s="21">
+      <c r="U4" s="19">
         <v>45.82</v>
       </c>
-      <c r="N4" s="21">
+      <c r="V4" s="19">
         <v>94.39</v>
       </c>
-      <c r="O4" s="21">
+      <c r="W4" s="19">
         <v>0.787727221810441</v>
       </c>
-      <c r="P4" s="21">
+      <c r="X4" s="19">
         <v>63.13</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Y4" s="19">
         <v>1.02</v>
       </c>
-      <c r="R4" s="21">
+      <c r="Z4" s="19">
         <v>-0.09931667885572031</v>
       </c>
-      <c r="S4" s="21">
+      <c r="AA4" s="19">
         <v>48.34</v>
       </c>
-      <c r="T4" s="21">
+      <c r="AB4" s="19">
         <v>52.84</v>
       </c>
-      <c r="U4" s="21">
+      <c r="AC4" s="19">
         <v>-0.6740889426936481</v>
       </c>
-      <c r="V4" s="21">
+      <c r="AD4" s="19">
         <v>38.77</v>
       </c>
-      <c r="W4" s="21">
+      <c r="AE4" s="19">
         <v>31.36</v>
       </c>
-      <c r="X4" s="21">
+      <c r="AF4" s="19">
         <v>1.17167205583491</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="AG4" s="19">
         <v>69.53</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>83.98</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>72.66</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>45.82</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>1.17167205583491</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>69.53</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>48.34</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>38.77</v>
-      </c>
-      <c r="AG4" s="21">
-        <v>60.32</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="18">
+      <c r="B5" t="s" s="17">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="19">
+      <c r="C5" t="s" s="18">
         <v>40</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>2022</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
+        <v>59.81</v>
+      </c>
+      <c r="F5" s="19">
+        <v>68.61</v>
+      </c>
+      <c r="G5" s="19">
+        <v>66.28</v>
+      </c>
+      <c r="H5" s="19">
+        <v>70.69</v>
+      </c>
+      <c r="I5" s="19">
+        <v>57.32</v>
+      </c>
+      <c r="J5" s="19">
+        <v>42.67</v>
+      </c>
+      <c r="K5" s="19">
+        <v>65.59</v>
+      </c>
+      <c r="L5" s="19">
+        <v>47.49</v>
+      </c>
+      <c r="M5" s="19">
         <v>0.85</v>
       </c>
-      <c r="F5" s="21">
+      <c r="N5" s="19">
         <v>0.976811180951641</v>
       </c>
-      <c r="G5" s="21">
+      <c r="O5" s="19">
         <v>66.28</v>
       </c>
-      <c r="H5" s="21">
+      <c r="P5" s="19">
         <v>3.41</v>
       </c>
-      <c r="I5" s="21">
+      <c r="Q5" s="19">
         <v>1.24141157889685</v>
       </c>
-      <c r="J5" s="21">
+      <c r="R5" s="19">
         <v>70.69</v>
       </c>
-      <c r="K5" s="21">
+      <c r="S5" s="19">
         <v>0.23</v>
       </c>
-      <c r="L5" s="21">
+      <c r="T5" s="19">
         <v>0.439422734679873</v>
       </c>
-      <c r="M5" s="21">
+      <c r="U5" s="19">
         <v>57.32</v>
       </c>
-      <c r="N5" s="21">
+      <c r="V5" s="19">
         <v>94.98999999999999</v>
       </c>
-      <c r="O5" s="21">
+      <c r="W5" s="19">
         <v>1.11634186709036</v>
       </c>
-      <c r="P5" s="21">
+      <c r="X5" s="19">
         <v>68.61</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Y5" s="19">
         <v>1.15</v>
       </c>
-      <c r="R5" s="21">
+      <c r="Z5" s="19">
         <v>-0.439760418813886</v>
       </c>
-      <c r="S5" s="21">
+      <c r="AA5" s="19">
         <v>42.67</v>
       </c>
-      <c r="T5" s="21">
+      <c r="AB5" s="19">
         <v>48.16</v>
       </c>
-      <c r="U5" s="21">
+      <c r="AC5" s="19">
         <v>-0.150648339330768</v>
       </c>
-      <c r="V5" s="21">
+      <c r="AD5" s="19">
         <v>47.49</v>
       </c>
-      <c r="W5" s="21">
+      <c r="AE5" s="19">
         <v>33.24</v>
       </c>
-      <c r="X5" s="21">
+      <c r="AF5" s="19">
         <v>0.935423684870425</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="AG5" s="19">
         <v>65.59</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>66.28</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>70.69</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>57.32</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>0.935423684870425</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>65.59</v>
-      </c>
-      <c r="AE5" s="21">
-        <v>42.67</v>
-      </c>
-      <c r="AF5" s="21">
-        <v>47.49</v>
-      </c>
-      <c r="AG5" s="21">
-        <v>59.81</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="18">
+      <c r="B6" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="19">
+      <c r="C6" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>2022</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
+        <v>56.17</v>
+      </c>
+      <c r="F6" s="19">
+        <v>65.87</v>
+      </c>
+      <c r="G6" s="19">
+        <v>46.85</v>
+      </c>
+      <c r="H6" s="19">
+        <v>56.93</v>
+      </c>
+      <c r="I6" s="19">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="J6" s="19">
+        <v>55.33</v>
+      </c>
+      <c r="K6" s="19">
+        <v>53.95</v>
+      </c>
+      <c r="L6" s="19">
+        <v>49.26</v>
+      </c>
+      <c r="M6" s="19">
         <v>1.3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="N6" s="19">
         <v>-0.188787066588818</v>
       </c>
-      <c r="G6" s="21">
+      <c r="O6" s="19">
         <v>46.85</v>
       </c>
-      <c r="H6" s="21">
+      <c r="P6" s="19">
         <v>4.6</v>
       </c>
-      <c r="I6" s="21">
+      <c r="Q6" s="19">
         <v>0.416026938280785</v>
       </c>
-      <c r="J6" s="21">
+      <c r="R6" s="19">
         <v>56.93</v>
       </c>
-      <c r="K6" s="21">
+      <c r="S6" s="19">
         <v>0.17</v>
       </c>
-      <c r="L6" s="21">
+      <c r="T6" s="19">
         <v>0.899489490452089</v>
       </c>
-      <c r="M6" s="21">
+      <c r="U6" s="19">
         <v>64.98999999999999</v>
       </c>
-      <c r="N6" s="21">
+      <c r="V6" s="19">
         <v>94.69</v>
       </c>
-      <c r="O6" s="21">
+      <c r="W6" s="19">
         <v>0.952034544450403</v>
       </c>
-      <c r="P6" s="21">
+      <c r="X6" s="19">
         <v>65.87</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Y6" s="19">
         <v>0.86</v>
       </c>
-      <c r="R6" s="21">
+      <c r="Z6" s="19">
         <v>0.319691001092792</v>
       </c>
-      <c r="S6" s="21">
+      <c r="AA6" s="19">
         <v>55.33</v>
       </c>
-      <c r="T6" s="21">
+      <c r="AB6" s="19">
         <v>47.21</v>
       </c>
-      <c r="U6" s="21">
+      <c r="AC6" s="19">
         <v>-0.0443943706994154</v>
       </c>
-      <c r="V6" s="21">
+      <c r="AD6" s="19">
         <v>49.26</v>
       </c>
-      <c r="W6" s="21">
+      <c r="AE6" s="19">
         <v>38.8</v>
       </c>
-      <c r="X6" s="21">
+      <c r="AF6" s="19">
         <v>0.236731694145673</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="AG6" s="19">
         <v>53.95</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>46.85</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>56.93</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>0.236731694145673</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>53.95</v>
-      </c>
-      <c r="AE6" s="21">
-        <v>55.33</v>
-      </c>
-      <c r="AF6" s="21">
-        <v>49.26</v>
-      </c>
-      <c r="AG6" s="21">
-        <v>56.17</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="18">
+      <c r="B7" t="s" s="17">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="19">
+      <c r="C7" t="s" s="18">
         <v>44</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>2022</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
+        <v>50.03</v>
+      </c>
+      <c r="F7" s="19">
+        <v>44.32</v>
+      </c>
+      <c r="G7" s="19">
+        <v>49.44</v>
+      </c>
+      <c r="H7" s="19">
+        <v>63.87</v>
+      </c>
+      <c r="I7" s="19">
+        <v>31.76</v>
+      </c>
+      <c r="J7" s="19">
+        <v>50.53</v>
+      </c>
+      <c r="K7" s="19">
+        <v>66.97</v>
+      </c>
+      <c r="L7" s="19">
+        <v>43.33</v>
+      </c>
+      <c r="M7" s="19">
         <v>1.24</v>
       </c>
-      <c r="F7" s="21">
+      <c r="N7" s="19">
         <v>-0.0333739669167567</v>
       </c>
-      <c r="G7" s="21">
+      <c r="O7" s="19">
         <v>49.44</v>
       </c>
-      <c r="H7" s="21">
+      <c r="P7" s="19">
         <v>4</v>
       </c>
-      <c r="I7" s="21">
+      <c r="Q7" s="19">
         <v>0.832187261280479</v>
       </c>
-      <c r="J7" s="21">
+      <c r="R7" s="19">
         <v>63.87</v>
       </c>
-      <c r="K7" s="21">
+      <c r="S7" s="19">
         <v>0.43</v>
       </c>
-      <c r="L7" s="21">
+      <c r="T7" s="19">
         <v>-1.09413311789418</v>
       </c>
-      <c r="M7" s="21">
+      <c r="U7" s="19">
         <v>31.76</v>
       </c>
-      <c r="N7" s="21">
+      <c r="V7" s="19">
         <v>92.33</v>
       </c>
-      <c r="O7" s="21">
+      <c r="W7" s="19">
         <v>-0.340516393650639</v>
       </c>
-      <c r="P7" s="21">
+      <c r="X7" s="19">
         <v>44.32</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Y7" s="19">
         <v>0.97</v>
       </c>
-      <c r="R7" s="21">
+      <c r="Z7" s="19">
         <v>0.0316232211281898</v>
       </c>
-      <c r="S7" s="21">
+      <c r="AA7" s="19">
         <v>50.53</v>
       </c>
-      <c r="T7" s="21">
+      <c r="AB7" s="19">
         <v>50.39</v>
       </c>
-      <c r="U7" s="21">
+      <c r="AC7" s="19">
         <v>-0.400065549907525</v>
       </c>
-      <c r="V7" s="21">
+      <c r="AD7" s="19">
         <v>43.33</v>
       </c>
-      <c r="W7" s="21">
+      <c r="AE7" s="19">
         <v>32.58</v>
       </c>
-      <c r="X7" s="21">
+      <c r="AF7" s="19">
         <v>1.01836194276221</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="AG7" s="19">
         <v>66.97</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>49.44</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>63.87</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>31.76</v>
-      </c>
-      <c r="AC7" s="21">
-        <v>1.01836194276221</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>66.97</v>
-      </c>
-      <c r="AE7" s="21">
-        <v>50.53</v>
-      </c>
-      <c r="AF7" s="21">
-        <v>43.33</v>
-      </c>
-      <c r="AG7" s="21">
-        <v>50.03</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="18">
+      <c r="B8" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="C8" t="s" s="19">
+      <c r="C8" t="s" s="18">
         <v>46</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>2022</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
+        <v>44.66</v>
+      </c>
+      <c r="F8" s="19">
+        <v>53.54</v>
+      </c>
+      <c r="G8" s="19">
+        <v>58.08</v>
+      </c>
+      <c r="H8" s="19">
+        <v>51.27</v>
+      </c>
+      <c r="I8" s="19">
+        <v>59.88</v>
+      </c>
+      <c r="J8" s="19">
+        <v>17.36</v>
+      </c>
+      <c r="K8" s="19">
+        <v>33.11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>39.4</v>
+      </c>
+      <c r="M8" s="19">
         <v>1.04</v>
       </c>
-      <c r="F8" s="21">
+      <c r="N8" s="19">
         <v>0.484669698656781</v>
       </c>
-      <c r="G8" s="21">
+      <c r="O8" s="19">
         <v>58.08</v>
       </c>
-      <c r="H8" s="21">
+      <c r="P8" s="19">
         <v>5.09</v>
       </c>
-      <c r="I8" s="21">
+      <c r="Q8" s="19">
         <v>0.07616267449770039</v>
       </c>
-      <c r="J8" s="21">
+      <c r="R8" s="19">
         <v>51.27</v>
       </c>
-      <c r="K8" s="21">
+      <c r="S8" s="19">
         <v>0.21</v>
       </c>
-      <c r="L8" s="21">
+      <c r="T8" s="19">
         <v>0.592778319937278</v>
       </c>
-      <c r="M8" s="21">
+      <c r="U8" s="19">
         <v>59.88</v>
       </c>
-      <c r="N8" s="21">
+      <c r="V8" s="19">
         <v>93.34</v>
       </c>
-      <c r="O8" s="21">
+      <c r="W8" s="19">
         <v>0.212651592570572</v>
       </c>
-      <c r="P8" s="21">
+      <c r="X8" s="19">
         <v>53.54</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Y8" s="19">
         <v>1.73</v>
       </c>
-      <c r="R8" s="21">
+      <c r="Z8" s="19">
         <v>-1.95866325862724</v>
       </c>
-      <c r="S8" s="21">
+      <c r="AA8" s="19">
         <v>17.36</v>
       </c>
-      <c r="T8" s="21">
+      <c r="AB8" s="19">
         <v>52.5</v>
       </c>
-      <c r="U8" s="21">
+      <c r="AC8" s="19">
         <v>-0.6360612065519</v>
       </c>
-      <c r="V8" s="21">
+      <c r="AD8" s="19">
         <v>39.4</v>
       </c>
-      <c r="W8" s="21">
+      <c r="AE8" s="19">
         <v>48.75</v>
       </c>
-      <c r="X8" s="21">
+      <c r="AF8" s="19">
         <v>-1.01362537558657</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="AG8" s="19">
         <v>33.11</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>58.08</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>51.27</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>59.88</v>
-      </c>
-      <c r="AC8" s="21">
-        <v>-1.01362537558657</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>33.11</v>
-      </c>
-      <c r="AE8" s="21">
-        <v>17.36</v>
-      </c>
-      <c r="AF8" s="21">
-        <v>39.4</v>
-      </c>
-      <c r="AG8" s="21">
-        <v>44.66</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="18">
+      <c r="B9" t="s" s="17">
         <v>47</v>
       </c>
-      <c r="C9" t="s" s="19">
+      <c r="C9" t="s" s="18">
         <v>48</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>2022</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
+        <v>43.46</v>
+      </c>
+      <c r="F9" s="19">
+        <v>26.89</v>
+      </c>
+      <c r="G9" s="19">
+        <v>35.63</v>
+      </c>
+      <c r="H9" s="19">
+        <v>38.44</v>
+      </c>
+      <c r="I9" s="19">
+        <v>27.93</v>
+      </c>
+      <c r="J9" s="19">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="K9" s="19">
+        <v>44.04</v>
+      </c>
+      <c r="L9" s="19">
+        <v>64.62</v>
+      </c>
+      <c r="M9" s="19">
         <v>1.56</v>
       </c>
-      <c r="F9" s="21">
+      <c r="N9" s="19">
         <v>-0.862243831834417</v>
       </c>
-      <c r="G9" s="21">
+      <c r="O9" s="19">
         <v>35.63</v>
       </c>
-      <c r="H9" s="21">
+      <c r="P9" s="19">
         <v>6.2</v>
       </c>
-      <c r="I9" s="21">
+      <c r="Q9" s="19">
         <v>-0.693733923051735</v>
       </c>
-      <c r="J9" s="21">
+      <c r="R9" s="19">
         <v>38.44</v>
       </c>
-      <c r="K9" s="21">
+      <c r="S9" s="19">
         <v>0.46</v>
       </c>
-      <c r="L9" s="21">
+      <c r="T9" s="19">
         <v>-1.32416649578029</v>
       </c>
-      <c r="M9" s="21">
+      <c r="U9" s="19">
         <v>27.93</v>
       </c>
-      <c r="N9" s="21">
+      <c r="V9" s="19">
         <v>90.42</v>
       </c>
-      <c r="O9" s="21">
+      <c r="W9" s="19">
         <v>-1.38660634779174</v>
       </c>
-      <c r="P9" s="21">
+      <c r="X9" s="19">
         <v>26.89</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Y9" s="19">
         <v>0.6</v>
       </c>
-      <c r="R9" s="21">
+      <c r="Z9" s="19">
         <v>1.00057848100912</v>
       </c>
-      <c r="S9" s="21">
+      <c r="AA9" s="19">
         <v>66.68000000000001</v>
       </c>
-      <c r="T9" s="21">
+      <c r="AB9" s="19">
         <v>38.97</v>
       </c>
-      <c r="U9" s="21">
+      <c r="AC9" s="19">
         <v>0.877218999324115</v>
       </c>
-      <c r="V9" s="21">
+      <c r="AD9" s="19">
         <v>64.62</v>
       </c>
-      <c r="W9" s="21">
+      <c r="AE9" s="19">
         <v>43.53</v>
       </c>
-      <c r="X9" s="21">
+      <c r="AF9" s="19">
         <v>-0.357659154078801</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="AG9" s="19">
         <v>44.04</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>35.63</v>
-      </c>
-      <c r="AA9" s="21">
-        <v>38.44</v>
-      </c>
-      <c r="AB9" s="21">
-        <v>27.93</v>
-      </c>
-      <c r="AC9" s="21">
-        <v>-0.357659154078801</v>
-      </c>
-      <c r="AD9" s="21">
-        <v>44.04</v>
-      </c>
-      <c r="AE9" s="21">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="AF9" s="21">
-        <v>64.62</v>
-      </c>
-      <c r="AG9" s="21">
-        <v>43.46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="18">
+      <c r="B10" t="s" s="17">
         <v>49</v>
       </c>
-      <c r="C10" t="s" s="19">
+      <c r="C10" t="s" s="18">
         <v>50</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>2022</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
+        <v>60.05</v>
+      </c>
+      <c r="F10" s="19">
+        <v>66.41</v>
+      </c>
+      <c r="G10" s="19">
+        <v>57.21</v>
+      </c>
+      <c r="H10" s="19">
+        <v>62.71</v>
+      </c>
+      <c r="I10" s="19">
+        <v>62.44</v>
+      </c>
+      <c r="J10" s="19">
+        <v>61</v>
+      </c>
+      <c r="K10" s="19">
+        <v>50.76</v>
+      </c>
+      <c r="L10" s="19">
+        <v>59.79</v>
+      </c>
+      <c r="M10" s="19">
         <v>1.06</v>
       </c>
-      <c r="F10" s="21">
+      <c r="N10" s="19">
         <v>0.432865332099427</v>
       </c>
-      <c r="G10" s="21">
+      <c r="O10" s="19">
         <v>57.21</v>
       </c>
-      <c r="H10" s="21">
+      <c r="P10" s="19">
         <v>4.1</v>
       </c>
-      <c r="I10" s="21">
+      <c r="Q10" s="19">
         <v>0.762827207447197</v>
       </c>
-      <c r="J10" s="21">
+      <c r="R10" s="19">
         <v>62.71</v>
       </c>
-      <c r="K10" s="21">
+      <c r="S10" s="19">
         <v>0.19</v>
       </c>
-      <c r="L10" s="21">
+      <c r="T10" s="19">
         <v>0.746133905194683</v>
       </c>
-      <c r="M10" s="21">
+      <c r="U10" s="19">
         <v>62.44</v>
       </c>
-      <c r="N10" s="21">
+      <c r="V10" s="19">
         <v>94.75</v>
       </c>
-      <c r="O10" s="21">
+      <c r="W10" s="19">
         <v>0.984896008978396</v>
       </c>
-      <c r="P10" s="21">
+      <c r="X10" s="19">
         <v>66.41</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Y10" s="19">
         <v>0.73</v>
       </c>
-      <c r="R10" s="21">
+      <c r="Z10" s="19">
         <v>0.660134741050958</v>
       </c>
-      <c r="S10" s="21">
+      <c r="AA10" s="19">
         <v>61</v>
       </c>
-      <c r="T10" s="21">
+      <c r="AB10" s="19">
         <v>41.56</v>
       </c>
-      <c r="U10" s="21">
+      <c r="AC10" s="19">
         <v>0.587537126950214</v>
       </c>
-      <c r="V10" s="21">
+      <c r="AD10" s="19">
         <v>59.79</v>
       </c>
-      <c r="W10" s="21">
+      <c r="AE10" s="19">
         <v>40.32</v>
       </c>
-      <c r="X10" s="21">
+      <c r="AF10" s="19">
         <v>0.0457223729403451</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="AG10" s="19">
         <v>50.76</v>
-      </c>
-      <c r="Z10" s="21">
-        <v>57.21</v>
-      </c>
-      <c r="AA10" s="21">
-        <v>62.71</v>
-      </c>
-      <c r="AB10" s="21">
-        <v>62.44</v>
-      </c>
-      <c r="AC10" s="21">
-        <v>0.0457223729403451</v>
-      </c>
-      <c r="AD10" s="21">
-        <v>50.76</v>
-      </c>
-      <c r="AE10" s="21">
-        <v>61</v>
-      </c>
-      <c r="AF10" s="21">
-        <v>59.79</v>
-      </c>
-      <c r="AG10" s="21">
-        <v>60.05</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>12</v>
       </c>
-      <c r="B11" t="s" s="18">
+      <c r="B11" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="C11" t="s" s="19">
+      <c r="C11" t="s" s="18">
         <v>52</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>2022</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
+        <v>53.37</v>
+      </c>
+      <c r="F11" s="19">
+        <v>57.2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>51.6</v>
+      </c>
+      <c r="H11" s="19">
+        <v>51.38</v>
+      </c>
+      <c r="I11" s="19">
+        <v>61.16</v>
+      </c>
+      <c r="J11" s="19">
+        <v>37.87</v>
+      </c>
+      <c r="K11" s="19">
+        <v>57.11</v>
+      </c>
+      <c r="L11" s="19">
+        <v>57.29</v>
+      </c>
+      <c r="M11" s="19">
         <v>1.19</v>
       </c>
-      <c r="F11" s="21">
+      <c r="N11" s="19">
         <v>0.09613694947662769</v>
       </c>
-      <c r="G11" s="21">
+      <c r="O11" s="19">
         <v>51.6</v>
       </c>
-      <c r="H11" s="21">
+      <c r="P11" s="19">
         <v>5.08</v>
       </c>
-      <c r="I11" s="21">
+      <c r="Q11" s="19">
         <v>0.08309867988102849</v>
       </c>
-      <c r="J11" s="21">
+      <c r="R11" s="19">
         <v>51.38</v>
       </c>
-      <c r="K11" s="21">
+      <c r="S11" s="19">
         <v>0.2</v>
       </c>
-      <c r="L11" s="21">
+      <c r="T11" s="19">
         <v>0.669456112565981</v>
       </c>
-      <c r="M11" s="21">
+      <c r="U11" s="19">
         <v>61.16</v>
       </c>
-      <c r="N11" s="21">
+      <c r="V11" s="19">
         <v>93.73999999999999</v>
       </c>
-      <c r="O11" s="21">
+      <c r="W11" s="19">
         <v>0.431728022757185</v>
       </c>
-      <c r="P11" s="21">
+      <c r="X11" s="19">
         <v>57.2</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Y11" s="19">
         <v>1.26</v>
       </c>
-      <c r="R11" s="21">
+      <c r="Z11" s="19">
         <v>-0.727828198778488</v>
       </c>
-      <c r="S11" s="21">
+      <c r="AA11" s="19">
         <v>37.87</v>
       </c>
-      <c r="T11" s="21">
+      <c r="AB11" s="19">
         <v>42.9</v>
       </c>
-      <c r="U11" s="21">
+      <c r="AC11" s="19">
         <v>0.437663108038621</v>
       </c>
-      <c r="V11" s="21">
+      <c r="AD11" s="19">
         <v>57.29</v>
       </c>
-      <c r="W11" s="21">
+      <c r="AE11" s="19">
         <v>37.29</v>
       </c>
-      <c r="X11" s="21">
+      <c r="AF11" s="19">
         <v>0.426484375079913</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="AG11" s="19">
         <v>57.11</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>51.6</v>
-      </c>
-      <c r="AA11" s="21">
-        <v>51.38</v>
-      </c>
-      <c r="AB11" s="21">
-        <v>61.16</v>
-      </c>
-      <c r="AC11" s="21">
-        <v>0.426484375079913</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>57.11</v>
-      </c>
-      <c r="AE11" s="21">
-        <v>37.87</v>
-      </c>
-      <c r="AF11" s="21">
-        <v>57.29</v>
-      </c>
-      <c r="AG11" s="21">
-        <v>53.37</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="18">
+      <c r="B12" t="s" s="17">
         <v>53</v>
       </c>
-      <c r="C12" t="s" s="19">
+      <c r="C12" t="s" s="18">
         <v>54</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>2022</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
+        <v>61.16</v>
+      </c>
+      <c r="F12" s="19">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="G12" s="19">
+        <v>63.26</v>
+      </c>
+      <c r="H12" s="19">
+        <v>59.94</v>
+      </c>
+      <c r="I12" s="19">
+        <v>68.83</v>
+      </c>
+      <c r="J12" s="19">
+        <v>31.32</v>
+      </c>
+      <c r="K12" s="19">
+        <v>68.65000000000001</v>
+      </c>
+      <c r="L12" s="19">
+        <v>69.81999999999999</v>
+      </c>
+      <c r="M12" s="19">
         <v>0.92</v>
       </c>
-      <c r="F12" s="21">
+      <c r="N12" s="19">
         <v>0.795495898000903</v>
       </c>
-      <c r="G12" s="21">
+      <c r="O12" s="19">
         <v>63.26</v>
       </c>
-      <c r="H12" s="21">
+      <c r="P12" s="19">
         <v>4.34</v>
       </c>
-      <c r="I12" s="21">
+      <c r="Q12" s="19">
         <v>0.596363078247319</v>
       </c>
-      <c r="J12" s="21">
+      <c r="R12" s="19">
         <v>59.94</v>
       </c>
-      <c r="K12" s="21">
+      <c r="S12" s="19">
         <v>0.14</v>
       </c>
-      <c r="L12" s="21">
+      <c r="T12" s="19">
         <v>1.1295228683382</v>
       </c>
-      <c r="M12" s="21">
+      <c r="U12" s="19">
         <v>68.83</v>
       </c>
-      <c r="N12" s="21">
+      <c r="V12" s="19">
         <v>94.73999999999999</v>
       </c>
-      <c r="O12" s="21">
+      <c r="W12" s="19">
         <v>0.979419098223728</v>
       </c>
-      <c r="P12" s="21">
+      <c r="X12" s="19">
         <v>66.31999999999999</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Y12" s="19">
         <v>1.41</v>
       </c>
-      <c r="R12" s="21">
+      <c r="Z12" s="19">
         <v>-1.12064789873022</v>
       </c>
-      <c r="S12" s="21">
+      <c r="AA12" s="19">
         <v>31.32</v>
       </c>
-      <c r="T12" s="21">
+      <c r="AB12" s="19">
         <v>36.18</v>
       </c>
-      <c r="U12" s="21">
+      <c r="AC12" s="19">
         <v>1.18927012825198</v>
       </c>
-      <c r="V12" s="21">
+      <c r="AD12" s="19">
         <v>69.81999999999999</v>
       </c>
-      <c r="W12" s="21">
+      <c r="AE12" s="19">
         <v>31.78</v>
       </c>
-      <c r="X12" s="21">
+      <c r="AF12" s="19">
         <v>1.11889316444923</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="AG12" s="19">
         <v>68.65000000000001</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>63.26</v>
-      </c>
-      <c r="AA12" s="21">
-        <v>59.94</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>68.83</v>
-      </c>
-      <c r="AC12" s="21">
-        <v>1.11889316444923</v>
-      </c>
-      <c r="AD12" s="21">
-        <v>68.65000000000001</v>
-      </c>
-      <c r="AE12" s="21">
-        <v>31.32</v>
-      </c>
-      <c r="AF12" s="21">
-        <v>69.81999999999999</v>
-      </c>
-      <c r="AG12" s="21">
-        <v>61.16</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" t="s" s="17">
         <v>55</v>
       </c>
-      <c r="C13" t="s" s="19">
+      <c r="C13" t="s" s="18">
         <v>56</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>2022</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
+        <v>55.31</v>
+      </c>
+      <c r="F13" s="19">
+        <v>51.44</v>
+      </c>
+      <c r="G13" s="19">
+        <v>55.92</v>
+      </c>
+      <c r="H13" s="19">
+        <v>65.03</v>
+      </c>
+      <c r="I13" s="19">
+        <v>36.88</v>
+      </c>
+      <c r="J13" s="19">
+        <v>69.3</v>
+      </c>
+      <c r="K13" s="19">
+        <v>47.87</v>
+      </c>
+      <c r="L13" s="19">
+        <v>60.71</v>
+      </c>
+      <c r="M13" s="19">
         <v>1.09</v>
       </c>
-      <c r="F13" s="21">
+      <c r="N13" s="19">
         <v>0.355158782263396</v>
       </c>
-      <c r="G13" s="21">
+      <c r="O13" s="19">
         <v>55.92</v>
       </c>
-      <c r="H13" s="21">
+      <c r="P13" s="19">
         <v>3.9</v>
       </c>
-      <c r="I13" s="21">
+      <c r="Q13" s="19">
         <v>0.901547315113762</v>
       </c>
-      <c r="J13" s="21">
+      <c r="R13" s="19">
         <v>65.03</v>
       </c>
-      <c r="K13" s="21">
+      <c r="S13" s="19">
         <v>0.39</v>
       </c>
-      <c r="L13" s="21">
+      <c r="T13" s="19">
         <v>-0.787421947379369</v>
       </c>
-      <c r="M13" s="21">
+      <c r="U13" s="19">
         <v>36.88</v>
       </c>
-      <c r="N13" s="21">
+      <c r="V13" s="19">
         <v>93.11</v>
       </c>
-      <c r="O13" s="21">
+      <c r="W13" s="19">
         <v>0.0866826452132651</v>
       </c>
-      <c r="P13" s="21">
+      <c r="X13" s="19">
         <v>51.44</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Y13" s="19">
         <v>0.54</v>
       </c>
-      <c r="R13" s="21">
+      <c r="Z13" s="19">
         <v>1.15770636098982</v>
       </c>
-      <c r="S13" s="21">
+      <c r="AA13" s="19">
         <v>69.3</v>
       </c>
-      <c r="T13" s="21">
+      <c r="AB13" s="19">
         <v>41.07</v>
       </c>
-      <c r="U13" s="21">
+      <c r="AC13" s="19">
         <v>0.642341805507438</v>
       </c>
-      <c r="V13" s="21">
+      <c r="AD13" s="19">
         <v>60.71</v>
       </c>
-      <c r="W13" s="21">
+      <c r="AE13" s="19">
         <v>41.7</v>
       </c>
-      <c r="X13" s="21">
+      <c r="AF13" s="19">
         <v>-0.127693984469756</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="AG13" s="19">
         <v>47.87</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>55.92</v>
-      </c>
-      <c r="AA13" s="21">
-        <v>65.03</v>
-      </c>
-      <c r="AB13" s="21">
-        <v>36.88</v>
-      </c>
-      <c r="AC13" s="21">
-        <v>-0.127693984469756</v>
-      </c>
-      <c r="AD13" s="21">
-        <v>47.87</v>
-      </c>
-      <c r="AE13" s="21">
-        <v>69.3</v>
-      </c>
-      <c r="AF13" s="21">
-        <v>60.71</v>
-      </c>
-      <c r="AG13" s="21">
-        <v>55.31</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>16</v>
       </c>
-      <c r="B14" t="s" s="18">
+      <c r="B14" t="s" s="17">
         <v>57</v>
       </c>
-      <c r="C14" t="s" s="19">
+      <c r="C14" t="s" s="18">
         <v>58</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>2022</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
+        <v>42.62</v>
+      </c>
+      <c r="F14" s="19">
+        <v>60.12</v>
+      </c>
+      <c r="G14" s="19">
+        <v>58.08</v>
+      </c>
+      <c r="H14" s="19">
+        <v>53.23</v>
+      </c>
+      <c r="I14" s="19">
+        <v>63.71</v>
+      </c>
+      <c r="J14" s="19">
+        <v>40.49</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>22.73</v>
+      </c>
+      <c r="M14" s="19">
         <v>1.04</v>
       </c>
-      <c r="F14" s="21">
+      <c r="N14" s="19">
         <v>0.484669698656781</v>
       </c>
-      <c r="G14" s="21">
+      <c r="O14" s="19">
         <v>58.08</v>
       </c>
-      <c r="H14" s="21">
+      <c r="P14" s="19">
         <v>4.92</v>
       </c>
-      <c r="I14" s="21">
+      <c r="Q14" s="19">
         <v>0.194074766014281</v>
       </c>
-      <c r="J14" s="21">
+      <c r="R14" s="19">
         <v>53.23</v>
       </c>
-      <c r="K14" s="21">
+      <c r="S14" s="19">
         <v>0.18</v>
       </c>
-      <c r="L14" s="21">
+      <c r="T14" s="19">
         <v>0.822811697823386</v>
       </c>
-      <c r="M14" s="21">
+      <c r="U14" s="19">
         <v>63.71</v>
       </c>
-      <c r="N14" s="21">
+      <c r="V14" s="19">
         <v>94.06</v>
       </c>
-      <c r="O14" s="21">
+      <c r="W14" s="19">
         <v>0.606989166906483</v>
       </c>
-      <c r="P14" s="21">
+      <c r="X14" s="19">
         <v>60.12</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Y14" s="19">
         <v>1.2</v>
       </c>
-      <c r="R14" s="21">
+      <c r="Z14" s="19">
         <v>-0.570700318797796</v>
       </c>
-      <c r="S14" s="21">
+      <c r="AA14" s="19">
         <v>40.49</v>
       </c>
-      <c r="T14" s="21">
+      <c r="AB14" s="19">
         <v>61.44</v>
       </c>
-      <c r="U14" s="21">
+      <c r="AC14" s="19">
         <v>-1.63596697451432</v>
       </c>
-      <c r="V14" s="21">
+      <c r="AD14" s="19">
         <v>22.73</v>
       </c>
-      <c r="W14" s="21">
+      <c r="AE14" s="19">
         <v>66.04000000000001</v>
       </c>
-      <c r="X14" s="21">
+      <c r="AF14" s="19">
         <v>-3</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="AG14" s="19">
         <v>0</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>58.08</v>
-      </c>
-      <c r="AA14" s="21">
-        <v>53.23</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>63.71</v>
-      </c>
-      <c r="AC14" s="21">
-        <v>-3</v>
-      </c>
-      <c r="AD14" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="21">
-        <v>40.49</v>
-      </c>
-      <c r="AF14" s="21">
-        <v>22.73</v>
-      </c>
-      <c r="AG14" s="21">
-        <v>42.62</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>17</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B15" t="s" s="17">
         <v>59</v>
       </c>
-      <c r="C15" t="s" s="19">
+      <c r="C15" t="s" s="18">
         <v>60</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>2022</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
+        <v>47.39</v>
+      </c>
+      <c r="F15" s="19">
+        <v>45.15</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>36.93</v>
+      </c>
+      <c r="I15" s="19">
+        <v>61.16</v>
+      </c>
+      <c r="J15" s="19">
+        <v>60.13</v>
+      </c>
+      <c r="K15" s="19">
+        <v>61.13</v>
+      </c>
+      <c r="L15" s="19">
+        <v>67.20999999999999</v>
+      </c>
+      <c r="M15" s="19">
         <v>2.5</v>
       </c>
-      <c r="F15" s="21">
+      <c r="N15" s="19">
         <v>-3</v>
       </c>
-      <c r="G15" s="21">
+      <c r="O15" s="19">
         <v>0</v>
       </c>
-      <c r="H15" s="21">
+      <c r="P15" s="19">
         <v>6.33</v>
       </c>
-      <c r="I15" s="21">
+      <c r="Q15" s="19">
         <v>-0.783901993035002</v>
       </c>
-      <c r="J15" s="21">
+      <c r="R15" s="19">
         <v>36.93</v>
       </c>
-      <c r="K15" s="21">
+      <c r="S15" s="19">
         <v>0.2</v>
       </c>
-      <c r="L15" s="21">
+      <c r="T15" s="19">
         <v>0.669456112565981</v>
       </c>
-      <c r="M15" s="21">
+      <c r="U15" s="19">
         <v>61.16</v>
       </c>
-      <c r="N15" s="21">
+      <c r="V15" s="19">
         <v>92.42</v>
       </c>
-      <c r="O15" s="21">
+      <c r="W15" s="19">
         <v>-0.291224196858649</v>
       </c>
-      <c r="P15" s="21">
+      <c r="X15" s="19">
         <v>45.15</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Y15" s="19">
         <v>0.75</v>
       </c>
-      <c r="R15" s="21">
+      <c r="Z15" s="19">
         <v>0.607758781057393</v>
       </c>
-      <c r="S15" s="21">
+      <c r="AA15" s="19">
         <v>60.13</v>
       </c>
-      <c r="T15" s="21">
+      <c r="AB15" s="19">
         <v>37.58</v>
       </c>
-      <c r="U15" s="21">
+      <c r="AC15" s="19">
         <v>1.0326853323742</v>
       </c>
-      <c r="V15" s="21">
+      <c r="AD15" s="19">
         <v>67.20999999999999</v>
       </c>
-      <c r="W15" s="21">
+      <c r="AE15" s="19">
         <v>35.37</v>
       </c>
-      <c r="X15" s="21">
+      <c r="AF15" s="19">
         <v>0.667759307128749</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="AG15" s="19">
         <v>61.13</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="21">
-        <v>36.93</v>
-      </c>
-      <c r="AB15" s="21">
-        <v>61.16</v>
-      </c>
-      <c r="AC15" s="21">
-        <v>0.667759307128749</v>
-      </c>
-      <c r="AD15" s="21">
-        <v>61.13</v>
-      </c>
-      <c r="AE15" s="21">
-        <v>60.13</v>
-      </c>
-      <c r="AF15" s="21">
-        <v>67.20999999999999</v>
-      </c>
-      <c r="AG15" s="21">
-        <v>47.39</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>18</v>
       </c>
-      <c r="B16" t="s" s="18">
+      <c r="B16" t="s" s="17">
         <v>61</v>
       </c>
-      <c r="C16" t="s" s="19">
+      <c r="C16" t="s" s="18">
         <v>62</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>2022</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
+        <v>48.92</v>
+      </c>
+      <c r="F16" s="19">
+        <v>49.53</v>
+      </c>
+      <c r="G16" s="19">
+        <v>41.67</v>
+      </c>
+      <c r="H16" s="19">
+        <v>39.13</v>
+      </c>
+      <c r="I16" s="19">
+        <v>62.44</v>
+      </c>
+      <c r="J16" s="19">
+        <v>51.84</v>
+      </c>
+      <c r="K16" s="19">
+        <v>43.96</v>
+      </c>
+      <c r="L16" s="19">
+        <v>53.85</v>
+      </c>
+      <c r="M16" s="19">
         <v>1.42</v>
       </c>
-      <c r="F16" s="21">
+      <c r="N16" s="19">
         <v>-0.49961326593294</v>
       </c>
-      <c r="G16" s="21">
+      <c r="O16" s="19">
         <v>41.67</v>
       </c>
-      <c r="H16" s="21">
+      <c r="P16" s="19">
         <v>6.14</v>
       </c>
-      <c r="I16" s="21">
+      <c r="Q16" s="19">
         <v>-0.652117890751765</v>
       </c>
-      <c r="J16" s="21">
+      <c r="R16" s="19">
         <v>39.13</v>
       </c>
-      <c r="K16" s="21">
+      <c r="S16" s="19">
         <v>0.19</v>
       </c>
-      <c r="L16" s="21">
+      <c r="T16" s="19">
         <v>0.746133905194683</v>
       </c>
-      <c r="M16" s="21">
+      <c r="U16" s="19">
         <v>62.44</v>
       </c>
-      <c r="N16" s="21">
+      <c r="V16" s="19">
         <v>92.90000000000001</v>
       </c>
-      <c r="O16" s="21">
+      <c r="W16" s="19">
         <v>-0.0283324806347056</v>
       </c>
-      <c r="P16" s="21">
+      <c r="X16" s="19">
         <v>49.53</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Y16" s="19">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R16" s="21">
+      <c r="Z16" s="19">
         <v>0.110187161118536</v>
       </c>
-      <c r="S16" s="21">
+      <c r="AA16" s="19">
         <v>51.84</v>
       </c>
-      <c r="T16" s="21">
+      <c r="AB16" s="19">
         <v>44.75</v>
       </c>
-      <c r="U16" s="21">
+      <c r="AC16" s="19">
         <v>0.230747484914406</v>
       </c>
-      <c r="V16" s="21">
+      <c r="AD16" s="19">
         <v>53.85</v>
       </c>
-      <c r="W16" s="21">
+      <c r="AE16" s="19">
         <v>43.57</v>
       </c>
-      <c r="X16" s="21">
+      <c r="AF16" s="19">
         <v>-0.362685715163152</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="AG16" s="19">
         <v>43.96</v>
-      </c>
-      <c r="Z16" s="21">
-        <v>41.67</v>
-      </c>
-      <c r="AA16" s="21">
-        <v>39.13</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>62.44</v>
-      </c>
-      <c r="AC16" s="21">
-        <v>-0.362685715163152</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>43.96</v>
-      </c>
-      <c r="AE16" s="21">
-        <v>51.84</v>
-      </c>
-      <c r="AF16" s="21">
-        <v>53.85</v>
-      </c>
-      <c r="AG16" s="21">
-        <v>48.92</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>19</v>
       </c>
-      <c r="B17" t="s" s="18">
+      <c r="B17" t="s" s="17">
         <v>63</v>
       </c>
-      <c r="C17" t="s" s="19">
+      <c r="C17" t="s" s="18">
         <v>64</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>2022</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
+        <v>39.98</v>
+      </c>
+      <c r="F17" s="19">
+        <v>26.98</v>
+      </c>
+      <c r="G17" s="19">
+        <v>32.18</v>
+      </c>
+      <c r="H17" s="19">
+        <v>15.9</v>
+      </c>
+      <c r="I17" s="19">
+        <v>53.49</v>
+      </c>
+      <c r="J17" s="19">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="K17" s="19">
+        <v>44.4</v>
+      </c>
+      <c r="L17" s="19">
+        <v>42.42</v>
+      </c>
+      <c r="M17" s="19">
         <v>1.64</v>
       </c>
-      <c r="F17" s="21">
+      <c r="N17" s="19">
         <v>-1.06946129806383</v>
       </c>
-      <c r="G17" s="21">
+      <c r="O17" s="19">
         <v>32.18</v>
       </c>
-      <c r="H17" s="21">
+      <c r="P17" s="19">
         <v>8.15</v>
       </c>
-      <c r="I17" s="21">
+      <c r="Q17" s="19">
         <v>-2.04625497280074</v>
       </c>
-      <c r="J17" s="21">
+      <c r="R17" s="19">
         <v>15.9</v>
       </c>
-      <c r="K17" s="21">
+      <c r="S17" s="19">
         <v>0.26</v>
       </c>
-      <c r="L17" s="21">
+      <c r="T17" s="19">
         <v>0.209389356793765</v>
       </c>
-      <c r="M17" s="21">
+      <c r="U17" s="19">
         <v>53.49</v>
       </c>
-      <c r="N17" s="21">
+      <c r="V17" s="19">
         <v>90.43000000000001</v>
       </c>
-      <c r="O17" s="21">
+      <c r="W17" s="19">
         <v>-1.38112943703707</v>
       </c>
-      <c r="P17" s="21">
+      <c r="X17" s="19">
         <v>26.98</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Y17" s="19">
         <v>0.65</v>
       </c>
-      <c r="R17" s="21">
+      <c r="Z17" s="19">
         <v>0.869638581025213</v>
       </c>
-      <c r="S17" s="21">
+      <c r="AA17" s="19">
         <v>64.48999999999999</v>
       </c>
-      <c r="T17" s="21">
+      <c r="AB17" s="19">
         <v>50.88</v>
       </c>
-      <c r="U17" s="21">
+      <c r="AC17" s="19">
         <v>-0.45487022846475</v>
       </c>
-      <c r="V17" s="21">
+      <c r="AD17" s="19">
         <v>42.42</v>
       </c>
-      <c r="W17" s="21">
+      <c r="AE17" s="19">
         <v>43.36</v>
       </c>
-      <c r="X17" s="21">
+      <c r="AF17" s="19">
         <v>-0.336296269470311</v>
       </c>
-      <c r="Y17" s="21">
+      <c r="AG17" s="19">
         <v>44.4</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>32.18</v>
-      </c>
-      <c r="AA17" s="21">
-        <v>15.9</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>53.49</v>
-      </c>
-      <c r="AC17" s="21">
-        <v>-0.336296269470311</v>
-      </c>
-      <c r="AD17" s="21">
-        <v>44.4</v>
-      </c>
-      <c r="AE17" s="21">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="AF17" s="21">
-        <v>42.42</v>
-      </c>
-      <c r="AG17" s="21">
-        <v>39.98</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>20</v>
       </c>
-      <c r="B18" t="s" s="18">
+      <c r="B18" t="s" s="17">
         <v>65</v>
       </c>
-      <c r="C18" t="s" s="19">
+      <c r="C18" t="s" s="18">
         <v>66</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>2022</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
+        <v>42</v>
+      </c>
+      <c r="F18" s="19">
+        <v>35.38</v>
+      </c>
+      <c r="G18" s="19">
+        <v>46.85</v>
+      </c>
+      <c r="H18" s="19">
+        <v>29.65</v>
+      </c>
+      <c r="I18" s="19">
+        <v>48.38</v>
+      </c>
+      <c r="J18" s="19">
+        <v>33.94</v>
+      </c>
+      <c r="K18" s="19">
+        <v>56.92</v>
+      </c>
+      <c r="L18" s="19">
+        <v>42.85</v>
+      </c>
+      <c r="M18" s="19">
         <v>1.3</v>
       </c>
-      <c r="F18" s="21">
+      <c r="N18" s="19">
         <v>-0.188787066588818</v>
       </c>
-      <c r="G18" s="21">
+      <c r="O18" s="19">
         <v>46.85</v>
       </c>
-      <c r="H18" s="21">
+      <c r="P18" s="19">
         <v>6.96</v>
       </c>
-      <c r="I18" s="21">
+      <c r="Q18" s="19">
         <v>-1.22087033218468</v>
       </c>
-      <c r="J18" s="21">
+      <c r="R18" s="19">
         <v>29.65</v>
       </c>
-      <c r="K18" s="21">
+      <c r="S18" s="19">
         <v>0.3</v>
       </c>
-      <c r="L18" s="21">
+      <c r="T18" s="19">
         <v>-0.09732181372104549</v>
       </c>
-      <c r="M18" s="21">
+      <c r="U18" s="19">
         <v>48.38</v>
       </c>
-      <c r="N18" s="21">
+      <c r="V18" s="19">
         <v>91.34999999999999</v>
       </c>
-      <c r="O18" s="21">
+      <c r="W18" s="19">
         <v>-0.877253647607854</v>
       </c>
-      <c r="P18" s="21">
+      <c r="X18" s="19">
         <v>35.38</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Y18" s="19">
         <v>1.35</v>
       </c>
-      <c r="R18" s="21">
+      <c r="Z18" s="19">
         <v>-0.963520018749526</v>
       </c>
-      <c r="S18" s="21">
+      <c r="AA18" s="19">
         <v>33.94</v>
       </c>
-      <c r="T18" s="21">
+      <c r="AB18" s="19">
         <v>50.65</v>
       </c>
-      <c r="U18" s="21">
+      <c r="AC18" s="19">
         <v>-0.429145583427685</v>
       </c>
-      <c r="V18" s="21">
+      <c r="AD18" s="19">
         <v>42.85</v>
       </c>
-      <c r="W18" s="21">
+      <c r="AE18" s="19">
         <v>37.38</v>
       </c>
-      <c r="X18" s="21">
+      <c r="AF18" s="19">
         <v>0.415174612640124</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="AG18" s="19">
         <v>56.92</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>46.85</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>29.65</v>
-      </c>
-      <c r="AB18" s="21">
-        <v>48.38</v>
-      </c>
-      <c r="AC18" s="21">
-        <v>0.415174612640124</v>
-      </c>
-      <c r="AD18" s="21">
-        <v>56.92</v>
-      </c>
-      <c r="AE18" s="21">
-        <v>33.94</v>
-      </c>
-      <c r="AF18" s="21">
-        <v>42.85</v>
-      </c>
-      <c r="AG18" s="21">
-        <v>42</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>21</v>
       </c>
-      <c r="B19" t="s" s="18">
+      <c r="B19" t="s" s="17">
         <v>67</v>
       </c>
-      <c r="C19" t="s" s="19">
+      <c r="C19" t="s" s="18">
         <v>68</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>2022</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
+        <v>51.75</v>
+      </c>
+      <c r="F19" s="19">
+        <v>61.49</v>
+      </c>
+      <c r="G19" s="19">
+        <v>54.62</v>
+      </c>
+      <c r="H19" s="19">
+        <v>54.51</v>
+      </c>
+      <c r="I19" s="19">
+        <v>58.6</v>
+      </c>
+      <c r="J19" s="19">
+        <v>33.94</v>
+      </c>
+      <c r="K19" s="19">
+        <v>50.36</v>
+      </c>
+      <c r="L19" s="19">
+        <v>48.76</v>
+      </c>
+      <c r="M19" s="19">
         <v>1.12</v>
       </c>
-      <c r="F19" s="21">
+      <c r="N19" s="19">
         <v>0.277452232427365</v>
       </c>
-      <c r="G19" s="21">
+      <c r="O19" s="19">
         <v>54.62</v>
       </c>
-      <c r="H19" s="21">
+      <c r="P19" s="19">
         <v>4.81</v>
       </c>
-      <c r="I19" s="21">
+      <c r="Q19" s="19">
         <v>0.270370825230891</v>
       </c>
-      <c r="J19" s="21">
+      <c r="R19" s="19">
         <v>54.51</v>
       </c>
-      <c r="K19" s="21">
+      <c r="S19" s="19">
         <v>0.22</v>
       </c>
-      <c r="L19" s="21">
+      <c r="T19" s="19">
         <v>0.516100527308576</v>
       </c>
-      <c r="M19" s="21">
+      <c r="U19" s="19">
         <v>58.6</v>
       </c>
-      <c r="N19" s="21">
+      <c r="V19" s="19">
         <v>94.20999999999999</v>
       </c>
-      <c r="O19" s="21">
+      <c r="W19" s="19">
         <v>0.68914282822646</v>
       </c>
-      <c r="P19" s="21">
+      <c r="X19" s="19">
         <v>61.49</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Y19" s="19">
         <v>1.35</v>
       </c>
-      <c r="R19" s="21">
+      <c r="Z19" s="19">
         <v>-0.963520018749526</v>
       </c>
-      <c r="S19" s="21">
+      <c r="AA19" s="19">
         <v>33.94</v>
       </c>
-      <c r="T19" s="21">
+      <c r="AB19" s="19">
         <v>47.48</v>
       </c>
-      <c r="U19" s="21">
+      <c r="AC19" s="19">
         <v>-0.0745928670472733</v>
       </c>
-      <c r="V19" s="21">
+      <c r="AD19" s="19">
         <v>48.76</v>
       </c>
-      <c r="W19" s="21">
+      <c r="AE19" s="19">
         <v>40.51</v>
       </c>
-      <c r="X19" s="21">
+      <c r="AF19" s="19">
         <v>0.0218462077896794</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="AG19" s="19">
         <v>50.36</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>54.62</v>
-      </c>
-      <c r="AA19" s="21">
-        <v>54.51</v>
-      </c>
-      <c r="AB19" s="21">
-        <v>58.6</v>
-      </c>
-      <c r="AC19" s="21">
-        <v>0.0218462077896794</v>
-      </c>
-      <c r="AD19" s="21">
-        <v>50.36</v>
-      </c>
-      <c r="AE19" s="21">
-        <v>33.94</v>
-      </c>
-      <c r="AF19" s="21">
-        <v>48.76</v>
-      </c>
-      <c r="AG19" s="21">
-        <v>51.75</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>22</v>
       </c>
-      <c r="B20" t="s" s="18">
+      <c r="B20" t="s" s="17">
         <v>69</v>
       </c>
-      <c r="C20" t="s" s="19">
+      <c r="C20" t="s" s="18">
         <v>70</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>2022</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
+        <v>55.66</v>
+      </c>
+      <c r="F20" s="19">
+        <v>62.22</v>
+      </c>
+      <c r="G20" s="19">
+        <v>48.58</v>
+      </c>
+      <c r="H20" s="19">
+        <v>55.2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>62.44</v>
+      </c>
+      <c r="J20" s="19">
+        <v>37</v>
+      </c>
+      <c r="K20" s="19">
+        <v>60.38</v>
+      </c>
+      <c r="L20" s="19">
+        <v>63.8</v>
+      </c>
+      <c r="M20" s="19">
         <v>1.26</v>
       </c>
-      <c r="F20" s="21">
+      <c r="N20" s="19">
         <v>-0.0851783334741105</v>
       </c>
-      <c r="G20" s="21">
+      <c r="O20" s="19">
         <v>48.58</v>
       </c>
-      <c r="H20" s="21">
+      <c r="P20" s="19">
         <v>4.75</v>
       </c>
-      <c r="I20" s="21">
+      <c r="Q20" s="19">
         <v>0.311986857530861</v>
       </c>
-      <c r="J20" s="21">
+      <c r="R20" s="19">
         <v>55.2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="S20" s="19">
         <v>0.19</v>
       </c>
-      <c r="L20" s="21">
+      <c r="T20" s="19">
         <v>0.746133905194683</v>
       </c>
-      <c r="M20" s="21">
+      <c r="U20" s="19">
         <v>62.44</v>
       </c>
-      <c r="N20" s="21">
+      <c r="V20" s="19">
         <v>94.29000000000001</v>
       </c>
-      <c r="O20" s="21">
+      <c r="W20" s="19">
         <v>0.73295811426379</v>
       </c>
-      <c r="P20" s="21">
+      <c r="X20" s="19">
         <v>62.22</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Y20" s="19">
         <v>1.28</v>
       </c>
-      <c r="R20" s="21">
+      <c r="Z20" s="19">
         <v>-0.780204158772052</v>
       </c>
-      <c r="S20" s="21">
+      <c r="AA20" s="19">
         <v>37</v>
       </c>
-      <c r="T20" s="21">
+      <c r="AB20" s="19">
         <v>39.41</v>
       </c>
-      <c r="U20" s="21">
+      <c r="AC20" s="19">
         <v>0.828006634905383</v>
       </c>
-      <c r="V20" s="21">
+      <c r="AD20" s="19">
         <v>63.8</v>
       </c>
-      <c r="W20" s="21">
+      <c r="AE20" s="19">
         <v>35.73</v>
       </c>
-      <c r="X20" s="21">
+      <c r="AF20" s="19">
         <v>0.622520257369592</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="AG20" s="19">
         <v>60.38</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>48.58</v>
-      </c>
-      <c r="AA20" s="21">
-        <v>55.2</v>
-      </c>
-      <c r="AB20" s="21">
-        <v>62.44</v>
-      </c>
-      <c r="AC20" s="21">
-        <v>0.622520257369592</v>
-      </c>
-      <c r="AD20" s="21">
-        <v>60.38</v>
-      </c>
-      <c r="AE20" s="21">
-        <v>37</v>
-      </c>
-      <c r="AF20" s="21">
-        <v>63.8</v>
-      </c>
-      <c r="AG20" s="21">
-        <v>55.66</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>23</v>
       </c>
-      <c r="B21" t="s" s="18">
+      <c r="B21" t="s" s="17">
         <v>71</v>
       </c>
-      <c r="C21" t="s" s="19">
+      <c r="C21" t="s" s="18">
         <v>72</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>2022</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
+        <v>44.57</v>
+      </c>
+      <c r="F21" s="19">
+        <v>45.88</v>
+      </c>
+      <c r="G21" s="19">
+        <v>56.78</v>
+      </c>
+      <c r="H21" s="19">
+        <v>43.29</v>
+      </c>
+      <c r="I21" s="19">
+        <v>43.27</v>
+      </c>
+      <c r="J21" s="19">
+        <v>68.42</v>
+      </c>
+      <c r="K21" s="19">
+        <v>34.47</v>
+      </c>
+      <c r="L21" s="19">
+        <v>19.86</v>
+      </c>
+      <c r="M21" s="19">
         <v>1.07</v>
       </c>
-      <c r="F21" s="21">
+      <c r="N21" s="19">
         <v>0.40696314882075</v>
       </c>
-      <c r="G21" s="21">
+      <c r="O21" s="19">
         <v>56.78</v>
       </c>
-      <c r="H21" s="21">
+      <c r="P21" s="19">
         <v>5.78</v>
       </c>
-      <c r="I21" s="21">
+      <c r="Q21" s="19">
         <v>-0.402421696951949</v>
       </c>
-      <c r="J21" s="21">
+      <c r="R21" s="19">
         <v>43.29</v>
       </c>
-      <c r="K21" s="21">
+      <c r="S21" s="19">
         <v>0.34</v>
       </c>
-      <c r="L21" s="21">
+      <c r="T21" s="19">
         <v>-0.404032984235856</v>
       </c>
-      <c r="M21" s="21">
+      <c r="U21" s="19">
         <v>43.27</v>
       </c>
-      <c r="N21" s="21">
+      <c r="V21" s="19">
         <v>92.5</v>
       </c>
-      <c r="O21" s="21">
+      <c r="W21" s="19">
         <v>-0.247408910821326</v>
       </c>
-      <c r="P21" s="21">
+      <c r="X21" s="19">
         <v>45.88</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Y21" s="19">
         <v>0.5600000000000001</v>
       </c>
-      <c r="R21" s="21">
+      <c r="Z21" s="19">
         <v>1.10533040099625</v>
       </c>
-      <c r="S21" s="21">
+      <c r="AA21" s="19">
         <v>68.42</v>
       </c>
-      <c r="T21" s="21">
+      <c r="AB21" s="19">
         <v>62.98</v>
       </c>
-      <c r="U21" s="21">
+      <c r="AC21" s="19">
         <v>-1.80821024997988</v>
       </c>
-      <c r="V21" s="21">
+      <c r="AD21" s="19">
         <v>19.86</v>
       </c>
-      <c r="W21" s="21">
+      <c r="AE21" s="19">
         <v>48.1</v>
       </c>
-      <c r="X21" s="21">
+      <c r="AF21" s="19">
         <v>-0.931943757965873</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="AG21" s="19">
         <v>34.47</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>56.78</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>43.29</v>
-      </c>
-      <c r="AB21" s="21">
-        <v>43.27</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>-0.931943757965873</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>34.47</v>
-      </c>
-      <c r="AE21" s="21">
-        <v>68.42</v>
-      </c>
-      <c r="AF21" s="21">
-        <v>19.86</v>
-      </c>
-      <c r="AG21" s="21">
-        <v>44.57</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>24</v>
       </c>
-      <c r="B22" t="s" s="18">
+      <c r="B22" t="s" s="17">
         <v>73</v>
       </c>
-      <c r="C22" t="s" s="19">
+      <c r="C22" t="s" s="18">
         <v>74</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>2022</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
+        <v>50.32</v>
+      </c>
+      <c r="F22" s="19">
+        <v>51.35</v>
+      </c>
+      <c r="G22" s="19">
+        <v>33.47</v>
+      </c>
+      <c r="H22" s="19">
+        <v>51.15</v>
+      </c>
+      <c r="I22" s="19">
+        <v>56.05</v>
+      </c>
+      <c r="J22" s="19">
+        <v>55.76</v>
+      </c>
+      <c r="K22" s="19">
+        <v>47.29</v>
+      </c>
+      <c r="L22" s="19">
+        <v>57.18</v>
+      </c>
+      <c r="M22" s="19">
         <v>1.61</v>
       </c>
-      <c r="F22" s="21">
+      <c r="N22" s="19">
         <v>-0.991754748227801</v>
       </c>
-      <c r="G22" s="21">
+      <c r="O22" s="19">
         <v>33.47</v>
       </c>
-      <c r="H22" s="21">
+      <c r="P22" s="19">
         <v>5.1</v>
       </c>
-      <c r="I22" s="21">
+      <c r="Q22" s="19">
         <v>0.06922666911437229</v>
       </c>
-      <c r="J22" s="21">
+      <c r="R22" s="19">
         <v>51.15</v>
       </c>
-      <c r="K22" s="21">
+      <c r="S22" s="19">
         <v>0.24</v>
       </c>
-      <c r="L22" s="21">
+      <c r="T22" s="19">
         <v>0.36274494205117</v>
       </c>
-      <c r="M22" s="21">
+      <c r="U22" s="19">
         <v>56.05</v>
       </c>
-      <c r="N22" s="21">
+      <c r="V22" s="19">
         <v>93.09999999999999</v>
       </c>
-      <c r="O22" s="21">
+      <c r="W22" s="19">
         <v>0.0812057344585969</v>
       </c>
-      <c r="P22" s="21">
+      <c r="X22" s="19">
         <v>51.35</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Y22" s="19">
         <v>0.85</v>
       </c>
-      <c r="R22" s="21">
+      <c r="Z22" s="19">
         <v>0.345878981089574</v>
       </c>
-      <c r="S22" s="21">
+      <c r="AA22" s="19">
         <v>55.76</v>
       </c>
-      <c r="T22" s="21">
+      <c r="AB22" s="19">
         <v>42.96</v>
       </c>
-      <c r="U22" s="21">
+      <c r="AC22" s="19">
         <v>0.43095233107243</v>
       </c>
-      <c r="V22" s="21">
+      <c r="AD22" s="19">
         <v>57.18</v>
       </c>
-      <c r="W22" s="21">
+      <c r="AE22" s="19">
         <v>41.98</v>
       </c>
-      <c r="X22" s="21">
+      <c r="AF22" s="19">
         <v>-0.16287991206021</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="AG22" s="19">
         <v>47.29</v>
-      </c>
-      <c r="Z22" s="21">
-        <v>33.47</v>
-      </c>
-      <c r="AA22" s="21">
-        <v>51.15</v>
-      </c>
-      <c r="AB22" s="21">
-        <v>56.05</v>
-      </c>
-      <c r="AC22" s="21">
-        <v>-0.16287991206021</v>
-      </c>
-      <c r="AD22" s="21">
-        <v>47.29</v>
-      </c>
-      <c r="AE22" s="21">
-        <v>55.76</v>
-      </c>
-      <c r="AF22" s="21">
-        <v>57.18</v>
-      </c>
-      <c r="AG22" s="21">
-        <v>50.32</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>25</v>
       </c>
-      <c r="B23" t="s" s="18">
+      <c r="B23" t="s" s="17">
         <v>75</v>
       </c>
-      <c r="C23" t="s" s="19">
+      <c r="C23" t="s" s="18">
         <v>76</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>2022</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
+        <v>44.82</v>
+      </c>
+      <c r="F23" s="19">
+        <v>37.02</v>
+      </c>
+      <c r="G23" s="19">
+        <v>45.13</v>
+      </c>
+      <c r="H23" s="19">
+        <v>44.91</v>
+      </c>
+      <c r="I23" s="19">
+        <v>36.88</v>
+      </c>
+      <c r="J23" s="19">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="K23" s="19">
+        <v>33.63</v>
+      </c>
+      <c r="L23" s="19">
+        <v>43.39</v>
+      </c>
+      <c r="M23" s="19">
         <v>1.34</v>
       </c>
-      <c r="F23" s="21">
+      <c r="N23" s="19">
         <v>-0.292395799703526</v>
       </c>
-      <c r="G23" s="21">
+      <c r="O23" s="19">
         <v>45.13</v>
       </c>
-      <c r="H23" s="21">
+      <c r="P23" s="19">
         <v>5.64</v>
       </c>
-      <c r="I23" s="21">
+      <c r="Q23" s="19">
         <v>-0.305317621585353</v>
       </c>
-      <c r="J23" s="21">
+      <c r="R23" s="19">
         <v>44.91</v>
       </c>
-      <c r="K23" s="21">
+      <c r="S23" s="19">
         <v>0.39</v>
       </c>
-      <c r="L23" s="21">
+      <c r="T23" s="19">
         <v>-0.787421947379369</v>
       </c>
-      <c r="M23" s="21">
+      <c r="U23" s="19">
         <v>36.88</v>
       </c>
-      <c r="N23" s="21">
+      <c r="V23" s="19">
         <v>91.53</v>
       </c>
-      <c r="O23" s="21">
+      <c r="W23" s="19">
         <v>-0.778669254023872</v>
       </c>
-      <c r="P23" s="21">
+      <c r="X23" s="19">
         <v>37.02</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Y23" s="19">
         <v>0.46</v>
       </c>
-      <c r="R23" s="21">
+      <c r="Z23" s="19">
         <v>1.36721020096407</v>
       </c>
-      <c r="S23" s="21">
+      <c r="AA23" s="19">
         <v>72.79000000000001</v>
       </c>
-      <c r="T23" s="21">
+      <c r="AB23" s="19">
         <v>50.36</v>
       </c>
-      <c r="U23" s="21">
+      <c r="AC23" s="19">
         <v>-0.39671016142443</v>
       </c>
-      <c r="V23" s="21">
+      <c r="AD23" s="19">
         <v>43.39</v>
       </c>
-      <c r="W23" s="21">
+      <c r="AE23" s="19">
         <v>48.5</v>
       </c>
-      <c r="X23" s="21">
+      <c r="AF23" s="19">
         <v>-0.98220936880938</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="AG23" s="19">
         <v>33.63</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>45.13</v>
-      </c>
-      <c r="AA23" s="21">
-        <v>44.91</v>
-      </c>
-      <c r="AB23" s="21">
-        <v>36.88</v>
-      </c>
-      <c r="AC23" s="21">
-        <v>-0.98220936880938</v>
-      </c>
-      <c r="AD23" s="21">
-        <v>33.63</v>
-      </c>
-      <c r="AE23" s="21">
-        <v>72.79000000000001</v>
-      </c>
-      <c r="AF23" s="21">
-        <v>43.39</v>
-      </c>
-      <c r="AG23" s="21">
-        <v>44.82</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>26</v>
       </c>
-      <c r="B24" t="s" s="18">
+      <c r="B24" t="s" s="17">
         <v>77</v>
       </c>
-      <c r="C24" t="s" s="19">
+      <c r="C24" t="s" s="18">
         <v>78</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>2022</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
+        <v>50.92</v>
+      </c>
+      <c r="F24" s="19">
+        <v>59.02</v>
+      </c>
+      <c r="G24" s="19">
+        <v>62.39</v>
+      </c>
+      <c r="H24" s="19">
+        <v>59.01</v>
+      </c>
+      <c r="I24" s="19">
+        <v>52.21</v>
+      </c>
+      <c r="J24" s="19">
+        <v>43.11</v>
+      </c>
+      <c r="K24" s="19">
+        <v>31.89</v>
+      </c>
+      <c r="L24" s="19">
+        <v>48.83</v>
+      </c>
+      <c r="M24" s="19">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F24" s="21">
+      <c r="N24" s="19">
         <v>0.74369153144355</v>
       </c>
-      <c r="G24" s="21">
+      <c r="O24" s="19">
         <v>62.39</v>
       </c>
-      <c r="H24" s="21">
+      <c r="P24" s="19">
         <v>4.42</v>
       </c>
-      <c r="I24" s="21">
+      <c r="Q24" s="19">
         <v>0.540875035180693</v>
       </c>
-      <c r="J24" s="21">
+      <c r="R24" s="19">
         <v>59.01</v>
       </c>
-      <c r="K24" s="21">
+      <c r="S24" s="19">
         <v>0.27</v>
       </c>
-      <c r="L24" s="21">
+      <c r="T24" s="19">
         <v>0.132711564165062</v>
       </c>
-      <c r="M24" s="21">
+      <c r="U24" s="19">
         <v>52.21</v>
       </c>
-      <c r="N24" s="21">
+      <c r="V24" s="19">
         <v>93.94</v>
       </c>
-      <c r="O24" s="21">
+      <c r="W24" s="19">
         <v>0.541266237850495</v>
       </c>
-      <c r="P24" s="21">
+      <c r="X24" s="19">
         <v>59.02</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Y24" s="19">
         <v>1.14</v>
       </c>
-      <c r="R24" s="21">
+      <c r="Z24" s="19">
         <v>-0.413572438817104</v>
       </c>
-      <c r="S24" s="21">
+      <c r="AA24" s="19">
         <v>43.11</v>
       </c>
-      <c r="T24" s="21">
+      <c r="AB24" s="19">
         <v>47.44</v>
       </c>
-      <c r="U24" s="21">
+      <c r="AC24" s="19">
         <v>-0.07011901573647961</v>
       </c>
-      <c r="V24" s="21">
+      <c r="AD24" s="19">
         <v>48.83</v>
       </c>
-      <c r="W24" s="21">
+      <c r="AE24" s="19">
         <v>49.33</v>
       </c>
-      <c r="X24" s="21">
+      <c r="AF24" s="19">
         <v>-1.08651051130966</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="AG24" s="19">
         <v>31.89</v>
-      </c>
-      <c r="Z24" s="21">
-        <v>62.39</v>
-      </c>
-      <c r="AA24" s="21">
-        <v>59.01</v>
-      </c>
-      <c r="AB24" s="21">
-        <v>52.21</v>
-      </c>
-      <c r="AC24" s="21">
-        <v>-1.08651051130966</v>
-      </c>
-      <c r="AD24" s="21">
-        <v>31.89</v>
-      </c>
-      <c r="AE24" s="21">
-        <v>43.11</v>
-      </c>
-      <c r="AF24" s="21">
-        <v>48.83</v>
-      </c>
-      <c r="AG24" s="21">
-        <v>50.92</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>27</v>
       </c>
-      <c r="B25" t="s" s="18">
+      <c r="B25" t="s" s="17">
         <v>79</v>
       </c>
-      <c r="C25" t="s" s="19">
+      <c r="C25" t="s" s="18">
         <v>80</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>2022</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
+        <v>40.91</v>
+      </c>
+      <c r="F25" s="19">
+        <v>22.14</v>
+      </c>
+      <c r="G25" s="19">
+        <v>46.42</v>
+      </c>
+      <c r="H25" s="19">
+        <v>34.97</v>
+      </c>
+      <c r="I25" s="19">
+        <v>26.65</v>
+      </c>
+      <c r="J25" s="19">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="K25" s="19">
+        <v>34.47</v>
+      </c>
+      <c r="L25" s="19">
+        <v>50.7</v>
+      </c>
+      <c r="M25" s="19">
         <v>1.31</v>
       </c>
-      <c r="F25" s="21">
+      <c r="N25" s="19">
         <v>-0.214689249867495</v>
       </c>
-      <c r="G25" s="21">
+      <c r="O25" s="19">
         <v>46.42</v>
       </c>
-      <c r="H25" s="21">
+      <c r="P25" s="19">
         <v>6.5</v>
       </c>
-      <c r="I25" s="21">
+      <c r="Q25" s="19">
         <v>-0.901814084551583</v>
       </c>
-      <c r="J25" s="21">
+      <c r="R25" s="19">
         <v>34.97</v>
       </c>
-      <c r="K25" s="21">
+      <c r="S25" s="19">
         <v>0.47</v>
       </c>
-      <c r="L25" s="21">
+      <c r="T25" s="19">
         <v>-1.40084428840899</v>
       </c>
-      <c r="M25" s="21">
+      <c r="U25" s="19">
         <v>26.65</v>
       </c>
-      <c r="N25" s="21">
+      <c r="V25" s="19">
         <v>89.90000000000001</v>
       </c>
-      <c r="O25" s="21">
+      <c r="W25" s="19">
         <v>-1.67140570703434</v>
       </c>
-      <c r="P25" s="21">
+      <c r="X25" s="19">
         <v>22.14</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Y25" s="19">
         <v>0.5</v>
       </c>
-      <c r="R25" s="21">
+      <c r="Z25" s="19">
         <v>1.26245828097694</v>
       </c>
-      <c r="S25" s="21">
+      <c r="AA25" s="19">
         <v>71.04000000000001</v>
       </c>
-      <c r="T25" s="21">
+      <c r="AB25" s="19">
         <v>46.44</v>
       </c>
-      <c r="U25" s="21">
+      <c r="AC25" s="19">
         <v>0.0417272670333663</v>
       </c>
-      <c r="V25" s="21">
+      <c r="AD25" s="19">
         <v>50.7</v>
       </c>
-      <c r="W25" s="21">
+      <c r="AE25" s="19">
         <v>48.1</v>
       </c>
-      <c r="X25" s="21">
+      <c r="AF25" s="19">
         <v>-0.931943757965873</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="AG25" s="19">
         <v>34.47</v>
-      </c>
-      <c r="Z25" s="21">
-        <v>46.42</v>
-      </c>
-      <c r="AA25" s="21">
-        <v>34.97</v>
-      </c>
-      <c r="AB25" s="21">
-        <v>26.65</v>
-      </c>
-      <c r="AC25" s="21">
-        <v>-0.931943757965873</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>34.47</v>
-      </c>
-      <c r="AE25" s="21">
-        <v>71.04000000000001</v>
-      </c>
-      <c r="AF25" s="21">
-        <v>50.7</v>
-      </c>
-      <c r="AG25" s="21">
-        <v>40.91</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>28</v>
       </c>
-      <c r="B26" t="s" s="18">
+      <c r="B26" t="s" s="17">
         <v>81</v>
       </c>
-      <c r="C26" t="s" s="19">
+      <c r="C26" t="s" s="18">
         <v>82</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>2022</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
+        <v>54.73</v>
+      </c>
+      <c r="F26" s="19">
+        <v>58.02</v>
+      </c>
+      <c r="G26" s="19">
+        <v>29.15</v>
+      </c>
+      <c r="H26" s="19">
+        <v>48.61</v>
+      </c>
+      <c r="I26" s="19">
+        <v>61.16</v>
+      </c>
+      <c r="J26" s="19">
+        <v>45.73</v>
+      </c>
+      <c r="K26" s="19">
+        <v>67.06</v>
+      </c>
+      <c r="L26" s="19">
+        <v>73.36</v>
+      </c>
+      <c r="M26" s="19">
         <v>1.71</v>
       </c>
-      <c r="F26" s="21">
+      <c r="N26" s="19">
         <v>-1.25077658101457</v>
       </c>
-      <c r="G26" s="21">
+      <c r="O26" s="19">
         <v>29.15</v>
       </c>
-      <c r="H26" s="21">
+      <c r="P26" s="19">
         <v>5.32</v>
       </c>
-      <c r="I26" s="21">
+      <c r="Q26" s="19">
         <v>-0.08336544931884959</v>
       </c>
-      <c r="J26" s="21">
+      <c r="R26" s="19">
         <v>48.61</v>
       </c>
-      <c r="K26" s="21">
+      <c r="S26" s="19">
         <v>0.2</v>
       </c>
-      <c r="L26" s="21">
+      <c r="T26" s="19">
         <v>0.669456112565981</v>
       </c>
-      <c r="M26" s="21">
+      <c r="U26" s="19">
         <v>61.16</v>
       </c>
-      <c r="N26" s="21">
+      <c r="V26" s="19">
         <v>93.83</v>
       </c>
-      <c r="O26" s="21">
+      <c r="W26" s="19">
         <v>0.481020219549176</v>
       </c>
-      <c r="P26" s="21">
+      <c r="X26" s="19">
         <v>58.02</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Y26" s="19">
         <v>1.08</v>
       </c>
-      <c r="R26" s="21">
+      <c r="Z26" s="19">
         <v>-0.256444558836412</v>
       </c>
-      <c r="S26" s="21">
+      <c r="AA26" s="19">
         <v>45.73</v>
       </c>
-      <c r="T26" s="21">
+      <c r="AB26" s="19">
         <v>34.28</v>
       </c>
-      <c r="U26" s="21">
+      <c r="AC26" s="19">
         <v>1.40177806551469</v>
       </c>
-      <c r="V26" s="21">
+      <c r="AD26" s="19">
         <v>73.36</v>
       </c>
-      <c r="W26" s="21">
+      <c r="AE26" s="19">
         <v>32.54</v>
       </c>
-      <c r="X26" s="21">
+      <c r="AF26" s="19">
         <v>1.02338850384656</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="AG26" s="19">
         <v>67.06</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>29.15</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>48.61</v>
-      </c>
-      <c r="AB26" s="21">
-        <v>61.16</v>
-      </c>
-      <c r="AC26" s="21">
-        <v>1.02338850384656</v>
-      </c>
-      <c r="AD26" s="21">
-        <v>67.06</v>
-      </c>
-      <c r="AE26" s="21">
-        <v>45.73</v>
-      </c>
-      <c r="AF26" s="21">
-        <v>73.36</v>
-      </c>
-      <c r="AG26" s="21">
-        <v>54.73</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>29</v>
       </c>
-      <c r="B27" t="s" s="18">
+      <c r="B27" t="s" s="17">
         <v>83</v>
       </c>
-      <c r="C27" t="s" s="19">
+      <c r="C27" t="s" s="18">
         <v>84</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>2022</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
+        <v>45.99</v>
+      </c>
+      <c r="F27" s="19">
+        <v>47.7</v>
+      </c>
+      <c r="G27" s="19">
+        <v>19.66</v>
+      </c>
+      <c r="H27" s="19">
+        <v>38.09</v>
+      </c>
+      <c r="I27" s="19">
+        <v>58.6</v>
+      </c>
+      <c r="J27" s="19">
+        <v>52.27</v>
+      </c>
+      <c r="K27" s="19">
+        <v>49.42</v>
+      </c>
+      <c r="L27" s="19">
+        <v>56.18</v>
+      </c>
+      <c r="M27" s="19">
         <v>1.93</v>
       </c>
-      <c r="F27" s="21">
+      <c r="N27" s="19">
         <v>-1.82062461314546</v>
       </c>
-      <c r="G27" s="21">
+      <c r="O27" s="19">
         <v>19.66</v>
       </c>
-      <c r="H27" s="21">
+      <c r="P27" s="19">
         <v>6.23</v>
       </c>
-      <c r="I27" s="21">
+      <c r="Q27" s="19">
         <v>-0.71454193920172</v>
       </c>
-      <c r="J27" s="21">
+      <c r="R27" s="19">
         <v>38.09</v>
       </c>
-      <c r="K27" s="21">
+      <c r="S27" s="19">
         <v>0.22</v>
       </c>
-      <c r="L27" s="21">
+      <c r="T27" s="19">
         <v>0.516100527308576</v>
       </c>
-      <c r="M27" s="21">
+      <c r="U27" s="19">
         <v>58.6</v>
       </c>
-      <c r="N27" s="21">
+      <c r="V27" s="19">
         <v>92.7</v>
       </c>
-      <c r="O27" s="21">
+      <c r="W27" s="19">
         <v>-0.137870695728016</v>
       </c>
-      <c r="P27" s="21">
+      <c r="X27" s="19">
         <v>47.7</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Y27" s="19">
         <v>0.93</v>
       </c>
-      <c r="R27" s="21">
+      <c r="Z27" s="19">
         <v>0.136375141115318</v>
       </c>
-      <c r="S27" s="21">
+      <c r="AA27" s="19">
         <v>52.27</v>
       </c>
-      <c r="T27" s="21">
+      <c r="AB27" s="19">
         <v>43.5</v>
       </c>
-      <c r="U27" s="21">
+      <c r="AC27" s="19">
         <v>0.370555338376713</v>
       </c>
-      <c r="V27" s="21">
+      <c r="AD27" s="19">
         <v>56.18</v>
       </c>
-      <c r="W27" s="21">
+      <c r="AE27" s="19">
         <v>40.96</v>
       </c>
-      <c r="X27" s="21">
+      <c r="AF27" s="19">
         <v>-0.0347026044092667</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="AG27" s="19">
         <v>49.42</v>
-      </c>
-      <c r="Z27" s="21">
-        <v>19.66</v>
-      </c>
-      <c r="AA27" s="21">
-        <v>38.09</v>
-      </c>
-      <c r="AB27" s="21">
-        <v>58.6</v>
-      </c>
-      <c r="AC27" s="21">
-        <v>-0.0347026044092667</v>
-      </c>
-      <c r="AD27" s="21">
-        <v>49.42</v>
-      </c>
-      <c r="AE27" s="21">
-        <v>52.27</v>
-      </c>
-      <c r="AF27" s="21">
-        <v>56.18</v>
-      </c>
-      <c r="AG27" s="21">
-        <v>45.99</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>30</v>
       </c>
-      <c r="B28" t="s" s="18">
+      <c r="B28" t="s" s="17">
         <v>85</v>
       </c>
-      <c r="C28" t="s" s="19">
+      <c r="C28" t="s" s="18">
         <v>86</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>2022</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
+        <v>48.12</v>
+      </c>
+      <c r="F28" s="19">
+        <v>47.52</v>
+      </c>
+      <c r="G28" s="19">
+        <v>50.74</v>
+      </c>
+      <c r="H28" s="19">
+        <v>49.77</v>
+      </c>
+      <c r="I28" s="19">
+        <v>41.99</v>
+      </c>
+      <c r="J28" s="19">
+        <v>53.15</v>
+      </c>
+      <c r="K28" s="19">
+        <v>60.19</v>
+      </c>
+      <c r="L28" s="19">
+        <v>33.47</v>
+      </c>
+      <c r="M28" s="19">
         <v>1.21</v>
       </c>
-      <c r="F28" s="21">
+      <c r="N28" s="19">
         <v>0.0443325829192739</v>
       </c>
-      <c r="G28" s="21">
+      <c r="O28" s="19">
         <v>50.74</v>
       </c>
-      <c r="H28" s="21">
+      <c r="P28" s="19">
         <v>5.22</v>
       </c>
-      <c r="I28" s="21">
+      <c r="Q28" s="19">
         <v>-0.0140053954855668</v>
       </c>
-      <c r="J28" s="21">
+      <c r="R28" s="19">
         <v>49.77</v>
       </c>
-      <c r="K28" s="21">
+      <c r="S28" s="19">
         <v>0.35</v>
       </c>
-      <c r="L28" s="21">
+      <c r="T28" s="19">
         <v>-0.480710776864559</v>
       </c>
-      <c r="M28" s="21">
+      <c r="U28" s="19">
         <v>41.99</v>
       </c>
-      <c r="N28" s="21">
+      <c r="V28" s="19">
         <v>92.68000000000001</v>
       </c>
-      <c r="O28" s="21">
+      <c r="W28" s="19">
         <v>-0.148824517237344</v>
       </c>
-      <c r="P28" s="21">
+      <c r="X28" s="19">
         <v>47.52</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Y28" s="19">
         <v>0.91</v>
       </c>
-      <c r="R28" s="21">
+      <c r="Z28" s="19">
         <v>0.188751101108882</v>
       </c>
-      <c r="S28" s="21">
+      <c r="AA28" s="19">
         <v>53.15</v>
       </c>
-      <c r="T28" s="21">
+      <c r="AB28" s="19">
         <v>55.68</v>
       </c>
-      <c r="U28" s="21">
+      <c r="AC28" s="19">
         <v>-0.99173238576001</v>
       </c>
-      <c r="V28" s="21">
+      <c r="AD28" s="19">
         <v>33.47</v>
       </c>
-      <c r="W28" s="21">
+      <c r="AE28" s="19">
         <v>35.82</v>
       </c>
-      <c r="X28" s="21">
+      <c r="AF28" s="19">
         <v>0.6112104949298029</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="AG28" s="19">
         <v>60.19</v>
-      </c>
-      <c r="Z28" s="21">
-        <v>50.74</v>
-      </c>
-      <c r="AA28" s="21">
-        <v>49.77</v>
-      </c>
-      <c r="AB28" s="21">
-        <v>41.99</v>
-      </c>
-      <c r="AC28" s="21">
-        <v>0.6112104949298029</v>
-      </c>
-      <c r="AD28" s="21">
-        <v>60.19</v>
-      </c>
-      <c r="AE28" s="21">
-        <v>53.15</v>
-      </c>
-      <c r="AF28" s="21">
-        <v>33.47</v>
-      </c>
-      <c r="AG28" s="21">
-        <v>48.12</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>31</v>
       </c>
-      <c r="B29" t="s" s="18">
+      <c r="B29" t="s" s="17">
         <v>87</v>
       </c>
-      <c r="C29" t="s" s="19">
+      <c r="C29" t="s" s="18">
         <v>88</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>2022</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
+        <v>49.77</v>
+      </c>
+      <c r="F29" s="19">
+        <v>46.97</v>
+      </c>
+      <c r="G29" s="19">
+        <v>32.61</v>
+      </c>
+      <c r="H29" s="19">
+        <v>39.13</v>
+      </c>
+      <c r="I29" s="19">
+        <v>61.16</v>
+      </c>
+      <c r="J29" s="19">
+        <v>63.62</v>
+      </c>
+      <c r="K29" s="19">
+        <v>58.89</v>
+      </c>
+      <c r="L29" s="19">
+        <v>46</v>
+      </c>
+      <c r="M29" s="19">
         <v>1.63</v>
       </c>
-      <c r="F29" s="21">
+      <c r="N29" s="19">
         <v>-1.04355911478515</v>
       </c>
-      <c r="G29" s="21">
+      <c r="O29" s="19">
         <v>32.61</v>
       </c>
-      <c r="H29" s="21">
+      <c r="P29" s="19">
         <v>6.14</v>
       </c>
-      <c r="I29" s="21">
+      <c r="Q29" s="19">
         <v>-0.652117890751765</v>
       </c>
-      <c r="J29" s="21">
+      <c r="R29" s="19">
         <v>39.13</v>
       </c>
-      <c r="K29" s="21">
+      <c r="S29" s="19">
         <v>0.2</v>
       </c>
-      <c r="L29" s="21">
+      <c r="T29" s="19">
         <v>0.669456112565981</v>
       </c>
-      <c r="M29" s="21">
+      <c r="U29" s="19">
         <v>61.16</v>
       </c>
-      <c r="N29" s="21">
+      <c r="V29" s="19">
         <v>92.62</v>
       </c>
-      <c r="O29" s="21">
+      <c r="W29" s="19">
         <v>-0.181685981765338</v>
       </c>
-      <c r="P29" s="21">
+      <c r="X29" s="19">
         <v>46.97</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Y29" s="19">
         <v>0.67</v>
       </c>
-      <c r="R29" s="21">
+      <c r="Z29" s="19">
         <v>0.817262621031649</v>
       </c>
-      <c r="S29" s="21">
+      <c r="AA29" s="19">
         <v>63.62</v>
       </c>
-      <c r="T29" s="21">
+      <c r="AB29" s="19">
         <v>48.96</v>
       </c>
-      <c r="U29" s="21">
+      <c r="AC29" s="19">
         <v>-0.240125365546646</v>
       </c>
-      <c r="V29" s="21">
+      <c r="AD29" s="19">
         <v>46</v>
       </c>
-      <c r="W29" s="21">
+      <c r="AE29" s="19">
         <v>36.44</v>
       </c>
-      <c r="X29" s="21">
+      <c r="AF29" s="19">
         <v>0.533298798122367</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="AG29" s="19">
         <v>58.89</v>
-      </c>
-      <c r="Z29" s="21">
-        <v>32.61</v>
-      </c>
-      <c r="AA29" s="21">
-        <v>39.13</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>61.16</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>0.533298798122367</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>58.89</v>
-      </c>
-      <c r="AE29" s="21">
-        <v>63.62</v>
-      </c>
-      <c r="AF29" s="21">
-        <v>46</v>
-      </c>
-      <c r="AG29" s="21">
-        <v>49.77</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>32</v>
       </c>
-      <c r="B30" t="s" s="18">
+      <c r="B30" t="s" s="17">
         <v>89</v>
       </c>
-      <c r="C30" t="s" s="19">
+      <c r="C30" t="s" s="18">
         <v>90</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>2022</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
+        <v>61.91</v>
+      </c>
+      <c r="F30" s="19">
+        <v>82.12</v>
+      </c>
+      <c r="G30" s="19">
+        <v>69.73</v>
+      </c>
+      <c r="H30" s="19">
+        <v>76.81999999999999</v>
+      </c>
+      <c r="I30" s="19">
+        <v>73.94</v>
+      </c>
+      <c r="J30" s="19">
+        <v>30.01</v>
+      </c>
+      <c r="K30" s="19">
+        <v>53.36</v>
+      </c>
+      <c r="L30" s="19">
+        <v>47.38</v>
+      </c>
+      <c r="M30" s="19">
         <v>0.77</v>
       </c>
-      <c r="F30" s="21">
+      <c r="N30" s="19">
         <v>1.18402864718106</v>
       </c>
-      <c r="G30" s="21">
+      <c r="O30" s="19">
         <v>69.73</v>
       </c>
-      <c r="H30" s="21">
+      <c r="P30" s="19">
         <v>2.88</v>
       </c>
-      <c r="I30" s="21">
+      <c r="Q30" s="19">
         <v>1.60901986421324</v>
       </c>
-      <c r="J30" s="21">
+      <c r="R30" s="19">
         <v>76.81999999999999</v>
       </c>
-      <c r="K30" s="21">
+      <c r="S30" s="19">
         <v>0.1</v>
       </c>
-      <c r="L30" s="21">
+      <c r="T30" s="19">
         <v>1.43623403885301</v>
       </c>
-      <c r="M30" s="21">
+      <c r="U30" s="19">
         <v>73.94</v>
       </c>
-      <c r="N30" s="21">
+      <c r="V30" s="19">
         <v>96.47</v>
       </c>
-      <c r="O30" s="21">
+      <c r="W30" s="19">
         <v>1.92692465878085</v>
       </c>
-      <c r="P30" s="21">
+      <c r="X30" s="19">
         <v>82.12</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Y30" s="19">
         <v>1.44</v>
       </c>
-      <c r="R30" s="21">
+      <c r="Z30" s="19">
         <v>-1.19921183872056</v>
       </c>
-      <c r="S30" s="21">
+      <c r="AA30" s="19">
         <v>30.01</v>
       </c>
-      <c r="T30" s="21">
+      <c r="AB30" s="19">
         <v>48.22</v>
       </c>
-      <c r="U30" s="21">
+      <c r="AC30" s="19">
         <v>-0.157359116296959</v>
       </c>
-      <c r="V30" s="21">
+      <c r="AD30" s="19">
         <v>47.38</v>
       </c>
-      <c r="W30" s="21">
+      <c r="AE30" s="19">
         <v>39.08</v>
       </c>
-      <c r="X30" s="21">
+      <c r="AF30" s="19">
         <v>0.201545766555218</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="AG30" s="19">
         <v>53.36</v>
-      </c>
-      <c r="Z30" s="21">
-        <v>69.73</v>
-      </c>
-      <c r="AA30" s="21">
-        <v>76.81999999999999</v>
-      </c>
-      <c r="AB30" s="21">
-        <v>73.94</v>
-      </c>
-      <c r="AC30" s="21">
-        <v>0.201545766555218</v>
-      </c>
-      <c r="AD30" s="21">
-        <v>53.36</v>
-      </c>
-      <c r="AE30" s="21">
-        <v>30.01</v>
-      </c>
-      <c r="AF30" s="21">
-        <v>47.38</v>
-      </c>
-      <c r="AG30" s="21">
-        <v>61.91</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>33</v>
       </c>
-      <c r="B31" t="s" s="18">
+      <c r="B31" t="s" s="17">
         <v>91</v>
       </c>
-      <c r="C31" t="s" s="19">
+      <c r="C31" t="s" s="18">
         <v>92</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>2022</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
+        <v>40.27</v>
+      </c>
+      <c r="F31" s="19">
+        <v>40.22</v>
+      </c>
+      <c r="G31" s="19">
+        <v>60.67</v>
+      </c>
+      <c r="H31" s="19">
+        <v>41.21</v>
+      </c>
+      <c r="I31" s="19">
+        <v>43.27</v>
+      </c>
+      <c r="J31" s="19">
+        <v>64.48999999999999</v>
+      </c>
+      <c r="K31" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="L31" s="19">
+        <v>18.65</v>
+      </c>
+      <c r="M31" s="19">
         <v>0.98</v>
       </c>
-      <c r="F31" s="21">
+      <c r="N31" s="19">
         <v>0.640082798328842</v>
       </c>
-      <c r="G31" s="21">
+      <c r="O31" s="19">
         <v>60.67</v>
       </c>
-      <c r="H31" s="21">
+      <c r="P31" s="19">
         <v>5.96</v>
       </c>
-      <c r="I31" s="21">
+      <c r="Q31" s="19">
         <v>-0.527269793851857</v>
       </c>
-      <c r="J31" s="21">
+      <c r="R31" s="19">
         <v>41.21</v>
       </c>
-      <c r="K31" s="21">
+      <c r="S31" s="19">
         <v>0.34</v>
       </c>
-      <c r="L31" s="21">
+      <c r="T31" s="19">
         <v>-0.404032984235856</v>
       </c>
-      <c r="M31" s="21">
+      <c r="U31" s="19">
         <v>43.27</v>
       </c>
-      <c r="N31" s="21">
+      <c r="V31" s="19">
         <v>91.88</v>
       </c>
-      <c r="O31" s="21">
+      <c r="W31" s="19">
         <v>-0.586977377610585</v>
       </c>
-      <c r="P31" s="21">
+      <c r="X31" s="19">
         <v>40.22</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Y31" s="19">
         <v>0.65</v>
       </c>
-      <c r="R31" s="21">
+      <c r="Z31" s="19">
         <v>0.869638581025213</v>
       </c>
-      <c r="S31" s="21">
+      <c r="AA31" s="19">
         <v>64.48999999999999</v>
       </c>
-      <c r="T31" s="21">
+      <c r="AB31" s="19">
         <v>63.63</v>
       </c>
-      <c r="U31" s="21">
+      <c r="AC31" s="19">
         <v>-1.88091033378028</v>
       </c>
-      <c r="V31" s="21">
+      <c r="AD31" s="19">
         <v>18.65</v>
       </c>
-      <c r="W31" s="21">
+      <c r="AE31" s="19">
         <v>58.16</v>
       </c>
-      <c r="X31" s="21">
+      <c r="AF31" s="19">
         <v>-2.19612387068008</v>
       </c>
-      <c r="Y31" s="21">
+      <c r="AG31" s="19">
         <v>13.4</v>
-      </c>
-      <c r="Z31" s="21">
-        <v>60.67</v>
-      </c>
-      <c r="AA31" s="21">
-        <v>41.21</v>
-      </c>
-      <c r="AB31" s="21">
-        <v>43.27</v>
-      </c>
-      <c r="AC31" s="21">
-        <v>-2.19612387068008</v>
-      </c>
-      <c r="AD31" s="21">
-        <v>13.4</v>
-      </c>
-      <c r="AE31" s="21">
-        <v>64.48999999999999</v>
-      </c>
-      <c r="AF31" s="21">
-        <v>18.65</v>
-      </c>
-      <c r="AG31" s="21">
-        <v>40.27</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>34</v>
       </c>
-      <c r="B32" t="s" s="18">
+      <c r="B32" t="s" s="17">
         <v>93</v>
       </c>
-      <c r="C32" t="s" s="19">
+      <c r="C32" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>2022</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
+        <v>56.84</v>
+      </c>
+      <c r="F32" s="19">
+        <v>54.73</v>
+      </c>
+      <c r="G32" s="19">
+        <v>35.2</v>
+      </c>
+      <c r="H32" s="19">
+        <v>53</v>
+      </c>
+      <c r="I32" s="19">
+        <v>61.16</v>
+      </c>
+      <c r="J32" s="19">
+        <v>78.02</v>
+      </c>
+      <c r="K32" s="19">
+        <v>49.84</v>
+      </c>
+      <c r="L32" s="19">
+        <v>65.91</v>
+      </c>
+      <c r="M32" s="19">
         <v>1.57</v>
       </c>
-      <c r="F32" s="21">
+      <c r="N32" s="19">
         <v>-0.888146015113094</v>
       </c>
-      <c r="G32" s="21">
+      <c r="O32" s="19">
         <v>35.2</v>
       </c>
-      <c r="H32" s="21">
+      <c r="P32" s="19">
         <v>4.94</v>
       </c>
-      <c r="I32" s="21">
+      <c r="Q32" s="19">
         <v>0.180202755247624</v>
       </c>
-      <c r="J32" s="21">
+      <c r="R32" s="19">
         <v>53</v>
       </c>
-      <c r="K32" s="21">
+      <c r="S32" s="19">
         <v>0.2</v>
       </c>
-      <c r="L32" s="21">
+      <c r="T32" s="19">
         <v>0.669456112565981</v>
       </c>
-      <c r="M32" s="21">
+      <c r="U32" s="19">
         <v>61.16</v>
       </c>
-      <c r="N32" s="21">
+      <c r="V32" s="19">
         <v>93.47</v>
       </c>
-      <c r="O32" s="21">
+      <c r="W32" s="19">
         <v>0.28385143238122</v>
       </c>
-      <c r="P32" s="21">
+      <c r="X32" s="19">
         <v>54.73</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Y32" s="19">
         <v>0.34</v>
       </c>
-      <c r="R32" s="21">
+      <c r="Z32" s="19">
         <v>1.68146596092545</v>
       </c>
-      <c r="S32" s="21">
+      <c r="AA32" s="19">
         <v>78.02</v>
       </c>
-      <c r="T32" s="21">
+      <c r="AB32" s="19">
         <v>38.28</v>
       </c>
-      <c r="U32" s="21">
+      <c r="AC32" s="19">
         <v>0.954392934435308</v>
       </c>
-      <c r="V32" s="21">
+      <c r="AD32" s="19">
         <v>65.91</v>
       </c>
-      <c r="W32" s="21">
+      <c r="AE32" s="19">
         <v>40.76</v>
       </c>
-      <c r="X32" s="21">
+      <c r="AF32" s="19">
         <v>-0.0095697989875126</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="AG32" s="19">
         <v>49.84</v>
-      </c>
-      <c r="Z32" s="21">
-        <v>35.2</v>
-      </c>
-      <c r="AA32" s="21">
-        <v>53</v>
-      </c>
-      <c r="AB32" s="21">
-        <v>61.16</v>
-      </c>
-      <c r="AC32" s="21">
-        <v>-0.0095697989875126</v>
-      </c>
-      <c r="AD32" s="21">
-        <v>49.84</v>
-      </c>
-      <c r="AE32" s="21">
-        <v>78.02</v>
-      </c>
-      <c r="AF32" s="21">
-        <v>65.91</v>
-      </c>
-      <c r="AG32" s="21">
-        <v>56.84</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>35</v>
       </c>
-      <c r="B33" t="s" s="18">
+      <c r="B33" t="s" s="17">
         <v>95</v>
       </c>
-      <c r="C33" t="s" s="19">
+      <c r="C33" t="s" s="18">
         <v>96</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>2022</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
+        <v>54.31</v>
+      </c>
+      <c r="F33" s="19">
+        <v>70.8</v>
+      </c>
+      <c r="G33" s="19">
+        <v>68.87</v>
+      </c>
+      <c r="H33" s="19">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="I33" s="19">
+        <v>54.77</v>
+      </c>
+      <c r="J33" s="19">
+        <v>27.83</v>
+      </c>
+      <c r="K33" s="19">
+        <v>55.7</v>
+      </c>
+      <c r="L33" s="19">
+        <v>31.18</v>
+      </c>
+      <c r="M33" s="19">
         <v>0.79</v>
       </c>
-      <c r="F33" s="21">
+      <c r="N33" s="19">
         <v>1.1322242806237</v>
       </c>
-      <c r="G33" s="21">
+      <c r="O33" s="19">
         <v>68.87</v>
       </c>
-      <c r="H33" s="21">
+      <c r="P33" s="19">
         <v>3.38</v>
       </c>
-      <c r="I33" s="21">
+      <c r="Q33" s="19">
         <v>1.26221959504683</v>
       </c>
-      <c r="J33" s="21">
+      <c r="R33" s="19">
         <v>71.04000000000001</v>
       </c>
-      <c r="K33" s="21">
+      <c r="S33" s="19">
         <v>0.25</v>
       </c>
-      <c r="L33" s="21">
+      <c r="T33" s="19">
         <v>0.286067149422468</v>
       </c>
-      <c r="M33" s="21">
+      <c r="U33" s="19">
         <v>54.77</v>
       </c>
-      <c r="N33" s="21">
+      <c r="V33" s="19">
         <v>95.23</v>
       </c>
-      <c r="O33" s="21">
+      <c r="W33" s="19">
         <v>1.24778772520234</v>
       </c>
-      <c r="P33" s="21">
+      <c r="X33" s="19">
         <v>70.8</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Y33" s="19">
         <v>1.49</v>
       </c>
-      <c r="R33" s="21">
+      <c r="Z33" s="19">
         <v>-1.33015173870447</v>
       </c>
-      <c r="S33" s="21">
+      <c r="AA33" s="19">
         <v>27.83</v>
       </c>
-      <c r="T33" s="21">
+      <c r="AB33" s="19">
         <v>56.91</v>
       </c>
-      <c r="U33" s="21">
+      <c r="AC33" s="19">
         <v>-1.12930331356692</v>
       </c>
-      <c r="V33" s="21">
+      <c r="AD33" s="19">
         <v>31.18</v>
       </c>
-      <c r="W33" s="21">
+      <c r="AE33" s="19">
         <v>37.96</v>
       </c>
-      <c r="X33" s="21">
+      <c r="AF33" s="19">
         <v>0.342289476917038</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="AG33" s="19">
         <v>55.7</v>
-      </c>
-      <c r="Z33" s="21">
-        <v>68.87</v>
-      </c>
-      <c r="AA33" s="21">
-        <v>71.04000000000001</v>
-      </c>
-      <c r="AB33" s="21">
-        <v>54.77</v>
-      </c>
-      <c r="AC33" s="21">
-        <v>0.342289476917038</v>
-      </c>
-      <c r="AD33" s="21">
-        <v>55.7</v>
-      </c>
-      <c r="AE33" s="21">
-        <v>27.83</v>
-      </c>
-      <c r="AF33" s="21">
-        <v>31.18</v>
-      </c>
-      <c r="AG33" s="21">
-        <v>54.31</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>36</v>
       </c>
-      <c r="B34" t="s" s="18">
+      <c r="B34" t="s" s="17">
         <v>97</v>
       </c>
-      <c r="C34" t="s" s="19">
+      <c r="C34" t="s" s="18">
         <v>98</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>2022</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
+        <v>47.54</v>
+      </c>
+      <c r="F34" s="19">
+        <v>37.02</v>
+      </c>
+      <c r="G34" s="19">
+        <v>42.97</v>
+      </c>
+      <c r="H34" s="19">
+        <v>51.96</v>
+      </c>
+      <c r="I34" s="19">
+        <v>27.93</v>
+      </c>
+      <c r="J34" s="19">
+        <v>76.72</v>
+      </c>
+      <c r="K34" s="19">
+        <v>47.77</v>
+      </c>
+      <c r="L34" s="19">
+        <v>48.44</v>
+      </c>
+      <c r="M34" s="19">
         <v>1.39</v>
       </c>
-      <c r="F34" s="21">
+      <c r="N34" s="19">
         <v>-0.42190671609691</v>
       </c>
-      <c r="G34" s="21">
+      <c r="O34" s="19">
         <v>42.97</v>
       </c>
-      <c r="H34" s="21">
+      <c r="P34" s="19">
         <v>5.03</v>
       </c>
-      <c r="I34" s="21">
+      <c r="Q34" s="19">
         <v>0.11777870679767</v>
       </c>
-      <c r="J34" s="21">
+      <c r="R34" s="19">
         <v>51.96</v>
       </c>
-      <c r="K34" s="21">
+      <c r="S34" s="19">
         <v>0.46</v>
       </c>
-      <c r="L34" s="21">
+      <c r="T34" s="19">
         <v>-1.32416649578029</v>
       </c>
-      <c r="M34" s="21">
+      <c r="U34" s="19">
         <v>27.93</v>
       </c>
-      <c r="N34" s="21">
+      <c r="V34" s="19">
         <v>91.53</v>
       </c>
-      <c r="O34" s="21">
+      <c r="W34" s="19">
         <v>-0.778669254023872</v>
       </c>
-      <c r="P34" s="21">
+      <c r="X34" s="19">
         <v>37.02</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Y34" s="19">
         <v>0.37</v>
       </c>
-      <c r="R34" s="21">
+      <c r="Z34" s="19">
         <v>1.60290202093511</v>
       </c>
-      <c r="S34" s="21">
+      <c r="AA34" s="19">
         <v>76.72</v>
       </c>
-      <c r="T34" s="21">
+      <c r="AB34" s="19">
         <v>47.65</v>
       </c>
-      <c r="U34" s="21">
+      <c r="AC34" s="19">
         <v>-0.09360673511814729</v>
       </c>
-      <c r="V34" s="21">
+      <c r="AD34" s="19">
         <v>48.44</v>
       </c>
-      <c r="W34" s="21">
+      <c r="AE34" s="19">
         <v>41.75</v>
       </c>
-      <c r="X34" s="21">
+      <c r="AF34" s="19">
         <v>-0.133977185825194</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="AG34" s="19">
         <v>47.77</v>
-      </c>
-      <c r="Z34" s="21">
-        <v>42.97</v>
-      </c>
-      <c r="AA34" s="21">
-        <v>51.96</v>
-      </c>
-      <c r="AB34" s="21">
-        <v>27.93</v>
-      </c>
-      <c r="AC34" s="21">
-        <v>-0.133977185825194</v>
-      </c>
-      <c r="AD34" s="21">
-        <v>47.77</v>
-      </c>
-      <c r="AE34" s="21">
-        <v>76.72</v>
-      </c>
-      <c r="AF34" s="21">
-        <v>48.44</v>
-      </c>
-      <c r="AG34" s="21">
-        <v>47.54</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>37</v>
       </c>
-      <c r="B35" t="s" s="18">
+      <c r="B35" t="s" s="17">
         <v>99</v>
       </c>
-      <c r="C35" t="s" s="19">
+      <c r="C35" t="s" s="18">
         <v>100</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>2022</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
+        <v>56.46</v>
+      </c>
+      <c r="F35" s="19">
+        <v>58.47</v>
+      </c>
+      <c r="G35" s="19">
+        <v>55.49</v>
+      </c>
+      <c r="H35" s="19">
+        <v>56.82</v>
+      </c>
+      <c r="I35" s="19">
+        <v>56.05</v>
+      </c>
+      <c r="J35" s="19">
+        <v>47.47</v>
+      </c>
+      <c r="K35" s="19">
+        <v>64.88</v>
+      </c>
+      <c r="L35" s="19">
+        <v>56.05</v>
+      </c>
+      <c r="M35" s="19">
         <v>1.1</v>
       </c>
-      <c r="F35" s="21">
+      <c r="N35" s="19">
         <v>0.329256598984719</v>
       </c>
-      <c r="G35" s="21">
+      <c r="O35" s="19">
         <v>55.49</v>
       </c>
-      <c r="H35" s="21">
+      <c r="P35" s="19">
         <v>4.61</v>
       </c>
-      <c r="I35" s="21">
+      <c r="Q35" s="19">
         <v>0.409090932897456</v>
       </c>
-      <c r="J35" s="21">
+      <c r="R35" s="19">
         <v>56.82</v>
       </c>
-      <c r="K35" s="21">
+      <c r="S35" s="19">
         <v>0.24</v>
       </c>
-      <c r="L35" s="21">
+      <c r="T35" s="19">
         <v>0.36274494205117</v>
       </c>
-      <c r="M35" s="21">
+      <c r="U35" s="19">
         <v>56.05</v>
       </c>
-      <c r="N35" s="21">
+      <c r="V35" s="19">
         <v>93.88</v>
       </c>
-      <c r="O35" s="21">
+      <c r="W35" s="19">
         <v>0.508404773322501</v>
       </c>
-      <c r="P35" s="21">
+      <c r="X35" s="19">
         <v>58.47</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Y35" s="19">
         <v>1.04</v>
       </c>
-      <c r="R35" s="21">
+      <c r="Z35" s="19">
         <v>-0.151692638849284</v>
       </c>
-      <c r="S35" s="21">
+      <c r="AA35" s="19">
         <v>47.47</v>
       </c>
-      <c r="T35" s="21">
+      <c r="AB35" s="19">
         <v>43.57</v>
       </c>
-      <c r="U35" s="21">
+      <c r="AC35" s="19">
         <v>0.362726098582824</v>
       </c>
-      <c r="V35" s="21">
+      <c r="AD35" s="19">
         <v>56.05</v>
       </c>
-      <c r="W35" s="21">
+      <c r="AE35" s="19">
         <v>33.58</v>
       </c>
-      <c r="X35" s="21">
+      <c r="AF35" s="19">
         <v>0.892697915653444</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="AG35" s="19">
         <v>64.88</v>
-      </c>
-      <c r="Z35" s="21">
-        <v>55.49</v>
-      </c>
-      <c r="AA35" s="21">
-        <v>56.82</v>
-      </c>
-      <c r="AB35" s="21">
-        <v>56.05</v>
-      </c>
-      <c r="AC35" s="21">
-        <v>0.892697915653444</v>
-      </c>
-      <c r="AD35" s="21">
-        <v>64.88</v>
-      </c>
-      <c r="AE35" s="21">
-        <v>47.47</v>
-      </c>
-      <c r="AF35" s="21">
-        <v>56.05</v>
-      </c>
-      <c r="AG35" s="21">
-        <v>56.46</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>38</v>
       </c>
-      <c r="B36" t="s" s="18">
+      <c r="B36" t="s" s="17">
         <v>101</v>
       </c>
-      <c r="C36" t="s" s="19">
+      <c r="C36" t="s" s="18">
         <v>102</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>2022</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
+        <v>31.6</v>
+      </c>
+      <c r="F36" s="19">
+        <v>6.63</v>
+      </c>
+      <c r="G36" s="19">
+        <v>20.95</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="19">
+        <v>44.54</v>
+      </c>
+      <c r="J36" s="19">
+        <v>49.22</v>
+      </c>
+      <c r="K36" s="19">
+        <v>59.29</v>
+      </c>
+      <c r="L36" s="19">
+        <v>40.57</v>
+      </c>
+      <c r="M36" s="19">
         <v>1.9</v>
       </c>
-      <c r="F36" s="21">
+      <c r="N36" s="19">
         <v>-1.74291806330943</v>
       </c>
-      <c r="G36" s="21">
+      <c r="O36" s="19">
         <v>20.95</v>
       </c>
-      <c r="H36" s="21">
+      <c r="P36" s="19">
         <v>10.08</v>
       </c>
-      <c r="I36" s="21">
+      <c r="Q36" s="19">
         <v>-3</v>
       </c>
-      <c r="J36" s="21">
+      <c r="R36" s="19">
         <v>0</v>
       </c>
-      <c r="K36" s="21">
+      <c r="S36" s="19">
         <v>0.33</v>
       </c>
-      <c r="L36" s="21">
+      <c r="T36" s="19">
         <v>-0.327355191607154</v>
       </c>
-      <c r="M36" s="21">
+      <c r="U36" s="19">
         <v>44.54</v>
       </c>
-      <c r="N36" s="21">
+      <c r="V36" s="19">
         <v>88.2</v>
       </c>
-      <c r="O36" s="21">
+      <c r="W36" s="19">
         <v>-2.60248053532746</v>
       </c>
-      <c r="P36" s="21">
+      <c r="X36" s="19">
         <v>6.63</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Y36" s="19">
         <v>1</v>
       </c>
-      <c r="R36" s="21">
+      <c r="Z36" s="19">
         <v>-0.0469407188621562</v>
       </c>
-      <c r="S36" s="21">
+      <c r="AA36" s="19">
         <v>49.22</v>
       </c>
-      <c r="T36" s="21">
+      <c r="AB36" s="19">
         <v>51.87</v>
       </c>
-      <c r="U36" s="21">
+      <c r="AC36" s="19">
         <v>-0.565598048406897</v>
       </c>
-      <c r="V36" s="21">
+      <c r="AD36" s="19">
         <v>40.57</v>
       </c>
-      <c r="W36" s="21">
+      <c r="AE36" s="19">
         <v>36.25</v>
       </c>
-      <c r="X36" s="21">
+      <c r="AF36" s="19">
         <v>0.557174963273032</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="AG36" s="19">
         <v>59.29</v>
-      </c>
-      <c r="Z36" s="21">
-        <v>20.95</v>
-      </c>
-      <c r="AA36" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="21">
-        <v>44.54</v>
-      </c>
-      <c r="AC36" s="21">
-        <v>0.557174963273032</v>
-      </c>
-      <c r="AD36" s="21">
-        <v>59.29</v>
-      </c>
-      <c r="AE36" s="21">
-        <v>49.22</v>
-      </c>
-      <c r="AF36" s="21">
-        <v>40.57</v>
-      </c>
-      <c r="AG36" s="21">
-        <v>31.6</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>39</v>
       </c>
-      <c r="B37" t="s" s="18">
+      <c r="B37" t="s" s="17">
         <v>103</v>
       </c>
-      <c r="C37" t="s" s="19">
+      <c r="C37" t="s" s="18">
         <v>104</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>2022</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
+        <v>46.06</v>
+      </c>
+      <c r="F37" s="19">
+        <v>46.88</v>
+      </c>
+      <c r="G37" s="19">
+        <v>26.13</v>
+      </c>
+      <c r="H37" s="19">
+        <v>39.25</v>
+      </c>
+      <c r="I37" s="19">
+        <v>56.05</v>
+      </c>
+      <c r="J37" s="19">
+        <v>50.09</v>
+      </c>
+      <c r="K37" s="19">
+        <v>53.65</v>
+      </c>
+      <c r="L37" s="19">
+        <v>50.4</v>
+      </c>
+      <c r="M37" s="19">
         <v>1.78</v>
       </c>
-      <c r="F37" s="21">
+      <c r="N37" s="19">
         <v>-1.43209186396531</v>
       </c>
-      <c r="G37" s="21">
+      <c r="O37" s="19">
         <v>26.13</v>
       </c>
-      <c r="H37" s="21">
+      <c r="P37" s="19">
         <v>6.13</v>
       </c>
-      <c r="I37" s="21">
+      <c r="Q37" s="19">
         <v>-0.645181885368437</v>
       </c>
-      <c r="J37" s="21">
+      <c r="R37" s="19">
         <v>39.25</v>
       </c>
-      <c r="K37" s="21">
+      <c r="S37" s="19">
         <v>0.24</v>
       </c>
-      <c r="L37" s="21">
+      <c r="T37" s="19">
         <v>0.36274494205117</v>
       </c>
-      <c r="M37" s="21">
+      <c r="U37" s="19">
         <v>56.05</v>
       </c>
-      <c r="N37" s="21">
+      <c r="V37" s="19">
         <v>92.61</v>
       </c>
-      <c r="O37" s="21">
+      <c r="W37" s="19">
         <v>-0.187162892520007</v>
       </c>
-      <c r="P37" s="21">
+      <c r="X37" s="19">
         <v>46.88</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Y37" s="19">
         <v>0.98</v>
       </c>
-      <c r="R37" s="21">
+      <c r="Z37" s="19">
         <v>0.0054352411314077</v>
       </c>
-      <c r="S37" s="21">
+      <c r="AA37" s="19">
         <v>50.09</v>
       </c>
-      <c r="T37" s="21">
+      <c r="AB37" s="19">
         <v>46.6</v>
       </c>
-      <c r="U37" s="21">
+      <c r="AC37" s="19">
         <v>0.0238318617901906</v>
       </c>
-      <c r="V37" s="21">
+      <c r="AD37" s="19">
         <v>50.4</v>
       </c>
-      <c r="W37" s="21">
+      <c r="AE37" s="19">
         <v>38.94</v>
       </c>
-      <c r="X37" s="21">
+      <c r="AF37" s="19">
         <v>0.219138730350446</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="AG37" s="19">
         <v>53.65</v>
-      </c>
-      <c r="Z37" s="21">
-        <v>26.13</v>
-      </c>
-      <c r="AA37" s="21">
-        <v>39.25</v>
-      </c>
-      <c r="AB37" s="21">
-        <v>56.05</v>
-      </c>
-      <c r="AC37" s="21">
-        <v>0.219138730350446</v>
-      </c>
-      <c r="AD37" s="21">
-        <v>53.65</v>
-      </c>
-      <c r="AE37" s="21">
-        <v>50.09</v>
-      </c>
-      <c r="AF37" s="21">
-        <v>50.4</v>
-      </c>
-      <c r="AG37" s="21">
-        <v>46.06</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>40</v>
       </c>
-      <c r="B38" t="s" s="18">
+      <c r="B38" t="s" s="17">
         <v>105</v>
       </c>
-      <c r="C38" t="s" s="19">
+      <c r="C38" t="s" s="18">
         <v>106</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>2022</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
+        <v>46.18</v>
+      </c>
+      <c r="F38" s="19">
+        <v>56.56</v>
+      </c>
+      <c r="G38" s="19">
+        <v>43.83</v>
+      </c>
+      <c r="H38" s="19">
+        <v>48.15</v>
+      </c>
+      <c r="I38" s="19">
+        <v>59.88</v>
+      </c>
+      <c r="J38" s="19">
+        <v>23.9</v>
+      </c>
+      <c r="K38" s="19">
+        <v>44.31</v>
+      </c>
+      <c r="L38" s="19">
+        <v>46.63</v>
+      </c>
+      <c r="M38" s="19">
         <v>1.37</v>
       </c>
-      <c r="F38" s="21">
+      <c r="N38" s="19">
         <v>-0.370102349539556</v>
       </c>
-      <c r="G38" s="21">
+      <c r="O38" s="19">
         <v>43.83</v>
       </c>
-      <c r="H38" s="21">
+      <c r="P38" s="19">
         <v>5.36</v>
       </c>
-      <c r="I38" s="21">
+      <c r="Q38" s="19">
         <v>-0.111109470852163</v>
       </c>
-      <c r="J38" s="21">
+      <c r="R38" s="19">
         <v>48.15</v>
       </c>
-      <c r="K38" s="21">
+      <c r="S38" s="19">
         <v>0.21</v>
       </c>
-      <c r="L38" s="21">
+      <c r="T38" s="19">
         <v>0.592778319937278</v>
       </c>
-      <c r="M38" s="21">
+      <c r="U38" s="19">
         <v>59.88</v>
       </c>
-      <c r="N38" s="21">
+      <c r="V38" s="19">
         <v>93.67</v>
       </c>
-      <c r="O38" s="21">
+      <c r="W38" s="19">
         <v>0.393389647474531</v>
       </c>
-      <c r="P38" s="21">
+      <c r="X38" s="19">
         <v>56.56</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Y38" s="19">
         <v>1.58</v>
       </c>
-      <c r="R38" s="21">
+      <c r="Z38" s="19">
         <v>-1.56584355867551</v>
       </c>
-      <c r="S38" s="21">
+      <c r="AA38" s="19">
         <v>23.9</v>
       </c>
-      <c r="T38" s="21">
+      <c r="AB38" s="19">
         <v>48.62</v>
       </c>
-      <c r="U38" s="21">
+      <c r="AC38" s="19">
         <v>-0.202097629404898</v>
       </c>
-      <c r="V38" s="21">
+      <c r="AD38" s="19">
         <v>46.63</v>
       </c>
-      <c r="W38" s="21">
+      <c r="AE38" s="19">
         <v>43.4</v>
       </c>
-      <c r="X38" s="21">
+      <c r="AF38" s="19">
         <v>-0.341322830554661</v>
       </c>
-      <c r="Y38" s="21">
+      <c r="AG38" s="19">
         <v>44.31</v>
-      </c>
-      <c r="Z38" s="21">
-        <v>43.83</v>
-      </c>
-      <c r="AA38" s="21">
-        <v>48.15</v>
-      </c>
-      <c r="AB38" s="21">
-        <v>59.88</v>
-      </c>
-      <c r="AC38" s="21">
-        <v>-0.341322830554661</v>
-      </c>
-      <c r="AD38" s="21">
-        <v>44.31</v>
-      </c>
-      <c r="AE38" s="21">
-        <v>23.9</v>
-      </c>
-      <c r="AF38" s="21">
-        <v>46.63</v>
-      </c>
-      <c r="AG38" s="21">
-        <v>46.18</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>41</v>
       </c>
-      <c r="B39" t="s" s="18">
+      <c r="B39" t="s" s="17">
         <v>107</v>
       </c>
-      <c r="C39" t="s" s="19">
+      <c r="C39" t="s" s="18">
         <v>108</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>2022</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
+        <v>44.16</v>
+      </c>
+      <c r="F39" s="19">
+        <v>49.62</v>
+      </c>
+      <c r="G39" s="19">
+        <v>68.87</v>
+      </c>
+      <c r="H39" s="19">
+        <v>69.88</v>
+      </c>
+      <c r="I39" s="19">
+        <v>13.87</v>
+      </c>
+      <c r="J39" s="19">
+        <v>46.6</v>
+      </c>
+      <c r="K39" s="19">
+        <v>27.66</v>
+      </c>
+      <c r="L39" s="19">
+        <v>32.65</v>
+      </c>
+      <c r="M39" s="19">
         <v>0.79</v>
       </c>
-      <c r="F39" s="21">
+      <c r="N39" s="19">
         <v>1.1322242806237</v>
       </c>
-      <c r="G39" s="21">
+      <c r="O39" s="19">
         <v>68.87</v>
       </c>
-      <c r="H39" s="21">
+      <c r="P39" s="19">
         <v>3.48</v>
       </c>
-      <c r="I39" s="21">
+      <c r="Q39" s="19">
         <v>1.19285954121355</v>
       </c>
-      <c r="J39" s="21">
+      <c r="R39" s="19">
         <v>69.88</v>
       </c>
-      <c r="K39" s="21">
+      <c r="S39" s="19">
         <v>0.57</v>
       </c>
-      <c r="L39" s="21">
+      <c r="T39" s="19">
         <v>-2.16762221469602</v>
       </c>
-      <c r="M39" s="21">
+      <c r="U39" s="19">
         <v>13.87</v>
       </c>
-      <c r="N39" s="21">
+      <c r="V39" s="19">
         <v>92.91</v>
       </c>
-      <c r="O39" s="21">
+      <c r="W39" s="19">
         <v>-0.0228555698800451</v>
       </c>
-      <c r="P39" s="21">
+      <c r="X39" s="19">
         <v>49.62</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Y39" s="19">
         <v>1.06</v>
       </c>
-      <c r="R39" s="21">
+      <c r="Z39" s="19">
         <v>-0.204068598842848</v>
       </c>
-      <c r="S39" s="21">
+      <c r="AA39" s="19">
         <v>46.6</v>
       </c>
-      <c r="T39" s="21">
+      <c r="AB39" s="19">
         <v>56.12</v>
       </c>
-      <c r="U39" s="21">
+      <c r="AC39" s="19">
         <v>-1.04094475017874</v>
       </c>
-      <c r="V39" s="21">
+      <c r="AD39" s="19">
         <v>32.65</v>
       </c>
-      <c r="W39" s="21">
+      <c r="AE39" s="19">
         <v>51.35</v>
       </c>
-      <c r="X39" s="21">
+      <c r="AF39" s="19">
         <v>-1.34035184606937</v>
       </c>
-      <c r="Y39" s="21">
+      <c r="AG39" s="19">
         <v>27.66</v>
-      </c>
-      <c r="Z39" s="21">
-        <v>68.87</v>
-      </c>
-      <c r="AA39" s="21">
-        <v>69.88</v>
-      </c>
-      <c r="AB39" s="21">
-        <v>13.87</v>
-      </c>
-      <c r="AC39" s="21">
-        <v>-1.34035184606937</v>
-      </c>
-      <c r="AD39" s="21">
-        <v>27.66</v>
-      </c>
-      <c r="AE39" s="21">
-        <v>46.6</v>
-      </c>
-      <c r="AF39" s="21">
-        <v>32.65</v>
-      </c>
-      <c r="AG39" s="21">
-        <v>44.16</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>42</v>
       </c>
-      <c r="B40" t="s" s="18">
+      <c r="B40" t="s" s="17">
         <v>109</v>
       </c>
-      <c r="C40" t="s" s="19">
+      <c r="C40" t="s" s="18">
         <v>110</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>2022</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
+        <v>42.91</v>
+      </c>
+      <c r="F40" s="19">
+        <v>40.86</v>
+      </c>
+      <c r="G40" s="19">
+        <v>45.99</v>
+      </c>
+      <c r="H40" s="19">
+        <v>36.36</v>
+      </c>
+      <c r="I40" s="19">
+        <v>48.38</v>
+      </c>
+      <c r="J40" s="19">
+        <v>40.92</v>
+      </c>
+      <c r="K40" s="19">
+        <v>38.36</v>
+      </c>
+      <c r="L40" s="19">
+        <v>49.47</v>
+      </c>
+      <c r="M40" s="19">
         <v>1.32</v>
       </c>
-      <c r="F40" s="21">
+      <c r="N40" s="19">
         <v>-0.240591433146172</v>
       </c>
-      <c r="G40" s="21">
+      <c r="O40" s="19">
         <v>45.99</v>
       </c>
-      <c r="H40" s="21">
+      <c r="P40" s="19">
         <v>6.38</v>
       </c>
-      <c r="I40" s="21">
+      <c r="Q40" s="19">
         <v>-0.818582019951644</v>
       </c>
-      <c r="J40" s="21">
+      <c r="R40" s="19">
         <v>36.36</v>
       </c>
-      <c r="K40" s="21">
+      <c r="S40" s="19">
         <v>0.3</v>
       </c>
-      <c r="L40" s="21">
+      <c r="T40" s="19">
         <v>-0.09732181372104549</v>
       </c>
-      <c r="M40" s="21">
+      <c r="U40" s="19">
         <v>48.38</v>
       </c>
-      <c r="N40" s="21">
+      <c r="V40" s="19">
         <v>91.95</v>
       </c>
-      <c r="O40" s="21">
+      <c r="W40" s="19">
         <v>-0.548639002327923</v>
       </c>
-      <c r="P40" s="21">
+      <c r="X40" s="19">
         <v>40.86</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Y40" s="19">
         <v>1.19</v>
       </c>
-      <c r="R40" s="21">
+      <c r="Z40" s="19">
         <v>-0.544512338801014</v>
       </c>
-      <c r="S40" s="21">
+      <c r="AA40" s="19">
         <v>40.92</v>
       </c>
-      <c r="T40" s="21">
+      <c r="AB40" s="19">
         <v>47.1</v>
       </c>
-      <c r="U40" s="21">
+      <c r="AC40" s="19">
         <v>-0.0320912795947324</v>
       </c>
-      <c r="V40" s="21">
+      <c r="AD40" s="19">
         <v>49.47</v>
       </c>
-      <c r="W40" s="21">
+      <c r="AE40" s="19">
         <v>46.24</v>
       </c>
-      <c r="X40" s="21">
+      <c r="AF40" s="19">
         <v>-0.698208667543564</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="AG40" s="19">
         <v>38.36</v>
-      </c>
-      <c r="Z40" s="21">
-        <v>45.99</v>
-      </c>
-      <c r="AA40" s="21">
-        <v>36.36</v>
-      </c>
-      <c r="AB40" s="21">
-        <v>48.38</v>
-      </c>
-      <c r="AC40" s="21">
-        <v>-0.698208667543564</v>
-      </c>
-      <c r="AD40" s="21">
-        <v>38.36</v>
-      </c>
-      <c r="AE40" s="21">
-        <v>40.92</v>
-      </c>
-      <c r="AF40" s="21">
-        <v>49.47</v>
-      </c>
-      <c r="AG40" s="21">
-        <v>42.91</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>44</v>
       </c>
-      <c r="B41" t="s" s="18">
+      <c r="B41" t="s" s="17">
         <v>111</v>
       </c>
-      <c r="C41" t="s" s="19">
+      <c r="C41" t="s" s="18">
         <v>112</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>2022</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
+        <v>38.13</v>
+      </c>
+      <c r="F41" s="19">
+        <v>24.52</v>
+      </c>
+      <c r="G41" s="19">
+        <v>26.13</v>
+      </c>
+      <c r="H41" s="19">
+        <v>30.35</v>
+      </c>
+      <c r="I41" s="19">
+        <v>25.37</v>
+      </c>
+      <c r="J41" s="19">
+        <v>60.57</v>
+      </c>
+      <c r="K41" s="19">
+        <v>46.62</v>
+      </c>
+      <c r="L41" s="19">
+        <v>53.38</v>
+      </c>
+      <c r="M41" s="19">
         <v>1.78</v>
       </c>
-      <c r="F41" s="21">
+      <c r="N41" s="19">
         <v>-1.43209186396531</v>
       </c>
-      <c r="G41" s="21">
+      <c r="O41" s="19">
         <v>26.13</v>
       </c>
-      <c r="H41" s="21">
+      <c r="P41" s="19">
         <v>6.9</v>
       </c>
-      <c r="I41" s="21">
+      <c r="Q41" s="19">
         <v>-1.17925429988471</v>
       </c>
-      <c r="J41" s="21">
+      <c r="R41" s="19">
         <v>30.35</v>
       </c>
-      <c r="K41" s="21">
+      <c r="S41" s="19">
         <v>0.48</v>
       </c>
-      <c r="L41" s="21">
+      <c r="T41" s="19">
         <v>-1.47752208103769</v>
       </c>
-      <c r="M41" s="21">
+      <c r="U41" s="19">
         <v>25.37</v>
       </c>
-      <c r="N41" s="21">
+      <c r="V41" s="19">
         <v>90.16</v>
       </c>
-      <c r="O41" s="21">
+      <c r="W41" s="19">
         <v>-1.52900602741304</v>
       </c>
-      <c r="P41" s="21">
+      <c r="X41" s="19">
         <v>24.52</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Y41" s="19">
         <v>0.74</v>
       </c>
-      <c r="R41" s="21">
+      <c r="Z41" s="19">
         <v>0.633946761054176</v>
       </c>
-      <c r="S41" s="21">
+      <c r="AA41" s="19">
         <v>60.57</v>
       </c>
-      <c r="T41" s="21">
+      <c r="AB41" s="19">
         <v>45</v>
       </c>
-      <c r="U41" s="21">
+      <c r="AC41" s="19">
         <v>0.202785914221944</v>
       </c>
-      <c r="V41" s="21">
+      <c r="AD41" s="19">
         <v>53.38</v>
       </c>
-      <c r="W41" s="21">
+      <c r="AE41" s="19">
         <v>42.3</v>
       </c>
-      <c r="X41" s="21">
+      <c r="AF41" s="19">
         <v>-0.203092400735016</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="AG41" s="19">
         <v>46.62</v>
-      </c>
-      <c r="Z41" s="21">
-        <v>26.13</v>
-      </c>
-      <c r="AA41" s="21">
-        <v>30.35</v>
-      </c>
-      <c r="AB41" s="21">
-        <v>25.37</v>
-      </c>
-      <c r="AC41" s="21">
-        <v>-0.203092400735016</v>
-      </c>
-      <c r="AD41" s="21">
-        <v>46.62</v>
-      </c>
-      <c r="AE41" s="21">
-        <v>60.57</v>
-      </c>
-      <c r="AF41" s="21">
-        <v>53.38</v>
-      </c>
-      <c r="AG41" s="21">
-        <v>38.13</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>45</v>
       </c>
-      <c r="B42" t="s" s="18">
+      <c r="B42" t="s" s="17">
         <v>113</v>
       </c>
-      <c r="C42" t="s" s="19">
+      <c r="C42" t="s" s="18">
         <v>114</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>2022</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
+        <v>63.8</v>
+      </c>
+      <c r="F42" s="19">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="G42" s="19">
+        <v>63.69</v>
+      </c>
+      <c r="H42" s="19">
+        <v>63.64</v>
+      </c>
+      <c r="I42" s="19">
+        <v>58.6</v>
+      </c>
+      <c r="J42" s="19">
+        <v>57.51</v>
+      </c>
+      <c r="K42" s="19">
+        <v>69.36</v>
+      </c>
+      <c r="L42" s="19">
+        <v>68.11</v>
+      </c>
+      <c r="M42" s="19">
         <v>0.91</v>
       </c>
-      <c r="F42" s="21">
+      <c r="N42" s="19">
         <v>0.82139808127958</v>
       </c>
-      <c r="G42" s="21">
+      <c r="O42" s="19">
         <v>63.69</v>
       </c>
-      <c r="H42" s="21">
+      <c r="P42" s="19">
         <v>4.02</v>
       </c>
-      <c r="I42" s="21">
+      <c r="Q42" s="19">
         <v>0.818315250513823</v>
       </c>
-      <c r="J42" s="21">
+      <c r="R42" s="19">
         <v>63.64</v>
       </c>
-      <c r="K42" s="21">
+      <c r="S42" s="19">
         <v>0.22</v>
       </c>
-      <c r="L42" s="21">
+      <c r="T42" s="19">
         <v>0.516100527308576</v>
       </c>
-      <c r="M42" s="21">
+      <c r="U42" s="19">
         <v>58.6</v>
       </c>
-      <c r="N42" s="21">
+      <c r="V42" s="19">
         <v>94.67</v>
       </c>
-      <c r="O42" s="21">
+      <c r="W42" s="19">
         <v>0.941080722941074</v>
       </c>
-      <c r="P42" s="21">
+      <c r="X42" s="19">
         <v>65.68000000000001</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Y42" s="19">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R42" s="21">
+      <c r="Z42" s="19">
         <v>0.450630901076701</v>
       </c>
-      <c r="S42" s="21">
+      <c r="AA42" s="19">
         <v>57.51</v>
       </c>
-      <c r="T42" s="21">
+      <c r="AB42" s="19">
         <v>37.1</v>
       </c>
-      <c r="U42" s="21">
+      <c r="AC42" s="19">
         <v>1.08637154810373</v>
       </c>
-      <c r="V42" s="21">
+      <c r="AD42" s="19">
         <v>68.11</v>
       </c>
-      <c r="W42" s="21">
+      <c r="AE42" s="19">
         <v>31.44</v>
       </c>
-      <c r="X42" s="21">
+      <c r="AF42" s="19">
         <v>1.16161893366621</v>
       </c>
-      <c r="Y42" s="21">
+      <c r="AG42" s="19">
         <v>69.36</v>
-      </c>
-      <c r="Z42" s="21">
-        <v>63.69</v>
-      </c>
-      <c r="AA42" s="21">
-        <v>63.64</v>
-      </c>
-      <c r="AB42" s="21">
-        <v>58.6</v>
-      </c>
-      <c r="AC42" s="21">
-        <v>1.16161893366621</v>
-      </c>
-      <c r="AD42" s="21">
-        <v>69.36</v>
-      </c>
-      <c r="AE42" s="21">
-        <v>57.51</v>
-      </c>
-      <c r="AF42" s="21">
-        <v>68.11</v>
-      </c>
-      <c r="AG42" s="21">
-        <v>63.8</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>46</v>
       </c>
-      <c r="B43" t="s" s="18">
+      <c r="B43" t="s" s="17">
         <v>115</v>
       </c>
-      <c r="C43" t="s" s="19">
+      <c r="C43" t="s" s="18">
         <v>116</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <v>2022</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
+        <v>24.95</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <v>40.38</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <v>24.1</v>
+      </c>
+      <c r="J43" s="19">
+        <v>26.96</v>
+      </c>
+      <c r="K43" s="19">
+        <v>39.72</v>
+      </c>
+      <c r="L43" s="19">
+        <v>43.5</v>
+      </c>
+      <c r="M43" s="19">
         <v>1.45</v>
       </c>
-      <c r="F43" s="21">
+      <c r="N43" s="19">
         <v>-0.577319815768971</v>
       </c>
-      <c r="G43" s="21">
+      <c r="O43" s="19">
         <v>40.38</v>
       </c>
-      <c r="H43" s="21">
+      <c r="P43" s="19">
         <v>9.84</v>
       </c>
-      <c r="I43" s="21">
+      <c r="Q43" s="19">
         <v>-3</v>
       </c>
-      <c r="J43" s="21">
+      <c r="R43" s="19">
         <v>0</v>
       </c>
-      <c r="K43" s="21">
+      <c r="S43" s="19">
         <v>0.49</v>
       </c>
-      <c r="L43" s="21">
+      <c r="T43" s="19">
         <v>-1.5541998736664</v>
       </c>
-      <c r="M43" s="21">
+      <c r="U43" s="19">
         <v>24.1</v>
       </c>
-      <c r="N43" s="21">
+      <c r="V43" s="19">
         <v>87.26000000000001</v>
       </c>
-      <c r="O43" s="21">
+      <c r="W43" s="19">
         <v>-3</v>
       </c>
-      <c r="P43" s="21">
+      <c r="X43" s="19">
         <v>0</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="Y43" s="19">
         <v>1.51</v>
       </c>
-      <c r="R43" s="21">
+      <c r="Z43" s="19">
         <v>-1.38252769869804</v>
       </c>
-      <c r="S43" s="21">
+      <c r="AA43" s="19">
         <v>26.96</v>
       </c>
-      <c r="T43" s="21">
+      <c r="AB43" s="19">
         <v>50.3</v>
       </c>
-      <c r="U43" s="21">
+      <c r="AC43" s="19">
         <v>-0.389999384458239</v>
       </c>
-      <c r="V43" s="21">
+      <c r="AD43" s="19">
         <v>43.5</v>
       </c>
-      <c r="W43" s="21">
+      <c r="AE43" s="19">
         <v>45.59</v>
       </c>
-      <c r="X43" s="21">
+      <c r="AF43" s="19">
         <v>-0.616527049922865</v>
       </c>
-      <c r="Y43" s="21">
+      <c r="AG43" s="19">
         <v>39.72</v>
-      </c>
-      <c r="Z43" s="21">
-        <v>40.38</v>
-      </c>
-      <c r="AA43" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="21">
-        <v>24.1</v>
-      </c>
-      <c r="AC43" s="21">
-        <v>-0.616527049922865</v>
-      </c>
-      <c r="AD43" s="21">
-        <v>39.72</v>
-      </c>
-      <c r="AE43" s="21">
-        <v>26.96</v>
-      </c>
-      <c r="AF43" s="21">
-        <v>43.5</v>
-      </c>
-      <c r="AG43" s="21">
-        <v>24.95</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>47</v>
       </c>
-      <c r="B44" t="s" s="18">
+      <c r="B44" t="s" s="17">
         <v>117</v>
       </c>
-      <c r="C44" t="s" s="19">
+      <c r="C44" t="s" s="18">
         <v>118</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <v>2022</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
+        <v>58.37</v>
+      </c>
+      <c r="F44" s="19">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="G44" s="19">
+        <v>57.65</v>
+      </c>
+      <c r="H44" s="19">
+        <v>59.82</v>
+      </c>
+      <c r="I44" s="19">
+        <v>59.88</v>
+      </c>
+      <c r="J44" s="19">
+        <v>43.98</v>
+      </c>
+      <c r="K44" s="19">
+        <v>57.15</v>
+      </c>
+      <c r="L44" s="19">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="M44" s="19">
         <v>1.05</v>
       </c>
-      <c r="F44" s="21">
+      <c r="N44" s="19">
         <v>0.458767515378104</v>
       </c>
-      <c r="G44" s="21">
+      <c r="O44" s="19">
         <v>57.65</v>
       </c>
-      <c r="H44" s="21">
+      <c r="P44" s="19">
         <v>4.35</v>
       </c>
-      <c r="I44" s="21">
+      <c r="Q44" s="19">
         <v>0.589427072863991</v>
       </c>
-      <c r="J44" s="21">
+      <c r="R44" s="19">
         <v>59.82</v>
       </c>
-      <c r="K44" s="21">
+      <c r="S44" s="19">
         <v>0.21</v>
       </c>
-      <c r="L44" s="21">
+      <c r="T44" s="19">
         <v>0.592778319937278</v>
       </c>
-      <c r="M44" s="21">
+      <c r="U44" s="19">
         <v>59.88</v>
       </c>
-      <c r="N44" s="21">
+      <c r="V44" s="19">
         <v>94.52</v>
       </c>
-      <c r="O44" s="21">
+      <c r="W44" s="19">
         <v>0.858927061621089</v>
       </c>
-      <c r="P44" s="21">
+      <c r="X44" s="19">
         <v>64.31999999999999</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="Y44" s="19">
         <v>1.12</v>
       </c>
-      <c r="R44" s="21">
+      <c r="Z44" s="19">
         <v>-0.36119647882354</v>
       </c>
-      <c r="S44" s="21">
+      <c r="AA44" s="19">
         <v>43.98</v>
       </c>
-      <c r="T44" s="21">
+      <c r="AB44" s="19">
         <v>38.36</v>
       </c>
-      <c r="U44" s="21">
+      <c r="AC44" s="19">
         <v>0.945445231813721</v>
       </c>
-      <c r="V44" s="21">
+      <c r="AD44" s="19">
         <v>65.76000000000001</v>
       </c>
-      <c r="W44" s="21">
+      <c r="AE44" s="19">
         <v>37.27</v>
       </c>
-      <c r="X44" s="21">
+      <c r="AF44" s="19">
         <v>0.428997655622088</v>
       </c>
-      <c r="Y44" s="21">
+      <c r="AG44" s="19">
         <v>57.15</v>
-      </c>
-      <c r="Z44" s="21">
-        <v>57.65</v>
-      </c>
-      <c r="AA44" s="21">
-        <v>59.82</v>
-      </c>
-      <c r="AB44" s="21">
-        <v>59.88</v>
-      </c>
-      <c r="AC44" s="21">
-        <v>0.428997655622088</v>
-      </c>
-      <c r="AD44" s="21">
-        <v>57.15</v>
-      </c>
-      <c r="AE44" s="21">
-        <v>43.98</v>
-      </c>
-      <c r="AF44" s="21">
-        <v>65.76000000000001</v>
-      </c>
-      <c r="AG44" s="21">
-        <v>58.37</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>48</v>
       </c>
-      <c r="B45" t="s" s="18">
+      <c r="B45" t="s" s="17">
         <v>119</v>
       </c>
-      <c r="C45" t="s" s="19">
+      <c r="C45" t="s" s="18">
         <v>120</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>2022</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="19">
+        <v>51.06</v>
+      </c>
+      <c r="F45" s="19">
+        <v>58.84</v>
+      </c>
+      <c r="G45" s="19">
+        <v>57.65</v>
+      </c>
+      <c r="H45" s="19">
+        <v>50.11</v>
+      </c>
+      <c r="I45" s="19">
+        <v>68.83</v>
+      </c>
+      <c r="J45" s="19">
+        <v>5.13</v>
+      </c>
+      <c r="K45" s="19">
+        <v>57.23</v>
+      </c>
+      <c r="L45" s="19">
+        <v>59.64</v>
+      </c>
+      <c r="M45" s="19">
         <v>1.05</v>
       </c>
-      <c r="F45" s="21">
+      <c r="N45" s="19">
         <v>0.458767515378104</v>
       </c>
-      <c r="G45" s="21">
+      <c r="O45" s="19">
         <v>57.65</v>
       </c>
-      <c r="H45" s="21">
+      <c r="P45" s="19">
         <v>5.19</v>
       </c>
-      <c r="I45" s="21">
+      <c r="Q45" s="19">
         <v>0.0068026206644175</v>
       </c>
-      <c r="J45" s="21">
+      <c r="R45" s="19">
         <v>50.11</v>
       </c>
-      <c r="K45" s="21">
+      <c r="S45" s="19">
         <v>0.14</v>
       </c>
-      <c r="L45" s="21">
+      <c r="T45" s="19">
         <v>1.1295228683382</v>
       </c>
-      <c r="M45" s="21">
+      <c r="U45" s="19">
         <v>68.83</v>
       </c>
-      <c r="N45" s="21">
+      <c r="V45" s="19">
         <v>93.92</v>
       </c>
-      <c r="O45" s="21">
+      <c r="W45" s="19">
         <v>0.530312416341166</v>
       </c>
-      <c r="P45" s="21">
+      <c r="X45" s="19">
         <v>58.84</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Y45" s="19">
         <v>2.01</v>
       </c>
-      <c r="R45" s="21">
+      <c r="Z45" s="19">
         <v>-2.69192669853714</v>
       </c>
-      <c r="S45" s="21">
+      <c r="AA45" s="19">
         <v>5.13</v>
       </c>
-      <c r="T45" s="21">
+      <c r="AB45" s="19">
         <v>41.64</v>
       </c>
-      <c r="U45" s="21">
+      <c r="AC45" s="19">
         <v>0.578589424328626</v>
       </c>
-      <c r="V45" s="21">
+      <c r="AD45" s="19">
         <v>59.64</v>
       </c>
-      <c r="W45" s="21">
+      <c r="AE45" s="19">
         <v>37.23</v>
       </c>
-      <c r="X45" s="21">
+      <c r="AF45" s="19">
         <v>0.43402421670644</v>
       </c>
-      <c r="Y45" s="21">
+      <c r="AG45" s="19">
         <v>57.23</v>
-      </c>
-      <c r="Z45" s="21">
-        <v>57.65</v>
-      </c>
-      <c r="AA45" s="21">
-        <v>50.11</v>
-      </c>
-      <c r="AB45" s="21">
-        <v>68.83</v>
-      </c>
-      <c r="AC45" s="21">
-        <v>0.43402421670644</v>
-      </c>
-      <c r="AD45" s="21">
-        <v>57.23</v>
-      </c>
-      <c r="AE45" s="21">
-        <v>5.13</v>
-      </c>
-      <c r="AF45" s="21">
-        <v>59.64</v>
-      </c>
-      <c r="AG45" s="21">
-        <v>51.06</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>49</v>
       </c>
-      <c r="B46" t="s" s="18">
+      <c r="B46" t="s" s="17">
         <v>121</v>
       </c>
-      <c r="C46" t="s" s="19">
+      <c r="C46" t="s" s="18">
         <v>122</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <v>2022</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
+        <v>51.93</v>
+      </c>
+      <c r="F46" s="19">
+        <v>66.41</v>
+      </c>
+      <c r="G46" s="19">
+        <v>44.7</v>
+      </c>
+      <c r="H46" s="19">
+        <v>69.77</v>
+      </c>
+      <c r="I46" s="19">
+        <v>62.44</v>
+      </c>
+      <c r="J46" s="19">
+        <v>50.09</v>
+      </c>
+      <c r="K46" s="19">
+        <v>46.18</v>
+      </c>
+      <c r="L46" s="19">
+        <v>23.93</v>
+      </c>
+      <c r="M46" s="19">
         <v>1.35</v>
       </c>
-      <c r="F46" s="21">
+      <c r="N46" s="19">
         <v>-0.318297982982203</v>
       </c>
-      <c r="G46" s="21">
+      <c r="O46" s="19">
         <v>44.7</v>
       </c>
-      <c r="H46" s="21">
+      <c r="P46" s="19">
         <v>3.49</v>
       </c>
-      <c r="I46" s="21">
+      <c r="Q46" s="19">
         <v>1.18592353583022</v>
       </c>
-      <c r="J46" s="21">
+      <c r="R46" s="19">
         <v>69.77</v>
       </c>
-      <c r="K46" s="21">
+      <c r="S46" s="19">
         <v>0.19</v>
       </c>
-      <c r="L46" s="21">
+      <c r="T46" s="19">
         <v>0.746133905194683</v>
       </c>
-      <c r="M46" s="21">
+      <c r="U46" s="19">
         <v>62.44</v>
       </c>
-      <c r="N46" s="21">
+      <c r="V46" s="19">
         <v>94.75</v>
       </c>
-      <c r="O46" s="21">
+      <c r="W46" s="19">
         <v>0.984896008978396</v>
       </c>
-      <c r="P46" s="21">
+      <c r="X46" s="19">
         <v>66.41</v>
       </c>
-      <c r="Q46" s="21">
+      <c r="Y46" s="19">
         <v>0.98</v>
       </c>
-      <c r="R46" s="21">
+      <c r="Z46" s="19">
         <v>0.0054352411314077</v>
       </c>
-      <c r="S46" s="21">
+      <c r="AA46" s="19">
         <v>50.09</v>
       </c>
-      <c r="T46" s="21">
+      <c r="AB46" s="19">
         <v>60.8</v>
       </c>
-      <c r="U46" s="21">
+      <c r="AC46" s="19">
         <v>-1.56438535354162</v>
       </c>
-      <c r="V46" s="21">
+      <c r="AD46" s="19">
         <v>23.93</v>
       </c>
-      <c r="W46" s="21">
+      <c r="AE46" s="19">
         <v>42.51</v>
       </c>
-      <c r="X46" s="21">
+      <c r="AF46" s="19">
         <v>-0.229481846427857</v>
       </c>
-      <c r="Y46" s="21">
+      <c r="AG46" s="19">
         <v>46.18</v>
-      </c>
-      <c r="Z46" s="21">
-        <v>44.7</v>
-      </c>
-      <c r="AA46" s="21">
-        <v>69.77</v>
-      </c>
-      <c r="AB46" s="21">
-        <v>62.44</v>
-      </c>
-      <c r="AC46" s="21">
-        <v>-0.229481846427857</v>
-      </c>
-      <c r="AD46" s="21">
-        <v>46.18</v>
-      </c>
-      <c r="AE46" s="21">
-        <v>50.09</v>
-      </c>
-      <c r="AF46" s="21">
-        <v>23.93</v>
-      </c>
-      <c r="AG46" s="21">
-        <v>51.93</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <v>50</v>
       </c>
-      <c r="B47" t="s" s="18">
+      <c r="B47" t="s" s="17">
         <v>123</v>
       </c>
-      <c r="C47" t="s" s="19">
+      <c r="C47" t="s" s="18">
         <v>124</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>2022</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
+        <v>45.01</v>
+      </c>
+      <c r="F47" s="19">
+        <v>39.21</v>
+      </c>
+      <c r="G47" s="19">
+        <v>74.48</v>
+      </c>
+      <c r="H47" s="19">
+        <v>59.82</v>
+      </c>
+      <c r="I47" s="19">
+        <v>8.76</v>
+      </c>
+      <c r="J47" s="19">
+        <v>75.41</v>
+      </c>
+      <c r="K47" s="19">
+        <v>32.31</v>
+      </c>
+      <c r="L47" s="19">
+        <v>25.05</v>
+      </c>
+      <c r="M47" s="19">
         <v>0.66</v>
       </c>
-      <c r="F47" s="21">
+      <c r="N47" s="19">
         <v>1.4689526632465</v>
       </c>
-      <c r="G47" s="21">
+      <c r="O47" s="19">
         <v>74.48</v>
       </c>
-      <c r="H47" s="21">
+      <c r="P47" s="19">
         <v>4.35</v>
       </c>
-      <c r="I47" s="21">
+      <c r="Q47" s="19">
         <v>0.589427072863991</v>
       </c>
-      <c r="J47" s="21">
+      <c r="R47" s="19">
         <v>59.82</v>
       </c>
-      <c r="K47" s="21">
+      <c r="S47" s="19">
         <v>0.61</v>
       </c>
-      <c r="L47" s="21">
+      <c r="T47" s="19">
         <v>-2.47433338521083</v>
       </c>
-      <c r="M47" s="21">
+      <c r="U47" s="19">
         <v>8.76</v>
       </c>
-      <c r="N47" s="21">
+      <c r="V47" s="19">
         <v>91.77</v>
       </c>
-      <c r="O47" s="21">
+      <c r="W47" s="19">
         <v>-0.647223395911905</v>
       </c>
-      <c r="P47" s="21">
+      <c r="X47" s="19">
         <v>39.21</v>
       </c>
-      <c r="Q47" s="21">
+      <c r="Y47" s="19">
         <v>0.4</v>
       </c>
-      <c r="R47" s="21">
+      <c r="Z47" s="19">
         <v>1.52433808094476</v>
       </c>
-      <c r="S47" s="21">
+      <c r="AA47" s="19">
         <v>75.41</v>
       </c>
-      <c r="T47" s="21">
+      <c r="AB47" s="19">
         <v>60.2</v>
       </c>
-      <c r="U47" s="21">
+      <c r="AC47" s="19">
         <v>-1.49727758387971</v>
       </c>
-      <c r="V47" s="21">
+      <c r="AD47" s="19">
         <v>25.05</v>
       </c>
-      <c r="W47" s="21">
+      <c r="AE47" s="19">
         <v>49.13</v>
       </c>
-      <c r="X47" s="21">
+      <c r="AF47" s="19">
         <v>-1.0613777058879</v>
       </c>
-      <c r="Y47" s="21">
+      <c r="AG47" s="19">
         <v>32.31</v>
-      </c>
-      <c r="Z47" s="21">
-        <v>74.48</v>
-      </c>
-      <c r="AA47" s="21">
-        <v>59.82</v>
-      </c>
-      <c r="AB47" s="21">
-        <v>8.76</v>
-      </c>
-      <c r="AC47" s="21">
-        <v>-1.0613777058879</v>
-      </c>
-      <c r="AD47" s="21">
-        <v>32.31</v>
-      </c>
-      <c r="AE47" s="21">
-        <v>75.41</v>
-      </c>
-      <c r="AF47" s="21">
-        <v>25.05</v>
-      </c>
-      <c r="AG47" s="21">
-        <v>45.01</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>51</v>
       </c>
-      <c r="B48" t="s" s="18">
+      <c r="B48" t="s" s="17">
         <v>125</v>
       </c>
-      <c r="C48" t="s" s="19">
+      <c r="C48" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>2022</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="19">
+        <v>55.14</v>
+      </c>
+      <c r="F48" s="19">
+        <v>57.1</v>
+      </c>
+      <c r="G48" s="19">
+        <v>54.19</v>
+      </c>
+      <c r="H48" s="19">
+        <v>54.51</v>
+      </c>
+      <c r="I48" s="19">
+        <v>59.88</v>
+      </c>
+      <c r="J48" s="19">
+        <v>40.92</v>
+      </c>
+      <c r="K48" s="19">
+        <v>62.93</v>
+      </c>
+      <c r="L48" s="19">
+        <v>56.42</v>
+      </c>
+      <c r="M48" s="19">
         <v>1.13</v>
       </c>
-      <c r="F48" s="21">
+      <c r="N48" s="19">
         <v>0.251550049148689</v>
       </c>
-      <c r="G48" s="21">
+      <c r="O48" s="19">
         <v>54.19</v>
       </c>
-      <c r="H48" s="21">
+      <c r="P48" s="19">
         <v>4.81</v>
       </c>
-      <c r="I48" s="21">
+      <c r="Q48" s="19">
         <v>0.270370825230891</v>
       </c>
-      <c r="J48" s="21">
+      <c r="R48" s="19">
         <v>54.51</v>
       </c>
-      <c r="K48" s="21">
+      <c r="S48" s="19">
         <v>0.21</v>
       </c>
-      <c r="L48" s="21">
+      <c r="T48" s="19">
         <v>0.592778319937278</v>
       </c>
-      <c r="M48" s="21">
+      <c r="U48" s="19">
         <v>59.88</v>
       </c>
-      <c r="N48" s="21">
+      <c r="V48" s="19">
         <v>93.73</v>
       </c>
-      <c r="O48" s="21">
+      <c r="W48" s="19">
         <v>0.426251112002524</v>
       </c>
-      <c r="P48" s="21">
+      <c r="X48" s="19">
         <v>57.1</v>
       </c>
-      <c r="Q48" s="21">
+      <c r="Y48" s="19">
         <v>1.19</v>
       </c>
-      <c r="R48" s="21">
+      <c r="Z48" s="19">
         <v>-0.544512338801014</v>
       </c>
-      <c r="S48" s="21">
+      <c r="AA48" s="19">
         <v>40.92</v>
       </c>
-      <c r="T48" s="21">
+      <c r="AB48" s="19">
         <v>43.37</v>
       </c>
-      <c r="U48" s="21">
+      <c r="AC48" s="19">
         <v>0.385095355136793</v>
       </c>
-      <c r="V48" s="21">
+      <c r="AD48" s="19">
         <v>56.42</v>
       </c>
-      <c r="W48" s="21">
+      <c r="AE48" s="19">
         <v>34.51</v>
       </c>
-      <c r="X48" s="21">
+      <c r="AF48" s="19">
         <v>0.77583037044229</v>
       </c>
-      <c r="Y48" s="21">
+      <c r="AG48" s="19">
         <v>62.93</v>
-      </c>
-      <c r="Z48" s="21">
-        <v>54.19</v>
-      </c>
-      <c r="AA48" s="21">
-        <v>54.51</v>
-      </c>
-      <c r="AB48" s="21">
-        <v>59.88</v>
-      </c>
-      <c r="AC48" s="21">
-        <v>0.77583037044229</v>
-      </c>
-      <c r="AD48" s="21">
-        <v>62.93</v>
-      </c>
-      <c r="AE48" s="21">
-        <v>40.92</v>
-      </c>
-      <c r="AF48" s="21">
-        <v>56.42</v>
-      </c>
-      <c r="AG48" s="21">
-        <v>55.14</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="17">
+      <c r="A49" s="16">
         <v>53</v>
       </c>
-      <c r="B49" t="s" s="18">
+      <c r="B49" t="s" s="17">
         <v>127</v>
       </c>
-      <c r="C49" t="s" s="19">
+      <c r="C49" t="s" s="18">
         <v>128</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="19">
         <v>2022</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
+        <v>53.12</v>
+      </c>
+      <c r="F49" s="19">
+        <v>57.56</v>
+      </c>
+      <c r="G49" s="19">
+        <v>74.48</v>
+      </c>
+      <c r="H49" s="19">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="I49" s="19">
+        <v>35.6</v>
+      </c>
+      <c r="J49" s="19">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="K49" s="19">
+        <v>33.63</v>
+      </c>
+      <c r="L49" s="19">
+        <v>32.39</v>
+      </c>
+      <c r="M49" s="19">
         <v>0.66</v>
       </c>
-      <c r="F49" s="21">
+      <c r="N49" s="19">
         <v>1.4689526632465</v>
       </c>
-      <c r="G49" s="21">
+      <c r="O49" s="19">
         <v>74.48</v>
       </c>
-      <c r="H49" s="21">
+      <c r="P49" s="19">
         <v>3.3</v>
       </c>
-      <c r="I49" s="21">
+      <c r="Q49" s="19">
         <v>1.31770763811346</v>
       </c>
-      <c r="J49" s="21">
+      <c r="R49" s="19">
         <v>71.95999999999999</v>
       </c>
-      <c r="K49" s="21">
+      <c r="S49" s="19">
         <v>0.4</v>
       </c>
-      <c r="L49" s="21">
+      <c r="T49" s="19">
         <v>-0.864099740008072</v>
       </c>
-      <c r="M49" s="21">
+      <c r="U49" s="19">
         <v>35.6</v>
       </c>
-      <c r="N49" s="21">
+      <c r="V49" s="19">
         <v>93.78</v>
       </c>
-      <c r="O49" s="21">
+      <c r="W49" s="19">
         <v>0.45363566577585</v>
       </c>
-      <c r="P49" s="21">
+      <c r="X49" s="19">
         <v>57.56</v>
       </c>
-      <c r="Q49" s="21">
+      <c r="Y49" s="19">
         <v>0.61</v>
       </c>
-      <c r="R49" s="21">
+      <c r="Z49" s="19">
         <v>0.974390501012341</v>
       </c>
-      <c r="S49" s="21">
+      <c r="AA49" s="19">
         <v>66.23999999999999</v>
       </c>
-      <c r="T49" s="21">
+      <c r="AB49" s="19">
         <v>56.26</v>
       </c>
-      <c r="U49" s="21">
+      <c r="AC49" s="19">
         <v>-1.05660322976652</v>
       </c>
-      <c r="V49" s="21">
+      <c r="AD49" s="19">
         <v>32.39</v>
       </c>
-      <c r="W49" s="21">
+      <c r="AE49" s="19">
         <v>48.5</v>
       </c>
-      <c r="X49" s="21">
+      <c r="AF49" s="19">
         <v>-0.98220936880938</v>
       </c>
-      <c r="Y49" s="21">
+      <c r="AG49" s="19">
         <v>33.63</v>
-      </c>
-      <c r="Z49" s="21">
-        <v>74.48</v>
-      </c>
-      <c r="AA49" s="21">
-        <v>71.95999999999999</v>
-      </c>
-      <c r="AB49" s="21">
-        <v>35.6</v>
-      </c>
-      <c r="AC49" s="21">
-        <v>-0.98220936880938</v>
-      </c>
-      <c r="AD49" s="21">
-        <v>33.63</v>
-      </c>
-      <c r="AE49" s="21">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="AF49" s="21">
-        <v>32.39</v>
-      </c>
-      <c r="AG49" s="21">
-        <v>53.12</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="17">
+      <c r="A50" s="16">
         <v>54</v>
       </c>
-      <c r="B50" t="s" s="18">
+      <c r="B50" t="s" s="17">
         <v>129</v>
       </c>
-      <c r="C50" t="s" s="19">
+      <c r="C50" t="s" s="18">
         <v>130</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <v>2022</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
+        <v>54.02</v>
+      </c>
+      <c r="F50" s="19">
+        <v>63.31</v>
+      </c>
+      <c r="G50" s="19">
+        <v>67.14</v>
+      </c>
+      <c r="H50" s="19">
+        <v>53.58</v>
+      </c>
+      <c r="I50" s="19">
+        <v>63.71</v>
+      </c>
+      <c r="J50" s="19">
+        <v>23.47</v>
+      </c>
+      <c r="K50" s="19">
+        <v>55.85</v>
+      </c>
+      <c r="L50" s="19">
+        <v>51.05</v>
+      </c>
+      <c r="M50" s="19">
         <v>0.83</v>
       </c>
-      <c r="F50" s="21">
+      <c r="N50" s="19">
         <v>1.028615547509</v>
       </c>
-      <c r="G50" s="21">
+      <c r="O50" s="19">
         <v>67.14</v>
       </c>
-      <c r="H50" s="21">
+      <c r="P50" s="19">
         <v>4.89</v>
       </c>
-      <c r="I50" s="21">
+      <c r="Q50" s="19">
         <v>0.214882782164265</v>
       </c>
-      <c r="J50" s="21">
+      <c r="R50" s="19">
         <v>53.58</v>
       </c>
-      <c r="K50" s="21">
+      <c r="S50" s="19">
         <v>0.18</v>
       </c>
-      <c r="L50" s="21">
+      <c r="T50" s="19">
         <v>0.822811697823386</v>
       </c>
-      <c r="M50" s="21">
+      <c r="U50" s="19">
         <v>63.71</v>
       </c>
-      <c r="N50" s="21">
+      <c r="V50" s="19">
         <v>94.41</v>
       </c>
-      <c r="O50" s="21">
+      <c r="W50" s="19">
         <v>0.79868104331977</v>
       </c>
-      <c r="P50" s="21">
+      <c r="X50" s="19">
         <v>63.31</v>
       </c>
-      <c r="Q50" s="21">
+      <c r="Y50" s="19">
         <v>1.59</v>
       </c>
-      <c r="R50" s="21">
+      <c r="Z50" s="19">
         <v>-1.59203153867229</v>
       </c>
-      <c r="S50" s="21">
+      <c r="AA50" s="19">
         <v>23.47</v>
       </c>
-      <c r="T50" s="21">
+      <c r="AB50" s="19">
         <v>46.25</v>
       </c>
-      <c r="U50" s="21">
+      <c r="AC50" s="19">
         <v>0.0629780607596368</v>
       </c>
-      <c r="V50" s="21">
+      <c r="AD50" s="19">
         <v>51.05</v>
       </c>
-      <c r="W50" s="21">
+      <c r="AE50" s="19">
         <v>37.89</v>
       </c>
-      <c r="X50" s="21">
+      <c r="AF50" s="19">
         <v>0.351085958814652</v>
       </c>
-      <c r="Y50" s="21">
+      <c r="AG50" s="19">
         <v>55.85</v>
-      </c>
-      <c r="Z50" s="21">
-        <v>67.14</v>
-      </c>
-      <c r="AA50" s="21">
-        <v>53.58</v>
-      </c>
-      <c r="AB50" s="21">
-        <v>63.71</v>
-      </c>
-      <c r="AC50" s="21">
-        <v>0.351085958814652</v>
-      </c>
-      <c r="AD50" s="21">
-        <v>55.85</v>
-      </c>
-      <c r="AE50" s="21">
-        <v>23.47</v>
-      </c>
-      <c r="AF50" s="21">
-        <v>51.05</v>
-      </c>
-      <c r="AG50" s="21">
-        <v>54.02</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>55</v>
       </c>
-      <c r="B51" t="s" s="18">
+      <c r="B51" t="s" s="17">
         <v>131</v>
       </c>
-      <c r="C51" t="s" s="19">
+      <c r="C51" t="s" s="18">
         <v>132</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="19">
         <v>2022</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="19">
+        <v>48.83</v>
+      </c>
+      <c r="F51" s="19">
+        <v>46.15</v>
+      </c>
+      <c r="G51" s="19">
+        <v>67.14</v>
+      </c>
+      <c r="H51" s="19">
+        <v>50</v>
+      </c>
+      <c r="I51" s="19">
+        <v>47.1</v>
+      </c>
+      <c r="J51" s="19">
+        <v>54.46</v>
+      </c>
+      <c r="K51" s="19">
+        <v>36.77</v>
+      </c>
+      <c r="L51" s="19">
+        <v>40.18</v>
+      </c>
+      <c r="M51" s="19">
         <v>0.83</v>
       </c>
-      <c r="F51" s="21">
+      <c r="N51" s="19">
         <v>1.028615547509</v>
       </c>
-      <c r="G51" s="21">
+      <c r="O51" s="19">
         <v>67.14</v>
       </c>
-      <c r="H51" s="21">
+      <c r="P51" s="19">
         <v>5.2</v>
       </c>
-      <c r="I51" s="21">
+      <c r="Q51" s="19">
         <v>-0.0001333847189105</v>
       </c>
-      <c r="J51" s="21">
+      <c r="R51" s="19">
         <v>50</v>
       </c>
-      <c r="K51" s="21">
+      <c r="S51" s="19">
         <v>0.31</v>
       </c>
-      <c r="L51" s="21">
+      <c r="T51" s="19">
         <v>-0.173999606349748</v>
       </c>
-      <c r="M51" s="21">
+      <c r="U51" s="19">
         <v>47.1</v>
       </c>
-      <c r="N51" s="21">
+      <c r="V51" s="19">
         <v>92.53</v>
       </c>
-      <c r="O51" s="21">
+      <c r="W51" s="19">
         <v>-0.230978178557329</v>
       </c>
-      <c r="P51" s="21">
+      <c r="X51" s="19">
         <v>46.15</v>
       </c>
-      <c r="Q51" s="21">
+      <c r="Y51" s="19">
         <v>0.88</v>
       </c>
-      <c r="R51" s="21">
+      <c r="Z51" s="19">
         <v>0.267315041099228</v>
       </c>
-      <c r="S51" s="21">
+      <c r="AA51" s="19">
         <v>54.46</v>
       </c>
-      <c r="T51" s="21">
+      <c r="AB51" s="19">
         <v>52.08</v>
       </c>
-      <c r="U51" s="21">
+      <c r="AC51" s="19">
         <v>-0.589085767788565</v>
       </c>
-      <c r="V51" s="21">
+      <c r="AD51" s="19">
         <v>40.18</v>
       </c>
-      <c r="W51" s="21">
+      <c r="AE51" s="19">
         <v>47</v>
       </c>
-      <c r="X51" s="21">
+      <c r="AF51" s="19">
         <v>-0.793713328146228</v>
       </c>
-      <c r="Y51" s="21">
+      <c r="AG51" s="19">
         <v>36.77</v>
-      </c>
-      <c r="Z51" s="21">
-        <v>67.14</v>
-      </c>
-      <c r="AA51" s="21">
-        <v>50</v>
-      </c>
-      <c r="AB51" s="21">
-        <v>47.1</v>
-      </c>
-      <c r="AC51" s="21">
-        <v>-0.793713328146228</v>
-      </c>
-      <c r="AD51" s="21">
-        <v>36.77</v>
-      </c>
-      <c r="AE51" s="21">
-        <v>54.46</v>
-      </c>
-      <c r="AF51" s="21">
-        <v>40.18</v>
-      </c>
-      <c r="AG51" s="21">
-        <v>48.83</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>56</v>
       </c>
-      <c r="B52" t="s" s="18">
+      <c r="B52" t="s" s="17">
         <v>133</v>
       </c>
-      <c r="C52" t="s" s="19">
+      <c r="C52" t="s" s="18">
         <v>134</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <v>2022</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
+        <v>56.95</v>
+      </c>
+      <c r="F52" s="19">
+        <v>64.22</v>
+      </c>
+      <c r="G52" s="19">
+        <v>75.78</v>
+      </c>
+      <c r="H52" s="19">
+        <v>55.32</v>
+      </c>
+      <c r="I52" s="19">
+        <v>68.83</v>
+      </c>
+      <c r="J52" s="19">
+        <v>50.09</v>
+      </c>
+      <c r="K52" s="19">
+        <v>50.68</v>
+      </c>
+      <c r="L52" s="19">
+        <v>33.73</v>
+      </c>
+      <c r="M52" s="19">
         <v>0.63</v>
       </c>
-      <c r="F52" s="21">
+      <c r="N52" s="19">
         <v>1.54665921308253</v>
       </c>
-      <c r="G52" s="21">
+      <c r="O52" s="19">
         <v>75.78</v>
       </c>
-      <c r="H52" s="21">
+      <c r="P52" s="19">
         <v>4.74</v>
       </c>
-      <c r="I52" s="21">
+      <c r="Q52" s="19">
         <v>0.318922862914189</v>
       </c>
-      <c r="J52" s="21">
+      <c r="R52" s="19">
         <v>55.32</v>
       </c>
-      <c r="K52" s="21">
+      <c r="S52" s="19">
         <v>0.14</v>
       </c>
-      <c r="L52" s="21">
+      <c r="T52" s="19">
         <v>1.1295228683382</v>
       </c>
-      <c r="M52" s="21">
+      <c r="U52" s="19">
         <v>68.83</v>
       </c>
-      <c r="N52" s="21">
+      <c r="V52" s="19">
         <v>94.51000000000001</v>
       </c>
-      <c r="O52" s="21">
+      <c r="W52" s="19">
         <v>0.8534501508664289</v>
       </c>
-      <c r="P52" s="21">
+      <c r="X52" s="19">
         <v>64.22</v>
       </c>
-      <c r="Q52" s="21">
+      <c r="Y52" s="19">
         <v>0.98</v>
       </c>
-      <c r="R52" s="21">
+      <c r="Z52" s="19">
         <v>0.0054352411314077</v>
       </c>
-      <c r="S52" s="21">
+      <c r="AA52" s="19">
         <v>50.09</v>
       </c>
-      <c r="T52" s="21">
+      <c r="AB52" s="19">
         <v>55.54</v>
       </c>
-      <c r="U52" s="21">
+      <c r="AC52" s="19">
         <v>-0.976073906172231</v>
       </c>
-      <c r="V52" s="21">
+      <c r="AD52" s="19">
         <v>33.73</v>
       </c>
-      <c r="W52" s="21">
+      <c r="AE52" s="19">
         <v>40.36</v>
       </c>
-      <c r="X52" s="21">
+      <c r="AF52" s="19">
         <v>0.0406958118559945</v>
       </c>
-      <c r="Y52" s="21">
+      <c r="AG52" s="19">
         <v>50.68</v>
-      </c>
-      <c r="Z52" s="21">
-        <v>75.78</v>
-      </c>
-      <c r="AA52" s="21">
-        <v>55.32</v>
-      </c>
-      <c r="AB52" s="21">
-        <v>68.83</v>
-      </c>
-      <c r="AC52" s="21">
-        <v>0.0406958118559945</v>
-      </c>
-      <c r="AD52" s="21">
-        <v>50.68</v>
-      </c>
-      <c r="AE52" s="21">
-        <v>50.09</v>
-      </c>
-      <c r="AF52" s="21">
-        <v>33.73</v>
-      </c>
-      <c r="AG52" s="21">
-        <v>56.95</v>
       </c>
     </row>
   </sheetData>
